--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dunkin-sales-summary\data\hme\transformed\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A0C54B-1660-4BBD-B72F-0C1FEC02E622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-23220" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -97,11 +103,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -149,29 +155,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -209,7 +235,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -243,6 +269,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -277,9 +304,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -452,14 +480,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T10" sqref="Q1:T10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,8 +538,11 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45906</v>
       </c>
@@ -553,7 +589,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45906</v>
       </c>
@@ -600,7 +636,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45906</v>
       </c>
@@ -647,7 +683,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45906</v>
       </c>
@@ -694,7 +730,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45906</v>
       </c>
@@ -741,7 +777,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45906</v>
       </c>
@@ -788,7 +824,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45906</v>
       </c>
@@ -835,7 +871,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45906</v>
       </c>
@@ -882,7 +918,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45906</v>
       </c>
@@ -929,7 +965,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45906</v>
       </c>
@@ -976,7 +1012,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45906</v>
       </c>
@@ -1023,7 +1059,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45906</v>
       </c>
@@ -1070,7 +1106,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45906</v>
       </c>
@@ -1117,7 +1153,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45906</v>
       </c>
@@ -1164,7 +1200,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45906</v>
       </c>
@@ -1211,7 +1247,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45906</v>
       </c>
@@ -1258,7 +1294,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45906</v>
       </c>
@@ -1305,7 +1341,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45906</v>
       </c>
@@ -1352,7 +1388,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45906</v>
       </c>
@@ -1399,7 +1435,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45906</v>
       </c>
@@ -1446,7 +1482,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45906</v>
       </c>
@@ -1493,7 +1529,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45906</v>
       </c>
@@ -1540,7 +1576,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45906</v>
       </c>
@@ -1587,7 +1623,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45906</v>
       </c>
@@ -1634,7 +1670,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45906</v>
       </c>
@@ -1683,5 +1719,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -508,7 +508,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>45920</v>
+        <v>45921</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -517,16 +517,16 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="E2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -544,18 +544,18 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="N2">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="O2">
-        <v>129</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>45920</v>
+        <v>45921</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -564,19 +564,19 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="E3">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -591,18 +591,18 @@
         <v>0</v>
       </c>
       <c r="M3">
+        <v>60</v>
+      </c>
+      <c r="N3">
         <v>57</v>
       </c>
-      <c r="N3">
-        <v>51</v>
-      </c>
       <c r="O3">
-        <v>145</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>45920</v>
+        <v>45921</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -611,19 +611,19 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E4">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -638,18 +638,18 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="N4">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="O4">
-        <v>214</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>45920</v>
+        <v>45921</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -661,16 +661,16 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -685,18 +685,18 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N5">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O5">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>45920</v>
+        <v>45921</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -705,19 +705,19 @@
         <v>25</v>
       </c>
       <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>19</v>
+      </c>
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="E6">
-        <v>21</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
       <c r="G6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -732,18 +732,18 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="N6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O6">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>45920</v>
+        <v>45921</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -752,19 +752,19 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="E7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -779,18 +779,18 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N7">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="O7">
-        <v>201</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>45920</v>
+        <v>45921</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -799,19 +799,19 @@
         <v>22</v>
       </c>
       <c r="D8">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -826,18 +826,18 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N8">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="O8">
-        <v>223</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>45920</v>
+        <v>45921</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -846,16 +846,16 @@
         <v>23</v>
       </c>
       <c r="D9">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E9">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F9">
         <v>5</v>
       </c>
       <c r="G9">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -873,18 +873,18 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N9">
         <v>38</v>
       </c>
       <c r="O9">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>45920</v>
+        <v>45921</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -893,19 +893,19 @@
         <v>24</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E10">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -920,18 +920,18 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="N10">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="O10">
-        <v>125</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>45920</v>
+        <v>45921</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -940,19 +940,19 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="E11">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -967,18 +967,18 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="N11">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="O11">
-        <v>240</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>45920</v>
+        <v>45921</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -987,19 +987,19 @@
         <v>22</v>
       </c>
       <c r="D12">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="E12">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="F12">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="G12">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1014,18 +1014,18 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="N12">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="O12">
-        <v>348</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>45920</v>
+        <v>45921</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1034,19 +1034,19 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E13">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G13">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1061,18 +1061,18 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="N13">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="O13">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>45920</v>
+        <v>45921</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1084,16 +1084,16 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G14">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1108,18 +1108,18 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="N14">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="O14">
-        <v>203</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>45920</v>
+        <v>45921</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1128,19 +1128,19 @@
         <v>21</v>
       </c>
       <c r="D15">
-        <v>205</v>
+        <v>152</v>
       </c>
       <c r="E15">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1155,18 +1155,18 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="N15">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="O15">
-        <v>159</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>45920</v>
+        <v>45921</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1175,19 +1175,19 @@
         <v>22</v>
       </c>
       <c r="D16">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="E16">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G16">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1202,18 +1202,18 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="N16">
-        <v>111</v>
+        <v>186</v>
       </c>
       <c r="O16">
-        <v>216</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>45920</v>
+        <v>45921</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1222,45 +1222,45 @@
         <v>23</v>
       </c>
       <c r="D17">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E17">
+        <v>61</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <v>61</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>119</v>
+      </c>
+      <c r="N17">
         <v>38</v>
       </c>
-      <c r="F17">
-        <v>5</v>
-      </c>
-      <c r="G17">
-        <v>38</v>
-      </c>
-      <c r="H17">
-        <v>5</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>90</v>
-      </c>
-      <c r="N17">
-        <v>43</v>
-      </c>
       <c r="O17">
-        <v>171</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>45920</v>
+        <v>45921</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1269,19 +1269,19 @@
         <v>24</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G18">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1296,18 +1296,18 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="N18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O18">
-        <v>150</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>45920</v>
+        <v>45921</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1316,10 +1316,10 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="E19">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -1340,21 +1340,21 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N19">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="O19">
-        <v>199</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>45920</v>
+        <v>45921</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1363,13 +1363,13 @@
         <v>22</v>
       </c>
       <c r="D20">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="E20">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1378,30 +1378,30 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="N20">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="O20">
-        <v>224</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>45920</v>
+        <v>45921</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1410,10 +1410,10 @@
         <v>23</v>
       </c>
       <c r="D21">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E21">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>6</v>
@@ -1437,18 +1437,18 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="N21">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="O21">
-        <v>174</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>45920</v>
+        <v>45921</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1457,13 +1457,13 @@
         <v>24</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E22">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1472,10 +1472,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1484,18 +1484,18 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="N22">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O22">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>45920</v>
+        <v>45921</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1504,19 +1504,19 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c r="E23">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1531,18 +1531,18 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N23">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="O23">
-        <v>174</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>45920</v>
+        <v>45921</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1551,16 +1551,16 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="E24">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F24">
         <v>3</v>
       </c>
       <c r="G24">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -1578,18 +1578,18 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N24">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="O24">
-        <v>238</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>45920</v>
+        <v>45921</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1598,16 +1598,16 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E25">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F25">
         <v>3</v>
       </c>
       <c r="G25">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -1625,18 +1625,18 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="N25">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="O25">
-        <v>200</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>45920</v>
+        <v>45921</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1645,19 +1645,19 @@
         <v>24</v>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E26">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1672,13 +1672,13 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="N26">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="O26">
-        <v>223</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -508,7 +508,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>45921</v>
+        <v>45922</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -517,19 +517,19 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="E2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -544,18 +544,18 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N2">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O2">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>45921</v>
+        <v>45922</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -564,19 +564,19 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="E3">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -591,18 +591,18 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N3">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="O3">
-        <v>163</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>45921</v>
+        <v>45922</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -611,19 +611,19 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E4">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -638,18 +638,18 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="N4">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="O4">
-        <v>178</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>45921</v>
+        <v>45922</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -658,19 +658,19 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E5">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -685,18 +685,18 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="N5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O5">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>45921</v>
+        <v>45922</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -705,19 +705,19 @@
         <v>25</v>
       </c>
       <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="E6">
-        <v>19</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
       <c r="G6">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -732,18 +732,18 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="N6">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="O6">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>45921</v>
+        <v>45922</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -752,19 +752,19 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>204</v>
+        <v>258</v>
       </c>
       <c r="E7">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -779,18 +779,18 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="N7">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O7">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>45921</v>
+        <v>45922</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -799,19 +799,19 @@
         <v>22</v>
       </c>
       <c r="D8">
-        <v>204</v>
+        <v>119</v>
       </c>
       <c r="E8">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -826,18 +826,18 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N8">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="O8">
-        <v>156</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>45921</v>
+        <v>45922</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -846,19 +846,19 @@
         <v>23</v>
       </c>
       <c r="D9">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="E9">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -873,18 +873,18 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N9">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O9">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>45921</v>
+        <v>45922</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -893,19 +893,19 @@
         <v>24</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -920,18 +920,18 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="N10">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="O10">
-        <v>160</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>45921</v>
+        <v>45922</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -940,19 +940,19 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>156</v>
+        <v>231</v>
       </c>
       <c r="E11">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G11">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -967,18 +967,18 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="N11">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="O11">
-        <v>169</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>45921</v>
+        <v>45922</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -987,19 +987,19 @@
         <v>22</v>
       </c>
       <c r="D12">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E12">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="F12">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G12">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="H12">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1014,18 +1014,18 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="N12">
-        <v>227</v>
+        <v>137</v>
       </c>
       <c r="O12">
-        <v>420</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>45921</v>
+        <v>45922</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1034,19 +1034,19 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F13">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G13">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H13">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1061,18 +1061,18 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="N13">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="O13">
-        <v>304</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>45921</v>
+        <v>45922</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1081,19 +1081,19 @@
         <v>24</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E14">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F14">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G14">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1108,18 +1108,18 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="N14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O14">
-        <v>160</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>45921</v>
+        <v>45922</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1128,19 +1128,19 @@
         <v>21</v>
       </c>
       <c r="D15">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="E15">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G15">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1155,18 +1155,18 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N15">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="O15">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>45921</v>
+        <v>45922</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1175,19 +1175,19 @@
         <v>22</v>
       </c>
       <c r="D16">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="E16">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F16">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G16">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="H16">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1202,18 +1202,18 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="N16">
-        <v>186</v>
+        <v>109</v>
       </c>
       <c r="O16">
-        <v>321</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>45921</v>
+        <v>45922</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1222,19 +1222,19 @@
         <v>23</v>
       </c>
       <c r="D17">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E17">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G17">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H17">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1249,18 +1249,18 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="N17">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="O17">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>45921</v>
+        <v>45922</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1269,19 +1269,19 @@
         <v>24</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G18">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1296,18 +1296,18 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="N18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O18">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>45921</v>
+        <v>45922</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1316,13 +1316,13 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>144</v>
+        <v>215</v>
       </c>
       <c r="E19">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1331,30 +1331,30 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="N19">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="O19">
-        <v>160</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>45921</v>
+        <v>45922</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1363,13 +1363,13 @@
         <v>22</v>
       </c>
       <c r="D20">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="E20">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1378,30 +1378,30 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="N20">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="O20">
-        <v>251</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>45921</v>
+        <v>45922</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1410,13 +1410,13 @@
         <v>23</v>
       </c>
       <c r="D21">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E21">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1437,18 +1437,18 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="N21">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="O21">
-        <v>143</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>45921</v>
+        <v>45922</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1457,13 +1457,13 @@
         <v>24</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E22">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1472,10 +1472,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1484,18 +1484,18 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="N22">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="O22">
-        <v>96</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>45921</v>
+        <v>45922</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1504,16 +1504,16 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>170</v>
+        <v>242</v>
       </c>
       <c r="E23">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F23">
         <v>2</v>
       </c>
       <c r="G23">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -1531,18 +1531,18 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N23">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="O23">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>45921</v>
+        <v>45922</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1551,45 +1551,45 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>205</v>
+        <v>105</v>
       </c>
       <c r="E24">
+        <v>29</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>29</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>63</v>
+      </c>
+      <c r="N24">
         <v>41</v>
       </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-      <c r="G24">
-        <v>41</v>
-      </c>
-      <c r="H24">
-        <v>3</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>55</v>
-      </c>
-      <c r="N24">
-        <v>94</v>
-      </c>
       <c r="O24">
-        <v>215</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>45921</v>
+        <v>45922</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1598,16 +1598,16 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E25">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F25">
         <v>3</v>
       </c>
       <c r="G25">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -1625,18 +1625,18 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N25">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="O25">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>45921</v>
+        <v>45922</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1645,40 +1645,40 @@
         <v>24</v>
       </c>
       <c r="D26">
+        <v>18</v>
+      </c>
+      <c r="E26">
+        <v>32</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>32</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>72</v>
+      </c>
+      <c r="N26">
         <v>11</v>
       </c>
-      <c r="E26">
-        <v>33</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <v>33</v>
-      </c>
-      <c r="H26">
-        <v>2</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>115</v>
-      </c>
-      <c r="N26">
-        <v>46</v>
-      </c>
       <c r="O26">
-        <v>194</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -508,7 +508,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -517,16 +517,16 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -547,15 +547,15 @@
         <v>36</v>
       </c>
       <c r="N2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O2">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -564,16 +564,16 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -591,18 +591,18 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="N3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O3">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -611,19 +611,19 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -638,18 +638,18 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N4">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O4">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -658,16 +658,16 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -685,18 +685,18 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="N5">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O5">
-        <v>168</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -705,19 +705,19 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E6">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -732,18 +732,18 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="N6">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="O6">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -752,16 +752,16 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>258</v>
+        <v>303</v>
       </c>
       <c r="E7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -779,18 +779,18 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O7">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -799,19 +799,19 @@
         <v>22</v>
       </c>
       <c r="D8">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="E8">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -826,18 +826,18 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="N8">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="O8">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -846,19 +846,19 @@
         <v>23</v>
       </c>
       <c r="D9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E9">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -873,18 +873,18 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N9">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="O9">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -893,19 +893,19 @@
         <v>24</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E10">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -920,18 +920,18 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="N10">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="O10">
-        <v>179</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -940,19 +940,19 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E11">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F11">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G11">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H11">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -967,18 +967,18 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N11">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="O11">
-        <v>201</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -987,19 +987,19 @@
         <v>22</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E12">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F12">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G12">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1014,18 +1014,18 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="N12">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="O12">
-        <v>290</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1040,13 +1040,13 @@
         <v>46</v>
       </c>
       <c r="F13">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G13">
         <v>46</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1061,18 +1061,18 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="N13">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="O13">
-        <v>203</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1081,19 +1081,19 @@
         <v>24</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="F14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G14">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1108,18 +1108,18 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="N14">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="O14">
-        <v>137</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1128,19 +1128,19 @@
         <v>21</v>
       </c>
       <c r="D15">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="E15">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F15">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G15">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1155,18 +1155,18 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="N15">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="O15">
-        <v>261</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1175,19 +1175,19 @@
         <v>22</v>
       </c>
       <c r="D16">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E16">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G16">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1202,18 +1202,18 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="N16">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="O16">
-        <v>234</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1222,19 +1222,19 @@
         <v>23</v>
       </c>
       <c r="D17">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="E17">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="F17">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G17">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1249,18 +1249,18 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="N17">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="O17">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1269,16 +1269,16 @@
         <v>24</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E18">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="F18">
         <v>6</v>
       </c>
       <c r="G18">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="H18">
         <v>6</v>
@@ -1296,18 +1296,18 @@
         <v>0</v>
       </c>
       <c r="M18">
+        <v>192</v>
+      </c>
+      <c r="N18">
         <v>131</v>
       </c>
-      <c r="N18">
-        <v>12</v>
-      </c>
       <c r="O18">
-        <v>211</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1316,10 +1316,10 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="E19">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N19">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O19">
         <v>133</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1363,13 +1363,13 @@
         <v>22</v>
       </c>
       <c r="D20">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E20">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1390,18 +1390,18 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N20">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="O20">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1410,45 +1410,45 @@
         <v>23</v>
       </c>
       <c r="D21">
+        <v>54</v>
+      </c>
+      <c r="E21">
+        <v>32</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>32</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
         <v>61</v>
       </c>
-      <c r="E21">
-        <v>44</v>
-      </c>
-      <c r="F21">
-        <v>7</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>44</v>
-      </c>
-      <c r="J21">
-        <v>7</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>91</v>
-      </c>
       <c r="N21">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="O21">
-        <v>194</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1457,13 +1457,13 @@
         <v>24</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E22">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1472,10 +1472,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1484,18 +1484,18 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="N22">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="O22">
-        <v>208</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1507,16 +1507,16 @@
         <v>242</v>
       </c>
       <c r="E23">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1531,18 +1531,18 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N23">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="O23">
-        <v>146</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1551,16 +1551,16 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E24">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F24">
         <v>2</v>
       </c>
       <c r="G24">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -1578,18 +1578,18 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="N24">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="O24">
-        <v>142</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1598,19 +1598,19 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E25">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G25">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1625,18 +1625,18 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="N25">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="O25">
-        <v>146</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1645,19 +1645,19 @@
         <v>24</v>
       </c>
       <c r="D26">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G26">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1672,13 +1672,13 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="N26">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O26">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -508,7 +508,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>45924</v>
+        <v>45928</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -517,16 +517,16 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -544,18 +544,18 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="N2">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O2">
-        <v>86</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>45924</v>
+        <v>45928</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -564,19 +564,19 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -591,18 +591,18 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N3">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="O3">
-        <v>103</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>45924</v>
+        <v>45928</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -611,19 +611,19 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E4">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -638,18 +638,18 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="N4">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O4">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>45924</v>
+        <v>45928</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -661,16 +661,16 @@
         <v>16</v>
       </c>
       <c r="E5">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -685,18 +685,18 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="N5">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="O5">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>45924</v>
+        <v>45928</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -705,19 +705,19 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -732,18 +732,18 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="N6">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="O6">
-        <v>181</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>45924</v>
+        <v>45928</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -752,19 +752,19 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>303</v>
+        <v>199</v>
       </c>
       <c r="E7">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -779,18 +779,18 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="N7">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="O7">
-        <v>118</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>45924</v>
+        <v>45928</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -799,16 +799,16 @@
         <v>22</v>
       </c>
       <c r="D8">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="E8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -826,18 +826,18 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N8">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="O8">
-        <v>129</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>45924</v>
+        <v>45928</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -846,19 +846,19 @@
         <v>23</v>
       </c>
       <c r="D9">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="E9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -873,18 +873,18 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="N9">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="O9">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>45924</v>
+        <v>45928</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -893,19 +893,19 @@
         <v>24</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -920,18 +920,18 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N10">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="O10">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>45924</v>
+        <v>45928</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -940,19 +940,19 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="E11">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F11">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H11">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -967,18 +967,18 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N11">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="O11">
-        <v>230</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>45924</v>
+        <v>45928</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -987,19 +987,19 @@
         <v>22</v>
       </c>
       <c r="D12">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="E12">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G12">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1014,18 +1014,18 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="N12">
-        <v>51</v>
+        <v>163</v>
       </c>
       <c r="O12">
-        <v>178</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>45924</v>
+        <v>45928</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1034,19 +1034,19 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E13">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F13">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G13">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1061,18 +1061,18 @@
         <v>0</v>
       </c>
       <c r="M13">
+        <v>143</v>
+      </c>
+      <c r="N13">
         <v>99</v>
       </c>
-      <c r="N13">
-        <v>81</v>
-      </c>
       <c r="O13">
-        <v>227</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>45924</v>
+        <v>45928</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1081,19 +1081,19 @@
         <v>24</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E14">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="F14">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1108,18 +1108,18 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="N14">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="O14">
-        <v>258</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>45924</v>
+        <v>45928</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1128,16 +1128,16 @@
         <v>21</v>
       </c>
       <c r="D15">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E15">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15">
         <v>8</v>
       </c>
       <c r="G15">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>8</v>
@@ -1155,18 +1155,18 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N15">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="O15">
-        <v>205</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>45924</v>
+        <v>45928</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1175,19 +1175,19 @@
         <v>22</v>
       </c>
       <c r="D16">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="E16">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G16">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1202,18 +1202,18 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="N16">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="O16">
-        <v>172</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>45924</v>
+        <v>45928</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1222,19 +1222,19 @@
         <v>23</v>
       </c>
       <c r="D17">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E17">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G17">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1249,18 +1249,18 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="N17">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="O17">
-        <v>164</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>45924</v>
+        <v>45928</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1269,19 +1269,19 @@
         <v>24</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E18">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G18">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1296,18 +1296,18 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>192</v>
+        <v>120</v>
       </c>
       <c r="N18">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="O18">
-        <v>371</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>45924</v>
+        <v>45928</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1316,10 +1316,10 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>229</v>
+        <v>133</v>
       </c>
       <c r="E19">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -1343,18 +1343,18 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N19">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="O19">
-        <v>133</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>45924</v>
+        <v>45928</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1363,45 +1363,45 @@
         <v>22</v>
       </c>
       <c r="D20">
+        <v>125</v>
+      </c>
+      <c r="E20">
+        <v>45</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>45</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>84</v>
       </c>
-      <c r="E20">
-        <v>40</v>
-      </c>
-      <c r="F20">
-        <v>6</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>40</v>
-      </c>
-      <c r="J20">
-        <v>6</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>77</v>
-      </c>
       <c r="N20">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="O20">
-        <v>164</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>45924</v>
+        <v>45928</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1410,13 +1410,13 @@
         <v>23</v>
       </c>
       <c r="D21">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E21">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1437,18 +1437,18 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="N21">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="O21">
-        <v>119</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>45924</v>
+        <v>45928</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1457,45 +1457,45 @@
         <v>24</v>
       </c>
       <c r="D22">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <v>25</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>25</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>51</v>
+      </c>
+      <c r="N22">
         <v>11</v>
       </c>
-      <c r="E22">
-        <v>24</v>
-      </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>24</v>
-      </c>
-      <c r="J22">
-        <v>4</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>43</v>
-      </c>
-      <c r="N22">
-        <v>15</v>
-      </c>
       <c r="O22">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>45924</v>
+        <v>45928</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1504,16 +1504,16 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>242</v>
+        <v>172</v>
       </c>
       <c r="E23">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F23">
         <v>3</v>
       </c>
       <c r="G23">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H23">
         <v>3</v>
@@ -1531,18 +1531,18 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N23">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="O23">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>45924</v>
+        <v>45928</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1551,19 +1551,19 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="E24">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1578,18 +1578,18 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="N24">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="O24">
-        <v>164</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>45924</v>
+        <v>45928</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1598,19 +1598,19 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E25">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F25">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H25">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1625,18 +1625,18 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="N25">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="O25">
-        <v>186</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>45924</v>
+        <v>45928</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1645,19 +1645,19 @@
         <v>24</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E26">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G26">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H26">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1672,13 +1672,13 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="N26">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="O26">
-        <v>100</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -508,7 +508,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>45928</v>
+        <v>45932</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -517,19 +517,19 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>141</v>
+        <v>233</v>
       </c>
       <c r="E2">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -544,18 +544,18 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N2">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="O2">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>45928</v>
+        <v>45932</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -564,16 +564,16 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -594,15 +594,15 @@
         <v>52</v>
       </c>
       <c r="N3">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="O3">
-        <v>129</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>45928</v>
+        <v>45932</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -611,19 +611,19 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E4">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -638,18 +638,18 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N4">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O4">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>45928</v>
+        <v>45932</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -658,19 +658,19 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -685,18 +685,18 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="N5">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="O5">
-        <v>114</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>45928</v>
+        <v>45932</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -705,19 +705,19 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -732,18 +732,18 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N6">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="O6">
-        <v>74</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>45928</v>
+        <v>45932</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -752,19 +752,19 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>199</v>
+        <v>331</v>
       </c>
       <c r="E7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -779,18 +779,18 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="N7">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="O7">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>45928</v>
+        <v>45932</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -799,19 +799,19 @@
         <v>22</v>
       </c>
       <c r="D8">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="E8">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -826,18 +826,18 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N8">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="O8">
-        <v>166</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>45928</v>
+        <v>45932</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -846,19 +846,19 @@
         <v>23</v>
       </c>
       <c r="D9">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="E9">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -873,18 +873,18 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O9">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>45928</v>
+        <v>45932</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -893,19 +893,19 @@
         <v>24</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E10">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -920,18 +920,18 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="N10">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="O10">
-        <v>154</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>45928</v>
+        <v>45932</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -940,19 +940,19 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="E11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -967,18 +967,18 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N11">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="O11">
-        <v>200</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>45928</v>
+        <v>45932</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -987,19 +987,19 @@
         <v>22</v>
       </c>
       <c r="D12">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F12">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G12">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H12">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1014,18 +1014,18 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N12">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="O12">
-        <v>321</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>45928</v>
+        <v>45932</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1034,19 +1034,19 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E13">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F13">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G13">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="H13">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1061,18 +1061,18 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="N13">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="O13">
-        <v>298</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>45928</v>
+        <v>45932</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1081,19 +1081,19 @@
         <v>24</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>36</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G14">
         <v>36</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1108,18 +1108,18 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="N14">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O14">
-        <v>148</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>45928</v>
+        <v>45932</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1128,19 +1128,19 @@
         <v>21</v>
       </c>
       <c r="D15">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c r="E15">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G15">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1155,18 +1155,18 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N15">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="O15">
-        <v>187</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>45928</v>
+        <v>45932</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1175,19 +1175,19 @@
         <v>22</v>
       </c>
       <c r="D16">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="E16">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1202,18 +1202,18 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="N16">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="O16">
-        <v>259</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>45928</v>
+        <v>45932</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1222,19 +1222,19 @@
         <v>23</v>
       </c>
       <c r="D17">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1249,18 +1249,18 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="N17">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="O17">
-        <v>222</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>45928</v>
+        <v>45932</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1269,16 +1269,16 @@
         <v>24</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E18">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F18">
         <v>7</v>
       </c>
       <c r="G18">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H18">
         <v>7</v>
@@ -1296,18 +1296,18 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="N18">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="O18">
-        <v>216</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>45928</v>
+        <v>45932</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1316,10 +1316,10 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>133</v>
+        <v>252</v>
       </c>
       <c r="E19">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -1340,21 +1340,21 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="N19">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="O19">
-        <v>184</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>45928</v>
+        <v>45932</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1363,13 +1363,13 @@
         <v>22</v>
       </c>
       <c r="D20">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="E20">
         <v>45</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1381,27 +1381,27 @@
         <v>45</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="M20">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N20">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="O20">
-        <v>241</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>45928</v>
+        <v>45932</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1410,10 +1410,10 @@
         <v>23</v>
       </c>
       <c r="D21">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="J21">
         <v>6</v>
@@ -1437,18 +1437,18 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N21">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="O21">
-        <v>174</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>45928</v>
+        <v>45932</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1457,13 +1457,13 @@
         <v>24</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E22">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1472,30 +1472,30 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="N22">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="O22">
-        <v>87</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>45928</v>
+        <v>45932</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1504,19 +1504,19 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>172</v>
+        <v>256</v>
       </c>
       <c r="E23">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1531,18 +1531,18 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="N23">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="O23">
-        <v>161</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>45928</v>
+        <v>45932</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1551,16 +1551,16 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="E24">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F24">
         <v>4</v>
       </c>
       <c r="G24">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H24">
         <v>4</v>
@@ -1578,18 +1578,18 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N24">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="O24">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>45928</v>
+        <v>45932</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1598,16 +1598,16 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="E25">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F25">
         <v>3</v>
       </c>
       <c r="G25">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -1625,18 +1625,18 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="N25">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="O25">
-        <v>158</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>45928</v>
+        <v>45932</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1645,19 +1645,19 @@
         <v>24</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1672,13 +1672,13 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="N26">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="O26">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -508,7 +508,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>45932</v>
+        <v>45942</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -517,19 +517,19 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>233</v>
+        <v>130</v>
       </c>
       <c r="E2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -544,18 +544,18 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="N2">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="O2">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>45932</v>
+        <v>45942</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -564,19 +564,19 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -591,18 +591,18 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="N3">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="O3">
-        <v>104</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>45932</v>
+        <v>45942</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -611,19 +611,19 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -638,18 +638,18 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="N4">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="O4">
-        <v>165</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>45932</v>
+        <v>45942</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -658,19 +658,19 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -685,18 +685,18 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="N5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O5">
-        <v>213</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>45932</v>
+        <v>45942</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -705,16 +705,16 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -732,18 +732,18 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="N6">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="O6">
-        <v>159</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>45932</v>
+        <v>45942</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -752,19 +752,19 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>331</v>
+        <v>187</v>
       </c>
       <c r="E7">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -779,18 +779,18 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N7">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="O7">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>45932</v>
+        <v>45942</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -799,19 +799,19 @@
         <v>22</v>
       </c>
       <c r="D8">
-        <v>123</v>
+        <v>199</v>
       </c>
       <c r="E8">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -826,18 +826,18 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N8">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="O8">
-        <v>135</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>45932</v>
+        <v>45942</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -846,19 +846,19 @@
         <v>23</v>
       </c>
       <c r="D9">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E9">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -873,18 +873,18 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N9">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="O9">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>45932</v>
+        <v>45942</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -893,19 +893,19 @@
         <v>24</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -920,18 +920,18 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="N10">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="O10">
-        <v>123</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>45932</v>
+        <v>45942</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -940,19 +940,19 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>245</v>
+        <v>165</v>
       </c>
       <c r="E11">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -967,18 +967,18 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="N11">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="O11">
-        <v>240</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>45932</v>
+        <v>45942</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -987,19 +987,19 @@
         <v>22</v>
       </c>
       <c r="D12">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="E12">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G12">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1014,18 +1014,18 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="N12">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O12">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>45932</v>
+        <v>45942</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1034,19 +1034,19 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E13">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F13">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G13">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H13">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1061,18 +1061,18 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="N13">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="O13">
-        <v>277</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>45932</v>
+        <v>45942</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1081,19 +1081,19 @@
         <v>24</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E14">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G14">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1108,18 +1108,18 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="N14">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="O14">
-        <v>173</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>45932</v>
+        <v>45942</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1128,19 +1128,19 @@
         <v>21</v>
       </c>
       <c r="D15">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="E15">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1155,18 +1155,18 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N15">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="O15">
-        <v>223</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>45932</v>
+        <v>45942</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1175,19 +1175,19 @@
         <v>22</v>
       </c>
       <c r="D16">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="E16">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1202,18 +1202,18 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="N16">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="O16">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>45932</v>
+        <v>45942</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1222,19 +1222,19 @@
         <v>23</v>
       </c>
       <c r="D17">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E17">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F17">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G17">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1249,18 +1249,18 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="N17">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="O17">
-        <v>190</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>45932</v>
+        <v>45942</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1269,19 +1269,19 @@
         <v>24</v>
       </c>
       <c r="D18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="F18">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G18">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1296,18 +1296,18 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="N18">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O18">
-        <v>180</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>45932</v>
+        <v>45942</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1316,13 +1316,13 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>252</v>
+        <v>141</v>
       </c>
       <c r="E19">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1331,30 +1331,30 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="N19">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="O19">
-        <v>128</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>45932</v>
+        <v>45942</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1363,10 +1363,10 @@
         <v>22</v>
       </c>
       <c r="D20">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="E20">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -1378,30 +1378,30 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J20">
         <v>3</v>
       </c>
       <c r="K20">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="M20">
         <v>85</v>
       </c>
       <c r="N20">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="O20">
-        <v>173</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>45932</v>
+        <v>45942</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1410,13 +1410,13 @@
         <v>23</v>
       </c>
       <c r="D21">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E21">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1425,30 +1425,30 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="N21">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="O21">
-        <v>141</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>45932</v>
+        <v>45942</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1457,13 +1457,13 @@
         <v>24</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E22">
         <v>44</v>
       </c>
       <c r="F22">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1475,27 +1475,27 @@
         <v>44</v>
       </c>
       <c r="J22">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="N22">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="O22">
-        <v>145</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>45932</v>
+        <v>45942</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1504,19 +1504,19 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>256</v>
+        <v>172</v>
       </c>
       <c r="E23">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G23">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1531,18 +1531,18 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="N23">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="O23">
-        <v>134</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>45932</v>
+        <v>45942</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1551,19 +1551,19 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="E24">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G24">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1578,18 +1578,18 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="N24">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="O24">
-        <v>197</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>45932</v>
+        <v>45942</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1598,19 +1598,19 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E25">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G25">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1625,18 +1625,18 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="N25">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O25">
-        <v>117</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>45932</v>
+        <v>45942</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1645,19 +1645,19 @@
         <v>24</v>
       </c>
       <c r="D26">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E26">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G26">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1672,13 +1672,13 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="N26">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="O26">
-        <v>126</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -508,7 +508,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>45942</v>
+        <v>45943</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -517,16 +517,16 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="E2">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -544,18 +544,18 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="N2">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="O2">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>45942</v>
+        <v>45943</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -564,19 +564,19 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="E3">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -591,18 +591,18 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="N3">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="O3">
-        <v>188</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>45942</v>
+        <v>45943</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -611,19 +611,19 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E4">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -638,18 +638,18 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="N4">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="O4">
-        <v>233</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>45942</v>
+        <v>45943</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -658,16 +658,16 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -685,18 +685,18 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="N5">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O5">
-        <v>176</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>45942</v>
+        <v>45943</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -705,19 +705,19 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -732,18 +732,18 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="N6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O6">
-        <v>109</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>45942</v>
+        <v>45943</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -752,19 +752,19 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>187</v>
+        <v>255</v>
       </c>
       <c r="E7">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -779,18 +779,18 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="N7">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="O7">
-        <v>173</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>45942</v>
+        <v>45943</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -799,16 +799,16 @@
         <v>22</v>
       </c>
       <c r="D8">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -826,18 +826,18 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="N8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O8">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>45942</v>
+        <v>45943</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -846,19 +846,19 @@
         <v>23</v>
       </c>
       <c r="D9">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -873,18 +873,18 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N9">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="O9">
-        <v>154</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>45942</v>
+        <v>45943</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -893,19 +893,19 @@
         <v>24</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -920,18 +920,18 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="N10">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="O10">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>45942</v>
+        <v>45943</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -940,19 +940,19 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="E11">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -967,18 +967,18 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N11">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="O11">
-        <v>159</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>45942</v>
+        <v>45943</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -987,19 +987,19 @@
         <v>22</v>
       </c>
       <c r="D12">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="E12">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F12">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G12">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1014,18 +1014,18 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="N12">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="O12">
-        <v>252</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>45942</v>
+        <v>45943</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1034,19 +1034,19 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E13">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F13">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G13">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1061,18 +1061,18 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="N13">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="O13">
-        <v>294</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>45942</v>
+        <v>45943</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1081,19 +1081,19 @@
         <v>24</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E14">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F14">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G14">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1108,18 +1108,18 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>183</v>
+        <v>118</v>
       </c>
       <c r="N14">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="O14">
-        <v>334</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>45942</v>
+        <v>45943</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1128,19 +1128,19 @@
         <v>21</v>
       </c>
       <c r="D15">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="E15">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G15">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1155,18 +1155,18 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N15">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="O15">
-        <v>188</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>45942</v>
+        <v>45943</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1175,19 +1175,19 @@
         <v>22</v>
       </c>
       <c r="D16">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="E16">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F16">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G16">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1202,18 +1202,18 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="N16">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="O16">
-        <v>217</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>45942</v>
+        <v>45943</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1222,19 +1222,19 @@
         <v>23</v>
       </c>
       <c r="D17">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E17">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="F17">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1249,18 +1249,18 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="N17">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="O17">
-        <v>240</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>45942</v>
+        <v>45943</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1269,19 +1269,19 @@
         <v>24</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E18">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F18">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G18">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="H18">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1296,18 +1296,18 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="N18">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="O18">
-        <v>263</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>45942</v>
+        <v>45943</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1316,13 +1316,13 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>141</v>
+        <v>217</v>
       </c>
       <c r="E19">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1331,30 +1331,30 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="N19">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="O19">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>45942</v>
+        <v>45943</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1363,10 +1363,10 @@
         <v>22</v>
       </c>
       <c r="D20">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="E20">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -1378,30 +1378,30 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="J20">
         <v>3</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M20">
+        <v>102</v>
+      </c>
+      <c r="N20">
         <v>85</v>
       </c>
-      <c r="N20">
-        <v>109</v>
-      </c>
       <c r="O20">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>45942</v>
+        <v>45943</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1410,13 +1410,13 @@
         <v>23</v>
       </c>
       <c r="D21">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E21">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1425,30 +1425,30 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="N21">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O21">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>45942</v>
+        <v>45943</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1457,7 +1457,7 @@
         <v>24</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>44</v>
@@ -1484,18 +1484,18 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="N22">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="O22">
-        <v>188</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>45942</v>
+        <v>45943</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1504,19 +1504,19 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="E23">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G23">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1531,18 +1531,18 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="N23">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="O23">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>45942</v>
+        <v>45943</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1551,19 +1551,19 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="E24">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G24">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1578,18 +1578,18 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N24">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="O24">
-        <v>265</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>45942</v>
+        <v>45943</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1598,19 +1598,19 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E25">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1625,18 +1625,18 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N25">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="O25">
-        <v>149</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>45942</v>
+        <v>45943</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1645,16 +1645,16 @@
         <v>24</v>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E26">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F26">
         <v>6</v>
       </c>
       <c r="G26">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H26">
         <v>6</v>
@@ -1672,13 +1672,13 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="N26">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="O26">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -508,7 +508,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>45943</v>
+        <v>45946</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -517,16 +517,16 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>178</v>
+        <v>226</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -544,18 +544,18 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="O2">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>45943</v>
+        <v>45946</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -564,16 +564,16 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -591,18 +591,18 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="N3">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="O3">
-        <v>121</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>45943</v>
+        <v>45946</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -611,16 +611,16 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="E4">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -638,18 +638,18 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N4">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="O4">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>45943</v>
+        <v>45946</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -658,16 +658,16 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -685,18 +685,18 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="N5">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O5">
-        <v>126</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>45943</v>
+        <v>45946</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -705,19 +705,19 @@
         <v>25</v>
       </c>
       <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>26</v>
+      </c>
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>31</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
       <c r="G6">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -732,18 +732,18 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="N6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O6">
-        <v>130</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>45943</v>
+        <v>45946</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -752,19 +752,19 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="E7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -779,18 +779,18 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N7">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="O7">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>45943</v>
+        <v>45946</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -799,19 +799,19 @@
         <v>22</v>
       </c>
       <c r="D8">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="E8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -826,18 +826,18 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N8">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="O8">
-        <v>165</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>45943</v>
+        <v>45946</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -846,19 +846,19 @@
         <v>23</v>
       </c>
       <c r="D9">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -873,18 +873,18 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N9">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O9">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>45943</v>
+        <v>45946</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -893,19 +893,19 @@
         <v>24</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -920,18 +920,18 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="N10">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="O10">
-        <v>159</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>45943</v>
+        <v>45946</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -940,19 +940,19 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="E11">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -967,18 +967,18 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N11">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="O11">
-        <v>133</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>45943</v>
+        <v>45946</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -987,19 +987,19 @@
         <v>22</v>
       </c>
       <c r="D12">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="E12">
         <v>41</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>41</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1014,18 +1014,18 @@
         <v>0</v>
       </c>
       <c r="M12">
+        <v>82</v>
+      </c>
+      <c r="N12">
         <v>74</v>
       </c>
-      <c r="N12">
-        <v>65</v>
-      </c>
       <c r="O12">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>45943</v>
+        <v>45946</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1034,19 +1034,19 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E13">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G13">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1061,18 +1061,18 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="N13">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="O13">
-        <v>224</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>45943</v>
+        <v>45946</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1081,19 +1081,19 @@
         <v>24</v>
       </c>
       <c r="D14">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E14">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1108,18 +1108,18 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="N14">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="O14">
-        <v>208</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>45943</v>
+        <v>45946</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1128,19 +1128,19 @@
         <v>21</v>
       </c>
       <c r="D15">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="E15">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1155,18 +1155,18 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="N15">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="O15">
-        <v>120</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>45943</v>
+        <v>45946</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1175,19 +1175,19 @@
         <v>22</v>
       </c>
       <c r="D16">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E16">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G16">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1202,18 +1202,18 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="N16">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="O16">
-        <v>122</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>45943</v>
+        <v>45946</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1222,19 +1222,19 @@
         <v>23</v>
       </c>
       <c r="D17">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E17">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1249,18 +1249,18 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N17">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="O17">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>45943</v>
+        <v>45946</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1272,16 +1272,16 @@
         <v>11</v>
       </c>
       <c r="E18">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F18">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G18">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1296,18 +1296,18 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="N18">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="O18">
-        <v>212</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>45943</v>
+        <v>45946</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1316,13 +1316,13 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="E19">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1331,30 +1331,30 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="N19">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="O19">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>45943</v>
+        <v>45946</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1363,13 +1363,13 @@
         <v>22</v>
       </c>
       <c r="D20">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E20">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1378,30 +1378,30 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="N20">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="O20">
-        <v>237</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>45943</v>
+        <v>45946</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1410,13 +1410,13 @@
         <v>23</v>
       </c>
       <c r="D21">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E21">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1437,18 +1437,18 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="N21">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O21">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>45943</v>
+        <v>45946</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1457,13 +1457,13 @@
         <v>24</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E22">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1472,10 +1472,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1484,18 +1484,18 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="N22">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="O22">
-        <v>238</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>45943</v>
+        <v>45946</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1504,19 +1504,19 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>198</v>
+        <v>250</v>
       </c>
       <c r="E23">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G23">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1531,18 +1531,18 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="N23">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="O23">
-        <v>195</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>45943</v>
+        <v>45946</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1551,16 +1551,16 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E24">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F24">
         <v>5</v>
       </c>
       <c r="G24">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H24">
         <v>5</v>
@@ -1581,15 +1581,15 @@
         <v>75</v>
       </c>
       <c r="N24">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O24">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>45943</v>
+        <v>45946</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1598,19 +1598,19 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="E25">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G25">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1625,18 +1625,18 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="N25">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="O25">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>45943</v>
+        <v>45946</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1648,37 +1648,37 @@
         <v>19</v>
       </c>
       <c r="E26">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>28</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>62</v>
+      </c>
+      <c r="N26">
         <v>6</v>
       </c>
-      <c r="G26">
-        <v>42</v>
-      </c>
-      <c r="H26">
-        <v>6</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>100</v>
-      </c>
-      <c r="N26">
-        <v>19</v>
-      </c>
       <c r="O26">
-        <v>153</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -508,7 +508,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>45946</v>
+        <v>45949</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -517,19 +517,19 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>226</v>
+        <v>157</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -544,18 +544,18 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O2">
-        <v>105</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>45946</v>
+        <v>45949</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -564,19 +564,19 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -591,18 +591,18 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="N3">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="O3">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>45946</v>
+        <v>45949</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -611,19 +611,19 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="E4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -638,18 +638,18 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N4">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="O4">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>45946</v>
+        <v>45949</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -658,19 +658,19 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -685,18 +685,18 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="N5">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="O5">
-        <v>153</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>45946</v>
+        <v>45949</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -705,19 +705,19 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="N6">
         <v>9</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>45946</v>
+        <v>45949</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -752,19 +752,19 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>300</v>
+        <v>182</v>
       </c>
       <c r="E7">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -779,18 +779,18 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="N7">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="O7">
-        <v>137</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>45946</v>
+        <v>45949</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -799,19 +799,19 @@
         <v>22</v>
       </c>
       <c r="D8">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="E8">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -826,18 +826,18 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N8">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="O8">
-        <v>137</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>45946</v>
+        <v>45949</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -846,16 +846,16 @@
         <v>23</v>
       </c>
       <c r="D9">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="E9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -873,18 +873,18 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="N9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="O9">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>45946</v>
+        <v>45949</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -893,19 +893,19 @@
         <v>24</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G10">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -920,18 +920,18 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="N10">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="O10">
-        <v>122</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>45946</v>
+        <v>45949</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -940,19 +940,19 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>237</v>
+        <v>150</v>
       </c>
       <c r="E11">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G11">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -967,18 +967,18 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="N11">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="O11">
-        <v>201</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>45946</v>
+        <v>45949</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -987,19 +987,19 @@
         <v>22</v>
       </c>
       <c r="D12">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="E12">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G12">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1014,18 +1014,18 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N12">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="O12">
-        <v>197</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>45946</v>
+        <v>45949</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1034,19 +1034,19 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E13">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="F13">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G13">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="H13">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1061,18 +1061,18 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="N13">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="O13">
-        <v>249</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>45946</v>
+        <v>45949</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1081,19 +1081,19 @@
         <v>24</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E14">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F14">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G14">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1108,18 +1108,18 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="N14">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="O14">
-        <v>289</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>45946</v>
+        <v>45949</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1128,19 +1128,19 @@
         <v>21</v>
       </c>
       <c r="D15">
-        <v>239</v>
+        <v>139</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1155,18 +1155,18 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="N15">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="O15">
-        <v>209</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>45946</v>
+        <v>45949</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1175,19 +1175,19 @@
         <v>22</v>
       </c>
       <c r="D16">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="E16">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G16">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1202,18 +1202,18 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="N16">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="O16">
-        <v>176</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>45946</v>
+        <v>45949</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1222,19 +1222,19 @@
         <v>23</v>
       </c>
       <c r="D17">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E17">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G17">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1249,18 +1249,18 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="N17">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="O17">
-        <v>135</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>45946</v>
+        <v>45949</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1272,16 +1272,16 @@
         <v>11</v>
       </c>
       <c r="E18">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F18">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G18">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1296,18 +1296,18 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="N18">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="O18">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>45946</v>
+        <v>45949</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1316,10 +1316,10 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>257</v>
+        <v>132</v>
       </c>
       <c r="E19">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -1343,18 +1343,18 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="N19">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="O19">
-        <v>166</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>45946</v>
+        <v>45949</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1363,13 +1363,13 @@
         <v>22</v>
       </c>
       <c r="D20">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="E20">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1378,30 +1378,30 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="N20">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="O20">
-        <v>210</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>45946</v>
+        <v>45949</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1410,45 +1410,45 @@
         <v>23</v>
       </c>
       <c r="D21">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E21">
+        <v>43</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>43</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>76</v>
+      </c>
+      <c r="N21">
         <v>44</v>
       </c>
-      <c r="F21">
-        <v>4</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>44</v>
-      </c>
-      <c r="J21">
-        <v>4</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>81</v>
-      </c>
-      <c r="N21">
-        <v>47</v>
-      </c>
       <c r="O21">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>45946</v>
+        <v>45949</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1457,10 +1457,10 @@
         <v>24</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E22">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J22">
         <v>3</v>
@@ -1484,18 +1484,18 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="N22">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="O22">
-        <v>178</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>45946</v>
+        <v>45949</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1504,19 +1504,19 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>250</v>
+        <v>161</v>
       </c>
       <c r="E23">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1531,18 +1531,18 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N23">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="O23">
-        <v>220</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>45946</v>
+        <v>45949</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1551,19 +1551,19 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="E24">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1578,18 +1578,18 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N24">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="O24">
-        <v>227</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>45946</v>
+        <v>45949</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1598,19 +1598,19 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E25">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1625,18 +1625,18 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="N25">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="O25">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>45946</v>
+        <v>45949</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1645,7 +1645,7 @@
         <v>24</v>
       </c>
       <c r="D26">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E26">
         <v>28</v>
@@ -1672,13 +1672,13 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="N26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O26">
-        <v>92</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -508,7 +508,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>45949</v>
+        <v>45951</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -517,16 +517,16 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="E2">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -537,25 +537,19 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
       <c r="M2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="N2">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="O2">
-        <v>127</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>45949</v>
+        <v>45951</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -564,16 +558,16 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F3">
         <v>4</v>
       </c>
       <c r="G3">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -584,25 +578,19 @@
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
       <c r="M3">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N3">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="O3">
-        <v>150</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>45949</v>
+        <v>45951</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -611,19 +599,19 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E4">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -631,25 +619,19 @@
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
       <c r="M4">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="N4">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="O4">
-        <v>148</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>45949</v>
+        <v>45951</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -658,16 +640,16 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
       <c r="G5">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -678,25 +660,19 @@
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
       <c r="M5">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="N5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O5">
-        <v>195</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>45949</v>
+        <v>45951</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -705,19 +681,19 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -725,25 +701,19 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
       <c r="M6">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="N6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O6">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>45949</v>
+        <v>45951</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -752,45 +722,39 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>182</v>
+        <v>282</v>
       </c>
       <c r="E7">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>26</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>38</v>
       </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>38</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>54</v>
-      </c>
       <c r="N7">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="O7">
-        <v>169</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>45949</v>
+        <v>45951</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -799,16 +763,16 @@
         <v>22</v>
       </c>
       <c r="D8">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="E8">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -819,25 +783,19 @@
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
       <c r="M8">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="N8">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="O8">
-        <v>174</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>45949</v>
+        <v>45951</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -846,19 +804,19 @@
         <v>23</v>
       </c>
       <c r="D9">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="E9">
         <v>33</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G9">
         <v>33</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -866,25 +824,19 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
       <c r="M9">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="N9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O9">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>45949</v>
+        <v>45951</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -893,19 +845,19 @@
         <v>24</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -913,25 +865,19 @@
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
       <c r="M10">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="N10">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="O10">
-        <v>215</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>45949</v>
+        <v>45951</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -940,19 +886,19 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>150</v>
+        <v>232</v>
       </c>
       <c r="E11">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F11">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H11">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -960,25 +906,19 @@
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
       <c r="M11">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="N11">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="O11">
-        <v>254</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>45949</v>
+        <v>45951</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -987,19 +927,19 @@
         <v>22</v>
       </c>
       <c r="D12">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="F12">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G12">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="H12">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1007,25 +947,19 @@
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
       <c r="M12">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="N12">
-        <v>171</v>
+        <v>70</v>
       </c>
       <c r="O12">
-        <v>321</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>45949</v>
+        <v>45951</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1034,19 +968,19 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F13">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G13">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H13">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1054,25 +988,19 @@
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
       <c r="M13">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="N13">
-        <v>190</v>
+        <v>61</v>
       </c>
       <c r="O13">
-        <v>422</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>45949</v>
+        <v>45951</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1081,16 +1009,16 @@
         <v>24</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E14">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="F14">
         <v>10</v>
       </c>
       <c r="G14">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -1101,25 +1029,19 @@
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
       <c r="M14">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="N14">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="O14">
-        <v>231</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>45949</v>
+        <v>45951</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1128,19 +1050,19 @@
         <v>21</v>
       </c>
       <c r="D15">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="E15">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G15">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1148,25 +1070,19 @@
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
       <c r="M15">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="N15">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="O15">
-        <v>184</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>45949</v>
+        <v>45951</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1175,19 +1091,19 @@
         <v>22</v>
       </c>
       <c r="D16">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="E16">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="F16">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G16">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="H16">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1195,25 +1111,19 @@
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
       <c r="M16">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="N16">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="O16">
-        <v>269</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>45949</v>
+        <v>45951</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1222,19 +1132,19 @@
         <v>23</v>
       </c>
       <c r="D17">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E17">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="F17">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G17">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H17">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1242,25 +1152,19 @@
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
       <c r="M17">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="N17">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O17">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>45949</v>
+        <v>45951</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1269,19 +1173,19 @@
         <v>24</v>
       </c>
       <c r="D18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="F18">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G18">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1289,25 +1193,19 @@
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
       <c r="M18">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="N18">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="O18">
-        <v>166</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>45949</v>
+        <v>45951</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1316,13 +1214,13 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>132</v>
+        <v>243</v>
       </c>
       <c r="E19">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1331,30 +1229,24 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J19">
-        <v>3</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M19">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="N19">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="O19">
-        <v>219</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>45949</v>
+        <v>45951</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1363,13 +1255,13 @@
         <v>22</v>
       </c>
       <c r="D20">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="E20">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1378,30 +1270,24 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="J20">
-        <v>7</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N20">
-        <v>162</v>
+        <v>60</v>
       </c>
       <c r="O20">
-        <v>294</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>45949</v>
+        <v>45951</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1410,13 +1296,13 @@
         <v>23</v>
       </c>
       <c r="D21">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E21">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1425,30 +1311,24 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="J21">
-        <v>3</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="N21">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="O21">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>45949</v>
+        <v>45951</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1457,13 +1337,13 @@
         <v>24</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E22">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1472,30 +1352,24 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="J22">
-        <v>3</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M22">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N22">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O22">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>45949</v>
+        <v>45951</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1504,16 +1378,16 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>161</v>
+        <v>240</v>
       </c>
       <c r="E23">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F23">
         <v>2</v>
       </c>
       <c r="G23">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -1524,25 +1398,19 @@
       <c r="J23">
         <v>0</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
       <c r="M23">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="N23">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O23">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>45949</v>
+        <v>45951</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1551,16 +1419,16 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="E24">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F24">
         <v>4</v>
       </c>
       <c r="G24">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H24">
         <v>4</v>
@@ -1571,25 +1439,19 @@
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
       <c r="M24">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="N24">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="O24">
-        <v>256</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>45949</v>
+        <v>45951</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1598,16 +1460,16 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E25">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F25">
         <v>4</v>
       </c>
       <c r="G25">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>4</v>
@@ -1618,25 +1480,19 @@
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
       <c r="M25">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N25">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O25">
-        <v>187</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>45949</v>
+        <v>45951</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1645,19 +1501,19 @@
         <v>24</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E26">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1665,20 +1521,14 @@
       <c r="J26">
         <v>0</v>
       </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
       <c r="M26">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="N26">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O26">
-        <v>126</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -508,7 +508,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>45951</v>
+        <v>45966</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -517,16 +517,16 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="E2">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -537,19 +537,25 @@
       <c r="J2">
         <v>0</v>
       </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
       <c r="M2">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="N2">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="O2">
-        <v>100</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>45951</v>
+        <v>45966</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -558,19 +564,19 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -578,19 +584,25 @@
       <c r="J3">
         <v>0</v>
       </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
       <c r="M3">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="N3">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O3">
-        <v>116</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>45951</v>
+        <v>45966</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -599,16 +611,16 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
       <c r="G4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -619,19 +631,25 @@
       <c r="J4">
         <v>0</v>
       </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
       <c r="M4">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N4">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="O4">
-        <v>168</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>45951</v>
+        <v>45966</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -640,19 +658,19 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -660,19 +678,25 @@
       <c r="J5">
         <v>0</v>
       </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
       <c r="M5">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="N5">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="O5">
-        <v>121</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>45951</v>
+        <v>45966</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -681,19 +705,19 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -701,19 +725,25 @@
       <c r="J6">
         <v>0</v>
       </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
       <c r="M6">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="N6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O6">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>45951</v>
+        <v>45966</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -722,19 +752,19 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="E7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -742,19 +772,25 @@
       <c r="J7">
         <v>0</v>
       </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
       <c r="M7">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N7">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="O7">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>45951</v>
+        <v>45966</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -763,19 +799,19 @@
         <v>22</v>
       </c>
       <c r="D8">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -783,19 +819,25 @@
       <c r="J8">
         <v>0</v>
       </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
       <c r="M8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N8">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="O8">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>45951</v>
+        <v>45966</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -804,19 +846,19 @@
         <v>23</v>
       </c>
       <c r="D9">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E9">
         <v>33</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>33</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -824,19 +866,25 @@
       <c r="J9">
         <v>0</v>
       </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
       <c r="M9">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N9">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="O9">
-        <v>126</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>45951</v>
+        <v>45966</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -848,16 +896,16 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -865,19 +913,25 @@
       <c r="J10">
         <v>0</v>
       </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
       <c r="M10">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="N10">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="O10">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>45951</v>
+        <v>45966</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -886,39 +940,45 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>232</v>
+        <v>275</v>
       </c>
       <c r="E11">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
         <v>48</v>
       </c>
       <c r="N11">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="O11">
-        <v>142</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>45951</v>
+        <v>45966</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -927,19 +987,19 @@
         <v>22</v>
       </c>
       <c r="D12">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E12">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -947,19 +1007,25 @@
       <c r="J12">
         <v>0</v>
       </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
       <c r="M12">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N12">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="O12">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>45951</v>
+        <v>45966</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -968,19 +1034,19 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E13">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="F13">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G13">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -988,19 +1054,25 @@
       <c r="J13">
         <v>0</v>
       </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
       <c r="M13">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="N13">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="O13">
-        <v>282</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>45951</v>
+        <v>45966</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1012,13 +1084,13 @@
         <v>15</v>
       </c>
       <c r="E14">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F14">
         <v>10</v>
       </c>
       <c r="G14">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -1029,19 +1101,25 @@
       <c r="J14">
         <v>0</v>
       </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
       <c r="M14">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="N14">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="O14">
-        <v>263</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>45951</v>
+        <v>45966</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1050,19 +1128,19 @@
         <v>21</v>
       </c>
       <c r="D15">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="E15">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G15">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1070,19 +1148,25 @@
       <c r="J15">
         <v>0</v>
       </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
       <c r="M15">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="N15">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="O15">
-        <v>149</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>45951</v>
+        <v>45966</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1091,19 +1175,19 @@
         <v>22</v>
       </c>
       <c r="D16">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E16">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1111,19 +1195,25 @@
       <c r="J16">
         <v>0</v>
       </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
       <c r="M16">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="N16">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="O16">
-        <v>147</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>45951</v>
+        <v>45966</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1132,19 +1222,19 @@
         <v>23</v>
       </c>
       <c r="D17">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="E17">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F17">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G17">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1152,19 +1242,25 @@
       <c r="J17">
         <v>0</v>
       </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
       <c r="M17">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="N17">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="O17">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>45951</v>
+        <v>45966</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1173,19 +1269,19 @@
         <v>24</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="F18">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="G18">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="H18">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1193,19 +1289,25 @@
       <c r="J18">
         <v>0</v>
       </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
       <c r="M18">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="N18">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="O18">
-        <v>317</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>45951</v>
+        <v>45966</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1214,13 +1316,13 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E19">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1229,24 +1331,30 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N19">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O19">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>45951</v>
+        <v>45966</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1255,10 +1363,10 @@
         <v>22</v>
       </c>
       <c r="D20">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E20">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -1270,24 +1378,30 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J20">
         <v>3</v>
       </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
       <c r="M20">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="N20">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="O20">
-        <v>178</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>45951</v>
+        <v>45966</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1296,13 +1410,13 @@
         <v>23</v>
       </c>
       <c r="D21">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E21">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1311,24 +1425,30 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="N21">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="O21">
-        <v>170</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>45951</v>
+        <v>45966</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1337,10 +1457,10 @@
         <v>24</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E22">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -1352,24 +1472,30 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J22">
         <v>2</v>
       </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
       <c r="M22">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="N22">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="O22">
-        <v>152</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>45951</v>
+        <v>45966</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1378,19 +1504,19 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="E23">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1398,19 +1524,25 @@
       <c r="J23">
         <v>0</v>
       </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
       <c r="M23">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="N23">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="O23">
-        <v>170</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>45951</v>
+        <v>45966</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1419,19 +1551,19 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E24">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1439,19 +1571,25 @@
       <c r="J24">
         <v>0</v>
       </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
       <c r="M24">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="N24">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="O24">
-        <v>164</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>45951</v>
+        <v>45966</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1460,16 +1598,16 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E25">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F25">
         <v>4</v>
       </c>
       <c r="G25">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H25">
         <v>4</v>
@@ -1480,19 +1618,25 @@
       <c r="J25">
         <v>0</v>
       </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
       <c r="M25">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N25">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O25">
-        <v>146</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>45951</v>
+        <v>45966</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1501,19 +1645,19 @@
         <v>24</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E26">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G26">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1521,14 +1665,20 @@
       <c r="J26">
         <v>0</v>
       </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
       <c r="M26">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="N26">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="O26">
-        <v>107</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -508,7 +508,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -517,19 +517,19 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="E2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -544,18 +544,18 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="N2">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="O2">
-        <v>159</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -564,16 +564,16 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -591,18 +591,18 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N3">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="O3">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -611,19 +611,19 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E4">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -638,18 +638,18 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="N4">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="O4">
-        <v>209</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -658,19 +658,19 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -685,18 +685,18 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="N5">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="O5">
-        <v>250</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -705,19 +705,19 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -732,18 +732,18 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="N6">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="O6">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -752,19 +752,19 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="E7">
         <v>28</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>28</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>66</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -799,16 +799,16 @@
         <v>22</v>
       </c>
       <c r="D8">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E8">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -826,18 +826,18 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N8">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="O8">
-        <v>143</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -846,19 +846,19 @@
         <v>23</v>
       </c>
       <c r="D9">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -873,18 +873,18 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N9">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="O9">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -893,19 +893,19 @@
         <v>24</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -920,18 +920,18 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="N10">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="O10">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -940,19 +940,19 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="E11">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G11">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -967,18 +967,18 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="N11">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="O11">
-        <v>178</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -987,19 +987,19 @@
         <v>22</v>
       </c>
       <c r="D12">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E12">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G12">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1014,18 +1014,18 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N12">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="O12">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1034,19 +1034,19 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1061,18 +1061,18 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="N13">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="O13">
-        <v>182</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1081,19 +1081,19 @@
         <v>24</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E14">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G14">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1108,18 +1108,18 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="N14">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="O14">
-        <v>304</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1128,19 +1128,19 @@
         <v>21</v>
       </c>
       <c r="D15">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E15">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G15">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1155,18 +1155,18 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N15">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="O15">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1175,19 +1175,19 @@
         <v>22</v>
       </c>
       <c r="D16">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F16">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1202,18 +1202,18 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="N16">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="O16">
-        <v>175</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1222,19 +1222,19 @@
         <v>23</v>
       </c>
       <c r="D17">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E17">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="F17">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G17">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1249,18 +1249,18 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="N17">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="O17">
-        <v>251</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1269,19 +1269,19 @@
         <v>24</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G18">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1296,18 +1296,18 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="N18">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="O18">
-        <v>247</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1316,13 +1316,13 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="E19">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1331,30 +1331,30 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N19">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="O19">
-        <v>150</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1363,13 +1363,13 @@
         <v>22</v>
       </c>
       <c r="D20">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="E20">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1390,18 +1390,18 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="N20">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="O20">
-        <v>137</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1410,13 +1410,13 @@
         <v>23</v>
       </c>
       <c r="D21">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E21">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1437,18 +1437,18 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="N21">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="O21">
-        <v>112</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1457,10 +1457,10 @@
         <v>24</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -1472,30 +1472,30 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="J22">
         <v>2</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="N22">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="O22">
-        <v>94</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1504,19 +1504,19 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="E23">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1531,18 +1531,18 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="N23">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="O23">
-        <v>255</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1551,16 +1551,16 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="E24">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F24">
         <v>2</v>
       </c>
       <c r="G24">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -1578,18 +1578,18 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="N24">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="O24">
-        <v>233</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1598,16 +1598,16 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E25">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F25">
         <v>4</v>
       </c>
       <c r="G25">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H25">
         <v>4</v>
@@ -1625,18 +1625,18 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="N25">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O25">
-        <v>182</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1648,16 +1648,16 @@
         <v>18</v>
       </c>
       <c r="E26">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1672,13 +1672,13 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="N26">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="O26">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -508,7 +508,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>45967</v>
+        <v>45969</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -517,19 +517,19 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="E2">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -544,18 +544,18 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="N2">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="O2">
-        <v>117</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>45967</v>
+        <v>45969</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -564,19 +564,19 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -591,18 +591,18 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="N3">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="O3">
-        <v>125</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>45967</v>
+        <v>45969</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -611,19 +611,19 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E4">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -638,18 +638,18 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="N4">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="O4">
-        <v>144</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>45967</v>
+        <v>45969</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -661,16 +661,16 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -685,18 +685,18 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="N5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O5">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>45967</v>
+        <v>45969</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -705,19 +705,19 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -732,18 +732,18 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="N6">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="O6">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>45967</v>
+        <v>45969</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -752,19 +752,19 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>322</v>
+        <v>241</v>
       </c>
       <c r="E7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -779,18 +779,18 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N7">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O7">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>45967</v>
+        <v>45969</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -799,19 +799,19 @@
         <v>22</v>
       </c>
       <c r="D8">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="E8">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -826,18 +826,18 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="N8">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="O8">
-        <v>113</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>45967</v>
+        <v>45969</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -846,19 +846,19 @@
         <v>23</v>
       </c>
       <c r="D9">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -873,18 +873,18 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O9">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>45967</v>
+        <v>45969</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -893,19 +893,19 @@
         <v>24</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -920,18 +920,18 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="N10">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="O10">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>45967</v>
+        <v>45969</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -940,19 +940,19 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="E11">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -967,18 +967,18 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N11">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="O11">
-        <v>202</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>45967</v>
+        <v>45969</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -987,16 +987,16 @@
         <v>22</v>
       </c>
       <c r="D12">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="E12">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F12">
         <v>9</v>
       </c>
       <c r="G12">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="H12">
         <v>9</v>
@@ -1014,18 +1014,18 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N12">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="O12">
-        <v>173</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>45967</v>
+        <v>45969</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1034,19 +1034,19 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E13">
         <v>46</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13">
         <v>46</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1061,18 +1061,18 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="N13">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="O13">
-        <v>240</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>45967</v>
+        <v>45969</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1081,19 +1081,19 @@
         <v>24</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E14">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1108,18 +1108,18 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="N14">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="O14">
-        <v>96</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>45967</v>
+        <v>45969</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1128,19 +1128,19 @@
         <v>21</v>
       </c>
       <c r="D15">
-        <v>243</v>
+        <v>187</v>
       </c>
       <c r="E15">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1155,18 +1155,18 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N15">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="O15">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>45967</v>
+        <v>45969</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1175,19 +1175,19 @@
         <v>22</v>
       </c>
       <c r="D16">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="E16">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G16">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1202,18 +1202,18 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="N16">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="O16">
-        <v>136</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>45967</v>
+        <v>45969</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1222,45 +1222,45 @@
         <v>23</v>
       </c>
       <c r="D17">
+        <v>54</v>
+      </c>
+      <c r="E17">
+        <v>51</v>
+      </c>
+      <c r="F17">
+        <v>18</v>
+      </c>
+      <c r="G17">
+        <v>51</v>
+      </c>
+      <c r="H17">
+        <v>18</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>98</v>
+      </c>
+      <c r="N17">
         <v>46</v>
       </c>
-      <c r="E17">
-        <v>44</v>
-      </c>
-      <c r="F17">
-        <v>6</v>
-      </c>
-      <c r="G17">
-        <v>44</v>
-      </c>
-      <c r="H17">
-        <v>6</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>70</v>
-      </c>
-      <c r="N17">
-        <v>30</v>
-      </c>
       <c r="O17">
-        <v>143</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>45967</v>
+        <v>45969</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1269,19 +1269,19 @@
         <v>24</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1296,18 +1296,18 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="N18">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O18">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>45967</v>
+        <v>45969</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1316,13 +1316,13 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>255</v>
+        <v>181</v>
       </c>
       <c r="E19">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1331,10 +1331,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1343,18 +1343,18 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="N19">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O19">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>45967</v>
+        <v>45969</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1363,10 +1363,10 @@
         <v>22</v>
       </c>
       <c r="D20">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="E20">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -1378,30 +1378,30 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J20">
         <v>4</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M20">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N20">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="O20">
-        <v>195</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>45967</v>
+        <v>45969</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1410,13 +1410,13 @@
         <v>23</v>
       </c>
       <c r="D21">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E21">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1437,18 +1437,18 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="N21">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="O21">
-        <v>195</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>45967</v>
+        <v>45969</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1457,13 +1457,13 @@
         <v>24</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E22">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1472,30 +1472,30 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="N22">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O22">
-        <v>195</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>45967</v>
+        <v>45969</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1504,16 +1504,16 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="E23">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F23">
         <v>2</v>
       </c>
       <c r="G23">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -1531,18 +1531,18 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="N23">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="O23">
-        <v>199</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>45967</v>
+        <v>45969</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1551,19 +1551,19 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="E24">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1578,18 +1578,18 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="N24">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="O24">
-        <v>180</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>45967</v>
+        <v>45969</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1598,19 +1598,19 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E25">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1625,18 +1625,18 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="N25">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="O25">
-        <v>193</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>45967</v>
+        <v>45969</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1645,19 +1645,19 @@
         <v>24</v>
       </c>
       <c r="D26">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1672,13 +1672,13 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="N26">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O26">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -508,7 +508,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>45969</v>
+        <v>45972</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -517,19 +517,19 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="E2">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -544,18 +544,18 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="N2">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="O2">
-        <v>195</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>45969</v>
+        <v>45972</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -564,16 +564,16 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
       <c r="G3">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -591,18 +591,18 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N3">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="O3">
-        <v>195</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>45969</v>
+        <v>45972</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -611,19 +611,19 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E4">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -638,18 +638,18 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="N4">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="O4">
-        <v>251</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>45969</v>
+        <v>45972</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -658,19 +658,19 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E5">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -685,18 +685,18 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="N5">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="O5">
-        <v>139</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>45969</v>
+        <v>45972</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -708,16 +708,16 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -732,18 +732,18 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="N6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O6">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>45969</v>
+        <v>45972</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -752,19 +752,19 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="E7">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -779,18 +779,18 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N7">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="O7">
-        <v>137</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>45969</v>
+        <v>45972</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -799,19 +799,19 @@
         <v>22</v>
       </c>
       <c r="D8">
-        <v>196</v>
+        <v>130</v>
       </c>
       <c r="E8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -826,18 +826,18 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="N8">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="O8">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>45969</v>
+        <v>45972</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -846,45 +846,45 @@
         <v>23</v>
       </c>
       <c r="D9">
+        <v>64</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>70</v>
       </c>
-      <c r="E9">
-        <v>33</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>33</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>68</v>
-      </c>
       <c r="N9">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="O9">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>45969</v>
+        <v>45972</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -893,19 +893,19 @@
         <v>24</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E10">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -920,18 +920,18 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="N10">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="O10">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>45969</v>
+        <v>45972</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -940,19 +940,19 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="E11">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -967,18 +967,18 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N11">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="O11">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>45969</v>
+        <v>45972</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -987,19 +987,19 @@
         <v>22</v>
       </c>
       <c r="D12">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="E12">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1014,18 +1014,18 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="N12">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="O12">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>45969</v>
+        <v>45972</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1034,19 +1034,19 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E13">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="F13">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G13">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1061,18 +1061,18 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="N13">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="O13">
-        <v>256</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>45969</v>
+        <v>45972</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1081,16 +1081,16 @@
         <v>24</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F14">
         <v>4</v>
       </c>
       <c r="G14">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H14">
         <v>4</v>
@@ -1111,15 +1111,15 @@
         <v>142</v>
       </c>
       <c r="N14">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="O14">
-        <v>191</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>45969</v>
+        <v>45972</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1128,19 +1128,19 @@
         <v>21</v>
       </c>
       <c r="D15">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="E15">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1155,18 +1155,18 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N15">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="O15">
-        <v>165</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>45969</v>
+        <v>45972</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1175,19 +1175,19 @@
         <v>22</v>
       </c>
       <c r="D16">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="E16">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1205,15 +1205,15 @@
         <v>72</v>
       </c>
       <c r="N16">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="O16">
-        <v>228</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>45969</v>
+        <v>45972</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1222,19 +1222,19 @@
         <v>23</v>
       </c>
       <c r="D17">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E17">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F17">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G17">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H17">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1252,15 +1252,15 @@
         <v>98</v>
       </c>
       <c r="N17">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="O17">
-        <v>195</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>45969</v>
+        <v>45972</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1269,19 +1269,19 @@
         <v>24</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E18">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G18">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1296,18 +1296,18 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="N18">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="O18">
-        <v>140</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>45969</v>
+        <v>45972</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1316,10 +1316,10 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="E19">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -1331,30 +1331,30 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J19">
         <v>3</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M19">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="N19">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="O19">
-        <v>203</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>45969</v>
+        <v>45972</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1363,13 +1363,13 @@
         <v>22</v>
       </c>
       <c r="D20">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="E20">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1378,30 +1378,30 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="N20">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="O20">
-        <v>210</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>45969</v>
+        <v>45972</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1410,13 +1410,13 @@
         <v>23</v>
       </c>
       <c r="D21">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E21">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1437,18 +1437,18 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="N21">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O21">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>45969</v>
+        <v>45972</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1457,13 +1457,13 @@
         <v>24</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E22">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1472,10 +1472,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1484,18 +1484,18 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="N22">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="O22">
-        <v>130</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>45969</v>
+        <v>45972</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1504,16 +1504,16 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="E23">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F23">
         <v>2</v>
       </c>
       <c r="G23">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -1531,18 +1531,18 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="N23">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="O23">
-        <v>241</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>45969</v>
+        <v>45972</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1551,19 +1551,19 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="E24">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G24">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1578,18 +1578,18 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="N24">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="O24">
-        <v>320</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>45969</v>
+        <v>45972</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1598,19 +1598,19 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E25">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G25">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1625,18 +1625,18 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="N25">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="O25">
-        <v>142</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>45969</v>
+        <v>45972</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1645,16 +1645,16 @@
         <v>24</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E26">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F26">
         <v>3</v>
       </c>
       <c r="G26">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -1672,13 +1672,13 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="N26">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O26">
-        <v>147</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -508,7 +508,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -517,16 +517,16 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -544,18 +544,18 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N2">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="O2">
-        <v>143</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -564,19 +564,19 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -591,18 +591,18 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O3">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -611,19 +611,19 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E4">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -638,18 +638,18 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N4">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="O4">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -658,19 +658,19 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -685,18 +685,18 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="N5">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O5">
-        <v>229</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -705,19 +705,19 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -732,18 +732,18 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="N6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O6">
-        <v>155</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -752,19 +752,19 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="E7">
         <v>26</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>26</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -779,18 +779,18 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N7">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="O7">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -799,16 +799,16 @@
         <v>22</v>
       </c>
       <c r="D8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E8">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -826,18 +826,18 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N8">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="O8">
-        <v>163</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -849,16 +849,16 @@
         <v>64</v>
       </c>
       <c r="E9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -873,18 +873,18 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="N9">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="O9">
-        <v>146</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -896,16 +896,16 @@
         <v>18</v>
       </c>
       <c r="E10">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -920,18 +920,18 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="N10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O10">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -940,19 +940,19 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="E11">
         <v>32</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G11">
         <v>32</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -967,18 +967,18 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N11">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="O11">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -987,19 +987,19 @@
         <v>22</v>
       </c>
       <c r="D12">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E12">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G12">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1014,18 +1014,18 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N12">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="O12">
-        <v>207</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1034,19 +1034,19 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E13">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="F13">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1061,18 +1061,18 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="N13">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="O13">
-        <v>333</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1081,19 +1081,19 @@
         <v>24</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E14">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1108,18 +1108,18 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="N14">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="O14">
-        <v>216</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1128,19 +1128,19 @@
         <v>21</v>
       </c>
       <c r="D15">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="E15">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G15">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1155,18 +1155,18 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N15">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="O15">
-        <v>140</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1175,19 +1175,19 @@
         <v>22</v>
       </c>
       <c r="D16">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E16">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G16">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H16">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1202,18 +1202,18 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="N16">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="O16">
-        <v>168</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1222,19 +1222,19 @@
         <v>23</v>
       </c>
       <c r="D17">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E17">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F17">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G17">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1249,18 +1249,18 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="N17">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="O17">
-        <v>220</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1269,16 +1269,16 @@
         <v>24</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E18">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F18">
         <v>6</v>
       </c>
       <c r="G18">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H18">
         <v>6</v>
@@ -1296,18 +1296,18 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="N18">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="O18">
-        <v>213</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1316,13 +1316,13 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="E19">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1331,30 +1331,30 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>2</v>
       </c>
       <c r="M19">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N19">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="O19">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1363,13 +1363,13 @@
         <v>22</v>
       </c>
       <c r="D20">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E20">
         <v>35</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1381,27 +1381,27 @@
         <v>35</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="N20">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="O20">
-        <v>180</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1410,10 +1410,10 @@
         <v>23</v>
       </c>
       <c r="D21">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E21">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J21">
         <v>2</v>
@@ -1437,18 +1437,18 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="N21">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="O21">
-        <v>185</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1457,13 +1457,13 @@
         <v>24</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E22">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1472,10 +1472,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1484,18 +1484,18 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="N22">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="O22">
-        <v>167</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1504,45 +1504,45 @@
         <v>21</v>
       </c>
       <c r="D23">
+        <v>224</v>
+      </c>
+      <c r="E23">
+        <v>45</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>45</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>65</v>
+      </c>
+      <c r="N23">
+        <v>110</v>
+      </c>
+      <c r="O23">
         <v>248</v>
-      </c>
-      <c r="E23">
-        <v>28</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23">
-        <v>28</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>50</v>
-      </c>
-      <c r="N23">
-        <v>58</v>
-      </c>
-      <c r="O23">
-        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1551,19 +1551,19 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E24">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1578,18 +1578,18 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="N24">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="O24">
-        <v>178</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1598,19 +1598,19 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E25">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G25">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1625,18 +1625,18 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N25">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="O25">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1645,19 +1645,19 @@
         <v>24</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E26">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G26">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1672,13 +1672,13 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="N26">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="O26">
-        <v>179</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -508,7 +508,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>45973</v>
+        <v>45991</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -517,16 +517,16 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>216</v>
+        <v>128</v>
       </c>
       <c r="E2">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -544,18 +544,18 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="N2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="O2">
-        <v>115</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>45973</v>
+        <v>45991</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -564,19 +564,19 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="E3">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -591,18 +591,18 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N3">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="O3">
-        <v>151</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>45973</v>
+        <v>45991</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -611,19 +611,19 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E4">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -638,18 +638,18 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="N4">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="O4">
-        <v>181</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>45973</v>
+        <v>45991</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -658,19 +658,19 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G5">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -685,18 +685,18 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="N5">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="O5">
-        <v>206</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>45973</v>
+        <v>45991</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -705,19 +705,19 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -732,18 +732,18 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="N6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O6">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>45973</v>
+        <v>45991</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -752,19 +752,19 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>317</v>
+        <v>172</v>
       </c>
       <c r="E7">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -779,18 +779,18 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="N7">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="O7">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>45973</v>
+        <v>45991</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -799,16 +799,16 @@
         <v>22</v>
       </c>
       <c r="D8">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="E8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -826,18 +826,18 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N8">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="O8">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>45973</v>
+        <v>45991</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -846,19 +846,19 @@
         <v>23</v>
       </c>
       <c r="D9">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E9">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -873,18 +873,18 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="N9">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="O9">
-        <v>116</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>45973</v>
+        <v>45991</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -893,19 +893,19 @@
         <v>24</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -920,18 +920,18 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="N10">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O10">
-        <v>130</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>45973</v>
+        <v>45991</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -940,19 +940,19 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>262</v>
+        <v>148</v>
       </c>
       <c r="E11">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -967,18 +967,18 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="N11">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="O11">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>45973</v>
+        <v>45991</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -987,19 +987,19 @@
         <v>22</v>
       </c>
       <c r="D12">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="E12">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1014,18 +1014,18 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N12">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="O12">
-        <v>150</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>45973</v>
+        <v>45991</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1034,19 +1034,19 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E13">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G13">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1061,18 +1061,18 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="N13">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="O13">
-        <v>177</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>45973</v>
+        <v>45991</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1081,19 +1081,19 @@
         <v>24</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1108,18 +1108,18 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="N14">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="O14">
-        <v>120</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>45973</v>
+        <v>45991</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1128,19 +1128,19 @@
         <v>21</v>
       </c>
       <c r="D15">
-        <v>222</v>
+        <v>135</v>
       </c>
       <c r="E15">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1155,18 +1155,18 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N15">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="O15">
-        <v>181</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>45973</v>
+        <v>45991</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1175,19 +1175,19 @@
         <v>22</v>
       </c>
       <c r="D16">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="E16">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F16">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G16">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1202,18 +1202,18 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="N16">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="O16">
-        <v>197</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>45973</v>
+        <v>45991</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1222,19 +1222,19 @@
         <v>23</v>
       </c>
       <c r="D17">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F17">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H17">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1249,18 +1249,18 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="N17">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="O17">
-        <v>155</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>45973</v>
+        <v>45991</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1269,19 +1269,19 @@
         <v>24</v>
       </c>
       <c r="D18">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>48</v>
+      </c>
+      <c r="F18">
         <v>11</v>
       </c>
-      <c r="E18">
-        <v>35</v>
-      </c>
-      <c r="F18">
-        <v>6</v>
-      </c>
       <c r="G18">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1296,18 +1296,18 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="N18">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="O18">
-        <v>124</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>45973</v>
+        <v>45991</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1316,10 +1316,10 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>244</v>
+        <v>115</v>
       </c>
       <c r="E19">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -1340,21 +1340,21 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="N19">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O19">
-        <v>155</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>45973</v>
+        <v>45991</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1363,13 +1363,13 @@
         <v>22</v>
       </c>
       <c r="D20">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="E20">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1378,30 +1378,30 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="N20">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="O20">
-        <v>148</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>45973</v>
+        <v>45991</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1410,13 +1410,13 @@
         <v>23</v>
       </c>
       <c r="D21">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E21">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1437,18 +1437,18 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N21">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="O21">
-        <v>124</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>45973</v>
+        <v>45991</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1457,13 +1457,13 @@
         <v>24</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>30</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1475,7 +1475,7 @@
         <v>30</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1484,18 +1484,18 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="N22">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="O22">
-        <v>99</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>45973</v>
+        <v>45991</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1504,19 +1504,19 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="E23">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1531,18 +1531,18 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N23">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="O23">
-        <v>248</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>45973</v>
+        <v>45991</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1551,19 +1551,19 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E24">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G24">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1578,18 +1578,18 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="N24">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O24">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>45973</v>
+        <v>45991</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1598,19 +1598,19 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E25">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G25">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="H25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1625,18 +1625,18 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="N25">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="O25">
-        <v>170</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>45973</v>
+        <v>45991</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1645,19 +1645,19 @@
         <v>24</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E26">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G26">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1672,13 +1672,13 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="N26">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="O26">
-        <v>233</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -73,6 +73,9 @@
     <t>359042 LITITZ</t>
   </si>
   <si>
+    <t>362913 DUNKIN</t>
+  </si>
+  <si>
     <t>363271</t>
   </si>
   <si>
@@ -80,6 +83,15 @@
   </si>
   <si>
     <t>Daypart 2</t>
+  </si>
+  <si>
+    <t>Daypart 3</t>
+  </si>
+  <si>
+    <t>Daypart 4</t>
+  </si>
+  <si>
+    <t>Daypart 5</t>
   </si>
   <si>
     <t>Daypart 1</t>
@@ -444,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,16 +511,16 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>45997</v>
+        <v>46002</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2">
-        <v>72</v>
+        <v>208</v>
       </c>
       <c r="E2">
         <v>25</v>
@@ -528,40 +540,46 @@
       <c r="J2">
         <v>0</v>
       </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
       <c r="M2">
+        <v>46</v>
+      </c>
+      <c r="N2">
         <v>44</v>
       </c>
-      <c r="N2">
-        <v>26</v>
-      </c>
       <c r="O2">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>45997</v>
+        <v>46002</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="E3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -569,40 +587,46 @@
       <c r="J3">
         <v>0</v>
       </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
       <c r="M3">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="N3">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="O3">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>45997</v>
+        <v>46002</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="E4">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -610,40 +634,46 @@
       <c r="J4">
         <v>0</v>
       </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
       <c r="M4">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="N4">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O4">
-        <v>130</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>45997</v>
+        <v>46002</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="E5">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G5">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -651,40 +681,46 @@
       <c r="J5">
         <v>0</v>
       </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
       <c r="M5">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="N5">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="O5">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>45997</v>
+        <v>46002</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -692,96 +728,1007 @@
       <c r="J6">
         <v>0</v>
       </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
       <c r="M6">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="N6">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="O6">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>45997</v>
+        <v>46002</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>90</v>
+        <v>305</v>
       </c>
       <c r="E7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="N7">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="O7">
-        <v>121</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>45997</v>
+        <v>46002</v>
       </c>
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>126</v>
+      </c>
+      <c r="E8">
+        <v>32</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>32</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>60</v>
+      </c>
+      <c r="N8">
+        <v>52</v>
+      </c>
+      <c r="O8">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="2">
+        <v>46002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>98</v>
+      </c>
+      <c r="E9">
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>28</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>73</v>
+      </c>
+      <c r="N9">
+        <v>44</v>
+      </c>
+      <c r="O9">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="2">
+        <v>46002</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>19</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>56</v>
+      </c>
+      <c r="N10">
+        <v>27</v>
+      </c>
+      <c r="O10">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="2">
+        <v>46002</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>271</v>
+      </c>
+      <c r="E11">
+        <v>33</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>33</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>50</v>
+      </c>
+      <c r="N11">
+        <v>75</v>
+      </c>
+      <c r="O11">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="2">
+        <v>46002</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>97</v>
+      </c>
+      <c r="E12">
+        <v>41</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>41</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>74</v>
+      </c>
+      <c r="N12">
+        <v>54</v>
+      </c>
+      <c r="O12">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="2">
+        <v>46002</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>72</v>
+      </c>
+      <c r="E13">
+        <v>43</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>43</v>
+      </c>
+      <c r="H13">
+        <v>11</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>102</v>
+      </c>
+      <c r="N13">
+        <v>74</v>
+      </c>
+      <c r="O13">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="2">
+        <v>46002</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>41</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>41</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>103</v>
+      </c>
+      <c r="N14">
+        <v>23</v>
+      </c>
+      <c r="O14">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="2">
+        <v>46002</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>220</v>
+      </c>
+      <c r="E15">
+        <v>31</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>31</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>55</v>
+      </c>
+      <c r="N15">
+        <v>105</v>
+      </c>
+      <c r="O15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="2">
+        <v>46002</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>97</v>
+      </c>
+      <c r="E16">
+        <v>38</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>38</v>
+      </c>
+      <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>78</v>
+      </c>
+      <c r="N16">
+        <v>49</v>
+      </c>
+      <c r="O16">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="2">
+        <v>46002</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>48</v>
+      </c>
+      <c r="E17">
+        <v>108</v>
+      </c>
+      <c r="F17">
+        <v>12</v>
+      </c>
+      <c r="G17">
+        <v>108</v>
+      </c>
+      <c r="H17">
+        <v>12</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>155</v>
+      </c>
+      <c r="N17">
+        <v>125</v>
+      </c>
+      <c r="O17">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="2">
+        <v>46002</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>63</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>63</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>116</v>
+      </c>
+      <c r="N18">
+        <v>14</v>
+      </c>
+      <c r="O18">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="2">
+        <v>46002</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>225</v>
+      </c>
+      <c r="E19">
+        <v>36</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>36</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>68</v>
+      </c>
+      <c r="N19">
+        <v>35</v>
+      </c>
+      <c r="O19">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="2">
+        <v>46002</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20">
+        <v>239</v>
+      </c>
+      <c r="E20">
+        <v>25</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>25</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>49</v>
+      </c>
+      <c r="N20">
+        <v>70</v>
+      </c>
+      <c r="O20">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="2">
+        <v>46002</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21">
+        <v>88</v>
+      </c>
+      <c r="E21">
+        <v>39</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>39</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>81</v>
+      </c>
+      <c r="N21">
+        <v>74</v>
+      </c>
+      <c r="O21">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="2">
+        <v>46002</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22">
+        <v>61</v>
+      </c>
+      <c r="E22">
+        <v>35</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>35</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>68</v>
+      </c>
+      <c r="N22">
+        <v>27</v>
+      </c>
+      <c r="O22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="2">
+        <v>46002</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>30</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>30</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>56</v>
+      </c>
+      <c r="N23">
+        <v>14</v>
+      </c>
+      <c r="O23">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="2">
+        <v>46002</v>
+      </c>
+      <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="D8">
-        <v>86</v>
-      </c>
-      <c r="E8">
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>264</v>
+      </c>
+      <c r="E24">
         <v>26</v>
       </c>
-      <c r="F8">
+      <c r="F24">
         <v>1</v>
       </c>
-      <c r="G8">
+      <c r="G24">
         <v>26</v>
       </c>
-      <c r="H8">
+      <c r="H24">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>48</v>
-      </c>
-      <c r="N8">
-        <v>37</v>
-      </c>
-      <c r="O8">
-        <v>122</v>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>42</v>
+      </c>
+      <c r="N24">
+        <v>51</v>
+      </c>
+      <c r="O24">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="2">
+        <v>46002</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <v>116</v>
+      </c>
+      <c r="E25">
+        <v>31</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>31</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>50</v>
+      </c>
+      <c r="N25">
+        <v>28</v>
+      </c>
+      <c r="O25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="2">
+        <v>46002</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>74</v>
+      </c>
+      <c r="E26">
+        <v>50</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <v>50</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>84</v>
+      </c>
+      <c r="N26">
+        <v>55</v>
+      </c>
+      <c r="O26">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="2">
+        <v>46002</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>33</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <v>33</v>
+      </c>
+      <c r="H27">
+        <v>6</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>90</v>
+      </c>
+      <c r="N27">
+        <v>18</v>
+      </c>
+      <c r="O27">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -511,7 +511,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -520,19 +520,19 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -547,18 +547,18 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N2">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="O2">
-        <v>116</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -570,16 +570,16 @@
         <v>99</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -594,18 +594,18 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N3">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="O3">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -614,19 +614,19 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E4">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -641,18 +641,18 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="N4">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="O4">
-        <v>183</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -661,19 +661,19 @@
         <v>25</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -688,18 +688,18 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="N5">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="O5">
-        <v>142</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -708,19 +708,19 @@
         <v>26</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -735,18 +735,18 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="N6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O6">
-        <v>141</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -755,7 +755,7 @@
         <v>22</v>
       </c>
       <c r="D7">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -782,18 +782,18 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N7">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="O7">
-        <v>135</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -802,16 +802,16 @@
         <v>23</v>
       </c>
       <c r="D8">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E8">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -829,18 +829,18 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="N8">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="O8">
-        <v>144</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -849,19 +849,19 @@
         <v>24</v>
       </c>
       <c r="D9">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E9">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -879,15 +879,15 @@
         <v>73</v>
       </c>
       <c r="N9">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="O9">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -896,19 +896,19 @@
         <v>25</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -923,18 +923,18 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="N10">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O10">
-        <v>103</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -943,19 +943,19 @@
         <v>22</v>
       </c>
       <c r="D11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E11">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -970,18 +970,18 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N11">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O11">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -990,19 +990,19 @@
         <v>23</v>
       </c>
       <c r="D12">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G12">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1017,18 +1017,18 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N12">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="O12">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1037,19 +1037,19 @@
         <v>24</v>
       </c>
       <c r="D13">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E13">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F13">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G13">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1064,18 +1064,18 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="N13">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="O13">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1084,19 +1084,19 @@
         <v>25</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E14">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G14">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1111,18 +1111,18 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="N14">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="O14">
-        <v>168</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1131,19 +1131,19 @@
         <v>22</v>
       </c>
       <c r="D15">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="E15">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1158,18 +1158,18 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="N15">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O15">
-        <v>192</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1178,19 +1178,19 @@
         <v>23</v>
       </c>
       <c r="D16">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="E16">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G16">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1205,18 +1205,18 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N16">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="O16">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1228,16 +1228,16 @@
         <v>48</v>
       </c>
       <c r="E17">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="F17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G17">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1252,18 +1252,18 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="N17">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="O17">
-        <v>389</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1272,19 +1272,19 @@
         <v>25</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E18">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G18">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1299,18 +1299,18 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="N18">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O18">
-        <v>194</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1319,19 +1319,19 @@
         <v>26</v>
       </c>
       <c r="D19">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c r="E19">
         <v>36</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>36</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1346,18 +1346,18 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N19">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="O19">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -1366,13 +1366,13 @@
         <v>22</v>
       </c>
       <c r="D20">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E20">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1381,30 +1381,30 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>49</v>
       </c>
       <c r="N20">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O20">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -1413,10 +1413,10 @@
         <v>23</v>
       </c>
       <c r="D21">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E21">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F21">
         <v>3</v>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="J21">
         <v>3</v>
@@ -1440,18 +1440,18 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="N21">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="O21">
-        <v>190</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -1460,7 +1460,7 @@
         <v>24</v>
       </c>
       <c r="D22">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E22">
         <v>35</v>
@@ -1481,24 +1481,24 @@
         <v>4</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="N22">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O22">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1510,10 +1510,10 @@
         <v>14</v>
       </c>
       <c r="E23">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1522,10 +1522,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1534,18 +1534,18 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="N23">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O23">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
@@ -1554,7 +1554,7 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E24">
         <v>26</v>
@@ -1581,18 +1581,18 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N24">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="O24">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
@@ -1601,19 +1601,19 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="E25">
         <v>31</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G25">
         <v>31</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1628,18 +1628,18 @@
         <v>0</v>
       </c>
       <c r="M25">
+        <v>59</v>
+      </c>
+      <c r="N25">
         <v>50</v>
       </c>
-      <c r="N25">
-        <v>28</v>
-      </c>
       <c r="O25">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
@@ -1648,16 +1648,16 @@
         <v>24</v>
       </c>
       <c r="D26">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E26">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F26">
         <v>6</v>
       </c>
       <c r="G26">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H26">
         <v>6</v>
@@ -1675,18 +1675,18 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="N26">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O26">
-        <v>199</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
@@ -1695,19 +1695,19 @@
         <v>25</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E27">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="F27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G27">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="H27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1722,13 +1722,13 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="N27">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="O27">
-        <v>144</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -61,7 +61,7 @@
     <t>lane_total</t>
   </si>
   <si>
-    <t>343939 Mt.Joy</t>
+    <t>343939 Mt Joy</t>
   </si>
   <si>
     <t>357993 Enola</t>
@@ -70,16 +70,16 @@
     <t>358529 Columbia</t>
   </si>
   <si>
-    <t>359042 LITITZ</t>
-  </si>
-  <si>
-    <t>362913 DUNKIN</t>
-  </si>
-  <si>
-    <t>363271</t>
-  </si>
-  <si>
-    <t>364322 elizabethtown</t>
+    <t>359042 Lititz</t>
+  </si>
+  <si>
+    <t>362913 Eisenhower</t>
+  </si>
+  <si>
+    <t>363271 Marietta</t>
+  </si>
+  <si>
+    <t>364322 E-Town</t>
   </si>
   <si>
     <t>Daypart 2</t>
@@ -456,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,7 +511,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>46003</v>
+        <v>46007</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -520,19 +520,19 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -547,18 +547,18 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N2">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="O2">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>46003</v>
+        <v>46007</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -567,19 +567,19 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -594,18 +594,18 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N3">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O3">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>46003</v>
+        <v>46007</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -614,19 +614,19 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -641,18 +641,18 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="N4">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="O4">
-        <v>210</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>46003</v>
+        <v>46007</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -661,19 +661,19 @@
         <v>25</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -688,18 +688,18 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N5">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="O5">
-        <v>266</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>46003</v>
+        <v>46007</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -708,19 +708,19 @@
         <v>26</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -735,18 +735,18 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="N6">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O6">
-        <v>117</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>46003</v>
+        <v>46007</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -755,7 +755,7 @@
         <v>22</v>
       </c>
       <c r="D7">
-        <v>301</v>
+        <v>257</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -785,15 +785,15 @@
         <v>44</v>
       </c>
       <c r="N7">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="O7">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>46003</v>
+        <v>46007</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -802,19 +802,19 @@
         <v>23</v>
       </c>
       <c r="D8">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -829,18 +829,18 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="N8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O8">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>46003</v>
+        <v>46007</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -849,19 +849,19 @@
         <v>24</v>
       </c>
       <c r="D9">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N9">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="O9">
         <v>144</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>46003</v>
+        <v>46007</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -896,19 +896,19 @@
         <v>25</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -923,18 +923,18 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="N10">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="O10">
-        <v>164</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>46003</v>
+        <v>46007</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -943,19 +943,19 @@
         <v>22</v>
       </c>
       <c r="D11">
-        <v>270</v>
+        <v>189</v>
       </c>
       <c r="E11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -970,18 +970,18 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="N11">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="O11">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>46003</v>
+        <v>46007</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -990,19 +990,19 @@
         <v>23</v>
       </c>
       <c r="D12">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="E12">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1017,18 +1017,18 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="N12">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="O12">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>46003</v>
+        <v>46007</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1037,19 +1037,19 @@
         <v>24</v>
       </c>
       <c r="D13">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="E13">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G13">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1064,18 +1064,18 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="N13">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="O13">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>46003</v>
+        <v>46007</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1084,19 +1084,19 @@
         <v>25</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G14">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1111,18 +1111,18 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N14">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="O14">
-        <v>203</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>46003</v>
+        <v>46007</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1131,19 +1131,19 @@
         <v>22</v>
       </c>
       <c r="D15">
-        <v>270</v>
+        <v>186</v>
       </c>
       <c r="E15">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1158,18 +1158,18 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N15">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="O15">
-        <v>172</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>46003</v>
+        <v>46007</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1178,19 +1178,19 @@
         <v>23</v>
       </c>
       <c r="D16">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E16">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G16">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1205,18 +1205,18 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="N16">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="O16">
-        <v>175</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>46003</v>
+        <v>46007</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1225,19 +1225,19 @@
         <v>24</v>
       </c>
       <c r="D17">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E17">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="F17">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G17">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1252,18 +1252,18 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="N17">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="O17">
-        <v>241</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>46003</v>
+        <v>46007</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1272,19 +1272,19 @@
         <v>25</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E18">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="F18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G18">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="H18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1299,36 +1299,36 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="N18">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="O18">
-        <v>241</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>46003</v>
+        <v>46007</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>267</v>
+        <v>127</v>
       </c>
       <c r="E19">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1346,45 +1346,45 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="N19">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O19">
-        <v>119</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>46003</v>
+        <v>46007</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20">
-        <v>238</v>
+        <v>58</v>
       </c>
       <c r="E20">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1393,127 +1393,127 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="N20">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="O20">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>46003</v>
+        <v>46007</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>37</v>
+      </c>
+      <c r="E21">
+        <v>33</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>33</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>84</v>
+      </c>
+      <c r="N21">
         <v>23</v>
       </c>
-      <c r="D21">
-        <v>91</v>
-      </c>
-      <c r="E21">
-        <v>28</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>28</v>
-      </c>
-      <c r="J21">
-        <v>3</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>76</v>
-      </c>
-      <c r="N21">
-        <v>40</v>
-      </c>
       <c r="O21">
-        <v>143</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>46003</v>
+        <v>46007</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="E22">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="N22">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="O22">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>46003</v>
+        <v>46007</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="E23">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1522,10 +1522,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1534,45 +1534,45 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="N23">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="O23">
-        <v>83</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>46003</v>
+        <v>46007</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D24">
-        <v>267</v>
+        <v>100</v>
       </c>
       <c r="E24">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G24">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1581,45 +1581,45 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="N24">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="O24">
-        <v>121</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>46003</v>
+        <v>46007</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D25">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="E25">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1628,45 +1628,45 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="N25">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="O25">
-        <v>151</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>46003</v>
+        <v>46007</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D26">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E26">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F26">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1675,60 +1675,201 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="N26">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="O26">
-        <v>218</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2">
-        <v>46003</v>
+        <v>46007</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
       </c>
       <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27">
+        <v>199</v>
+      </c>
+      <c r="E27">
+        <v>29</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>29</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>52</v>
+      </c>
+      <c r="N27">
+        <v>63</v>
+      </c>
+      <c r="O27">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="2">
+        <v>46007</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28">
+        <v>143</v>
+      </c>
+      <c r="E28">
+        <v>32</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>32</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>63</v>
+      </c>
+      <c r="N28">
+        <v>59</v>
+      </c>
+      <c r="O28">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="2">
+        <v>46007</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29">
+        <v>59</v>
+      </c>
+      <c r="E29">
+        <v>37</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>37</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>82</v>
+      </c>
+      <c r="N29">
+        <v>43</v>
+      </c>
+      <c r="O29">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="2">
+        <v>46007</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
         <v>25</v>
       </c>
-      <c r="D27">
+      <c r="D30">
         <v>22</v>
       </c>
-      <c r="E27">
-        <v>67</v>
-      </c>
-      <c r="F27">
-        <v>5</v>
-      </c>
-      <c r="G27">
-        <v>67</v>
-      </c>
-      <c r="H27">
-        <v>5</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>123</v>
-      </c>
-      <c r="N27">
-        <v>39</v>
-      </c>
-      <c r="O27">
-        <v>229</v>
+      <c r="E30">
+        <v>33</v>
+      </c>
+      <c r="F30">
+        <v>7</v>
+      </c>
+      <c r="G30">
+        <v>33</v>
+      </c>
+      <c r="H30">
+        <v>7</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>79</v>
+      </c>
+      <c r="N30">
+        <v>34</v>
+      </c>
+      <c r="O30">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -511,7 +511,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -520,19 +520,19 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="E2">
         <v>28</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>28</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -547,18 +547,18 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N2">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="O2">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -567,19 +567,19 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E3">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -594,18 +594,18 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="N3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O3">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -614,19 +614,19 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E4">
         <v>39</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <v>39</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -641,18 +641,18 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="N4">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="O4">
-        <v>246</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -661,16 +661,16 @@
         <v>25</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -688,18 +688,18 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="N5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O5">
-        <v>164</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -708,19 +708,19 @@
         <v>26</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -735,18 +735,18 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="N6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O6">
-        <v>188</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -755,7 +755,7 @@
         <v>22</v>
       </c>
       <c r="D7">
-        <v>257</v>
+        <v>303</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -782,18 +782,18 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N7">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="O7">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -802,19 +802,19 @@
         <v>23</v>
       </c>
       <c r="D8">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E8">
         <v>31</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>31</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -832,15 +832,15 @@
         <v>57</v>
       </c>
       <c r="N8">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="O8">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -849,19 +849,19 @@
         <v>24</v>
       </c>
       <c r="D9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -876,18 +876,18 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N9">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="O9">
-        <v>144</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -896,19 +896,19 @@
         <v>25</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E10">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -923,18 +923,18 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O10">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -943,19 +943,19 @@
         <v>22</v>
       </c>
       <c r="D11">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="E11">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -970,18 +970,18 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="N11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O11">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -990,19 +990,19 @@
         <v>23</v>
       </c>
       <c r="D12">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="E12">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G12">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1017,18 +1017,18 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="N12">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="O12">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1037,19 +1037,19 @@
         <v>24</v>
       </c>
       <c r="D13">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E13">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1064,18 +1064,18 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N13">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="O13">
-        <v>224</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1084,19 +1084,19 @@
         <v>25</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E14">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F14">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1111,18 +1111,18 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="N14">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="O14">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1131,16 +1131,16 @@
         <v>22</v>
       </c>
       <c r="D15">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="E15">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F15">
         <v>4</v>
       </c>
       <c r="G15">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H15">
         <v>4</v>
@@ -1158,18 +1158,18 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N15">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="O15">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1178,19 +1178,19 @@
         <v>23</v>
       </c>
       <c r="D16">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="E16">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G16">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1205,18 +1205,18 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="N16">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="O16">
-        <v>224</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1225,19 +1225,19 @@
         <v>24</v>
       </c>
       <c r="D17">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>51</v>
       </c>
       <c r="F17">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G17">
         <v>51</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1252,18 +1252,18 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="N17">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="O17">
-        <v>186</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1272,16 +1272,16 @@
         <v>25</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F18">
         <v>5</v>
       </c>
       <c r="G18">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -1299,18 +1299,18 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="N18">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="O18">
-        <v>138</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1319,16 +1319,16 @@
         <v>22</v>
       </c>
       <c r="D19">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E19">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1346,18 +1346,18 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="N19">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="O19">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1366,19 +1366,19 @@
         <v>23</v>
       </c>
       <c r="D20">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E20">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1393,18 +1393,18 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="N20">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O20">
-        <v>144</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1413,16 +1413,16 @@
         <v>24</v>
       </c>
       <c r="D21">
+        <v>26</v>
+      </c>
+      <c r="E21">
         <v>37</v>
-      </c>
-      <c r="E21">
-        <v>33</v>
       </c>
       <c r="F21">
         <v>2</v>
       </c>
       <c r="G21">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -1440,18 +1440,18 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="N21">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="O21">
-        <v>118</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1460,19 +1460,19 @@
         <v>25</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1487,18 +1487,18 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="N22">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="O22">
-        <v>125</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1507,7 +1507,7 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="E23">
         <v>29</v>
@@ -1534,18 +1534,18 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="N23">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="O23">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1554,10 +1554,10 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E24">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F24">
         <v>3</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -1581,18 +1581,18 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="N24">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="O24">
-        <v>159</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1601,13 +1601,13 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E25">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1616,10 +1616,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1628,18 +1628,18 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N25">
         <v>33</v>
       </c>
       <c r="O25">
-        <v>174</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1648,10 +1648,10 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E26">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -1675,18 +1675,18 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="N26">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="O26">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
@@ -1695,16 +1695,16 @@
         <v>22</v>
       </c>
       <c r="D27">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="E27">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F27">
         <v>2</v>
       </c>
       <c r="G27">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -1722,18 +1722,18 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="N27">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="O27">
-        <v>160</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -1742,19 +1742,19 @@
         <v>23</v>
       </c>
       <c r="D28">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="E28">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1769,18 +1769,18 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N28">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="O28">
-        <v>169</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
@@ -1789,7 +1789,7 @@
         <v>24</v>
       </c>
       <c r="D29">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E29">
         <v>37</v>
@@ -1816,18 +1816,18 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N29">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="O29">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
@@ -1836,19 +1836,19 @@
         <v>25</v>
       </c>
       <c r="D30">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E30">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F30">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G30">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H30">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1863,13 +1863,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="N30">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="O30">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -64,24 +64,15 @@
     <t>343939 Mt Joy</t>
   </si>
   <si>
-    <t>357993 Enola</t>
-  </si>
-  <si>
     <t>358529 Columbia</t>
   </si>
   <si>
-    <t>359042 Lititz</t>
-  </si>
-  <si>
     <t>362913 Eisenhower</t>
   </si>
   <si>
     <t>363271 Marietta</t>
   </si>
   <si>
-    <t>364322 E-Town</t>
-  </si>
-  <si>
     <t>Daypart 2</t>
   </si>
   <si>
@@ -92,9 +83,6 @@
   </si>
   <si>
     <t>Daypart 5</t>
-  </si>
-  <si>
-    <t>Daypart 1</t>
   </si>
 </sst>
 </file>
@@ -456,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,25 +499,25 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>46008</v>
+        <v>46010</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>205</v>
+        <v>249</v>
       </c>
       <c r="E2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -547,39 +535,39 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N2">
         <v>52</v>
       </c>
       <c r="O2">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>46008</v>
+        <v>46010</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="E3">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="H3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -594,39 +582,39 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="N3">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O3">
-        <v>177</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>46008</v>
+        <v>46010</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E4">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -641,36 +629,36 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N4">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="O4">
-        <v>182</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>46008</v>
+        <v>46010</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>15</v>
       </c>
       <c r="E5">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -688,39 +676,39 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="N5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="O5">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>46008</v>
+        <v>46010</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>256</v>
       </c>
       <c r="E6">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -735,39 +723,39 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="N6">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="O6">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>46008</v>
+        <v>46010</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>303</v>
+        <v>106</v>
       </c>
       <c r="E7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -782,39 +770,39 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="N7">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="O7">
-        <v>127</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>46008</v>
+        <v>46010</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="E8">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G8">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -829,39 +817,39 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="N8">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="O8">
-        <v>144</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>46008</v>
+        <v>46010</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="E9">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -876,39 +864,39 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="N9">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="O9">
-        <v>164</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>46008</v>
+        <v>46010</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="E10">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -923,39 +911,39 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="N10">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="O10">
-        <v>145</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>46008</v>
+        <v>46010</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>243</v>
+        <v>84</v>
       </c>
       <c r="E11">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -970,39 +958,39 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="N11">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="O11">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>46008</v>
+        <v>46010</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="E12">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F12">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1017,39 +1005,39 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="N12">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="O12">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>46008</v>
+        <v>46010</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="E13">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="F13">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1064,45 +1052,45 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="N13">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="O13">
-        <v>257</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>46008</v>
+        <v>46010</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>269</v>
       </c>
       <c r="E14">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1111,45 +1099,45 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>159</v>
+        <v>46</v>
       </c>
       <c r="N14">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="O14">
-        <v>239</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>46008</v>
+        <v>46010</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>235</v>
+        <v>108</v>
       </c>
       <c r="E15">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1158,45 +1146,45 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="N15">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="O15">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>46008</v>
+        <v>46010</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E16">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1205,45 +1193,45 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="N16">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O16">
-        <v>130</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>46008</v>
+        <v>46010</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E17">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1252,624 +1240,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="N17">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="O17">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="2">
-        <v>46008</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-      <c r="E18">
-        <v>51</v>
-      </c>
-      <c r="F18">
-        <v>5</v>
-      </c>
-      <c r="G18">
-        <v>51</v>
-      </c>
-      <c r="H18">
-        <v>5</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>153</v>
-      </c>
-      <c r="N18">
-        <v>19</v>
-      </c>
-      <c r="O18">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="2">
-        <v>46008</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19">
-        <v>132</v>
-      </c>
-      <c r="E19">
-        <v>31</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>31</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>48</v>
-      </c>
-      <c r="N19">
-        <v>39</v>
-      </c>
-      <c r="O19">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="2">
-        <v>46008</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20">
-        <v>47</v>
-      </c>
-      <c r="E20">
-        <v>37</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-      <c r="G20">
-        <v>37</v>
-      </c>
-      <c r="H20">
-        <v>3</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>71</v>
-      </c>
-      <c r="N20">
-        <v>20</v>
-      </c>
-      <c r="O20">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="2">
-        <v>46008</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21">
-        <v>26</v>
-      </c>
-      <c r="E21">
-        <v>37</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21">
-        <v>37</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>96</v>
-      </c>
-      <c r="N21">
-        <v>36</v>
-      </c>
-      <c r="O21">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="2">
-        <v>46008</v>
-      </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22">
-        <v>9</v>
-      </c>
-      <c r="E22">
-        <v>30</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="G22">
-        <v>30</v>
-      </c>
-      <c r="H22">
-        <v>3</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>129</v>
-      </c>
-      <c r="N22">
-        <v>13</v>
-      </c>
-      <c r="O22">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="2">
-        <v>46008</v>
-      </c>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23">
-        <v>249</v>
-      </c>
-      <c r="E23">
-        <v>29</v>
-      </c>
-      <c r="F23">
-        <v>4</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>29</v>
-      </c>
-      <c r="J23">
-        <v>4</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>46</v>
-      </c>
-      <c r="N23">
-        <v>59</v>
-      </c>
-      <c r="O23">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="2">
-        <v>46008</v>
-      </c>
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24">
-        <v>83</v>
-      </c>
-      <c r="E24">
-        <v>40</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>40</v>
-      </c>
-      <c r="J24">
-        <v>3</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>79</v>
-      </c>
-      <c r="N24">
-        <v>78</v>
-      </c>
-      <c r="O24">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="2">
-        <v>46008</v>
-      </c>
-      <c r="B25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25">
-        <v>55</v>
-      </c>
-      <c r="E25">
-        <v>35</v>
-      </c>
-      <c r="F25">
-        <v>4</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>35</v>
-      </c>
-      <c r="J25">
-        <v>4</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>80</v>
-      </c>
-      <c r="N25">
-        <v>33</v>
-      </c>
-      <c r="O25">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="2">
-        <v>46008</v>
-      </c>
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26">
-        <v>5</v>
-      </c>
-      <c r="E26">
-        <v>38</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>38</v>
-      </c>
-      <c r="J26">
-        <v>2</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>88</v>
-      </c>
-      <c r="N26">
-        <v>8</v>
-      </c>
-      <c r="O26">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="2">
-        <v>46008</v>
-      </c>
-      <c r="B27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27">
-        <v>220</v>
-      </c>
-      <c r="E27">
-        <v>25</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <v>25</v>
-      </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>44</v>
-      </c>
-      <c r="N27">
-        <v>43</v>
-      </c>
-      <c r="O27">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="2">
-        <v>46008</v>
-      </c>
-      <c r="B28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28">
-        <v>117</v>
-      </c>
-      <c r="E28">
-        <v>29</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <v>29</v>
-      </c>
-      <c r="H28">
-        <v>2</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>60</v>
-      </c>
-      <c r="N28">
-        <v>41</v>
-      </c>
-      <c r="O28">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="2">
-        <v>46008</v>
-      </c>
-      <c r="B29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29">
-        <v>58</v>
-      </c>
-      <c r="E29">
-        <v>37</v>
-      </c>
-      <c r="F29">
-        <v>5</v>
-      </c>
-      <c r="G29">
-        <v>37</v>
-      </c>
-      <c r="H29">
-        <v>5</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>79</v>
-      </c>
-      <c r="N29">
-        <v>37</v>
-      </c>
-      <c r="O29">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="2">
-        <v>46008</v>
-      </c>
-      <c r="B30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30">
-        <v>20</v>
-      </c>
-      <c r="E30">
-        <v>34</v>
-      </c>
-      <c r="F30">
-        <v>4</v>
-      </c>
-      <c r="G30">
-        <v>34</v>
-      </c>
-      <c r="H30">
-        <v>4</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>98</v>
-      </c>
-      <c r="N30">
-        <v>27</v>
-      </c>
-      <c r="O30">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -64,15 +64,24 @@
     <t>343939 Mt Joy</t>
   </si>
   <si>
+    <t>357993 Enola</t>
+  </si>
+  <si>
     <t>358529 Columbia</t>
   </si>
   <si>
+    <t>359042 Lititz</t>
+  </si>
+  <si>
     <t>362913 Eisenhower</t>
   </si>
   <si>
     <t>363271 Marietta</t>
   </si>
   <si>
+    <t>364322 E-Town</t>
+  </si>
+  <si>
     <t>Daypart 2</t>
   </si>
   <si>
@@ -83,6 +92,9 @@
   </si>
   <si>
     <t>Daypart 5</t>
+  </si>
+  <si>
+    <t>Daypart 1</t>
   </si>
 </sst>
 </file>
@@ -444,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,28 +511,28 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>46010</v>
+        <v>46023</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2">
-        <v>249</v>
+        <v>69</v>
       </c>
       <c r="E2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -535,39 +547,39 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N2">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="O2">
-        <v>128</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>46010</v>
+        <v>46023</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -582,39 +594,39 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="N3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O3">
-        <v>122</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>46010</v>
+        <v>46023</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E4">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -629,39 +641,39 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="N4">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="O4">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>46010</v>
+        <v>46023</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -676,39 +688,39 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="N5">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O5">
-        <v>125</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>46010</v>
+        <v>46023</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -723,39 +735,39 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="N6">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="O6">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>46010</v>
+        <v>46023</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E7">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -770,39 +782,39 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="N7">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="O7">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>46010</v>
+        <v>46023</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="E8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -817,39 +829,39 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="N8">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="O8">
-        <v>229</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>46010</v>
+        <v>46023</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="E9">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -864,39 +876,39 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="N9">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O9">
-        <v>248</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>46010</v>
+        <v>46023</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="E10">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -911,39 +923,39 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="N10">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="O10">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>46010</v>
+        <v>46023</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E11">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -958,39 +970,39 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="N11">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="O11">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>46010</v>
+        <v>46023</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="E12">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G12">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1005,39 +1017,39 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="N12">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="O12">
-        <v>151</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>46010</v>
+        <v>46023</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="E13">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G13">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1052,45 +1064,45 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="N13">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="O13">
-        <v>202</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>46010</v>
+        <v>46023</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>269</v>
+        <v>15</v>
       </c>
       <c r="E14">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I14">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1099,45 +1111,45 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="N14">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="O14">
-        <v>155</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>46010</v>
+        <v>46023</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D15">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="E15">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1146,45 +1158,45 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="N15">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="O15">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>46010</v>
+        <v>46023</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="E16">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I16">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1193,60 +1205,671 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N16">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="O16">
-        <v>159</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>46010</v>
+        <v>46023</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>86</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>86</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>117</v>
+      </c>
+      <c r="N17">
+        <v>50</v>
+      </c>
+      <c r="O17">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="2">
+        <v>46023</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>40</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>40</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>100</v>
+      </c>
+      <c r="N18">
+        <v>38</v>
+      </c>
+      <c r="O18">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="2">
+        <v>46023</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
         <v>22</v>
       </c>
-      <c r="D17">
-        <v>15</v>
-      </c>
-      <c r="E17">
+      <c r="D19">
+        <v>43</v>
+      </c>
+      <c r="E19">
+        <v>39</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>39</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>66</v>
+      </c>
+      <c r="N19">
+        <v>29</v>
+      </c>
+      <c r="O19">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="2">
+        <v>46023</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20">
+        <v>75</v>
+      </c>
+      <c r="E20">
+        <v>48</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>48</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>81</v>
+      </c>
+      <c r="N20">
+        <v>47</v>
+      </c>
+      <c r="O20">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="2">
+        <v>46023</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>47</v>
+      </c>
+      <c r="E21">
+        <v>47</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>47</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>144</v>
+      </c>
+      <c r="N21">
+        <v>125</v>
+      </c>
+      <c r="O21">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="2">
+        <v>46023</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>38</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>38</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>106</v>
+      </c>
+      <c r="N22">
+        <v>9</v>
+      </c>
+      <c r="O22">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="2">
+        <v>46023</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>53</v>
+      </c>
+      <c r="E23">
+        <v>27</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>27</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>64</v>
+      </c>
+      <c r="N23">
+        <v>25</v>
+      </c>
+      <c r="O23">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="2">
+        <v>46023</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>129</v>
+      </c>
+      <c r="E24">
+        <v>47</v>
+      </c>
+      <c r="F24">
+        <v>9</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>47</v>
+      </c>
+      <c r="J24">
+        <v>9</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>82</v>
+      </c>
+      <c r="N24">
+        <v>147</v>
+      </c>
+      <c r="O24">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="2">
+        <v>46023</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>56</v>
+      </c>
+      <c r="E25">
+        <v>37</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>37</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>81</v>
+      </c>
+      <c r="N25">
+        <v>35</v>
+      </c>
+      <c r="O25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="2">
+        <v>46023</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>13</v>
+      </c>
+      <c r="E26">
         <v>40</v>
       </c>
-      <c r="F17">
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>40</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>59</v>
+      </c>
+      <c r="N26">
+        <v>11</v>
+      </c>
+      <c r="O26">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="2">
+        <v>46023</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27">
+        <v>70</v>
+      </c>
+      <c r="E27">
+        <v>31</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>31</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>54</v>
+      </c>
+      <c r="N27">
+        <v>28</v>
+      </c>
+      <c r="O27">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="2">
+        <v>46023</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28">
+        <v>138</v>
+      </c>
+      <c r="E28">
+        <v>48</v>
+      </c>
+      <c r="F28">
         <v>3</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>40</v>
-      </c>
-      <c r="J17">
+      <c r="G28">
+        <v>48</v>
+      </c>
+      <c r="H28">
         <v>3</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>106</v>
-      </c>
-      <c r="N17">
-        <v>14</v>
-      </c>
-      <c r="O17">
-        <v>151</v>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>73</v>
+      </c>
+      <c r="N28">
+        <v>80</v>
+      </c>
+      <c r="O28">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="2">
+        <v>46023</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29">
+        <v>59</v>
+      </c>
+      <c r="E29">
+        <v>37</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>37</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>83</v>
+      </c>
+      <c r="N29">
+        <v>32</v>
+      </c>
+      <c r="O29">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="2">
+        <v>46023</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>56</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>56</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>129</v>
+      </c>
+      <c r="N30">
+        <v>6</v>
+      </c>
+      <c r="O30">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -511,7 +511,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>46023</v>
+        <v>46024</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -520,16 +520,16 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <v>69</v>
+        <v>196</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -547,18 +547,18 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N2">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O2">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>46023</v>
+        <v>46024</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -567,19 +567,19 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="E3">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -594,18 +594,18 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="N3">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="O3">
-        <v>137</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>46023</v>
+        <v>46024</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -614,19 +614,19 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E4">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -641,18 +641,18 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="N4">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="O4">
-        <v>187</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>46023</v>
+        <v>46024</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -661,19 +661,19 @@
         <v>25</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -688,18 +688,18 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="N5">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="O5">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>46023</v>
+        <v>46024</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -708,19 +708,19 @@
         <v>26</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -735,18 +735,18 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="N6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O6">
-        <v>136</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>46023</v>
+        <v>46024</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -755,19 +755,19 @@
         <v>22</v>
       </c>
       <c r="D7">
-        <v>103</v>
+        <v>261</v>
       </c>
       <c r="E7">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -782,18 +782,18 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N7">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="O7">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>46023</v>
+        <v>46024</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -802,19 +802,19 @@
         <v>23</v>
       </c>
       <c r="D8">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E8">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -829,18 +829,18 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N8">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="O8">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>46023</v>
+        <v>46024</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -849,19 +849,19 @@
         <v>24</v>
       </c>
       <c r="D9">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="E9">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -876,18 +876,18 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O9">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>46023</v>
+        <v>46024</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -896,19 +896,19 @@
         <v>25</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -923,18 +923,18 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N10">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="O10">
-        <v>110</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>46023</v>
+        <v>46024</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -943,16 +943,16 @@
         <v>22</v>
       </c>
       <c r="D11">
-        <v>86</v>
+        <v>243</v>
       </c>
       <c r="E11">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F11">
         <v>4</v>
       </c>
       <c r="G11">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -970,18 +970,18 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="N11">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="O11">
-        <v>111</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>46023</v>
+        <v>46024</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -990,19 +990,19 @@
         <v>23</v>
       </c>
       <c r="D12">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="E12">
         <v>49</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G12">
         <v>49</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1017,18 +1017,18 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N12">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="O12">
-        <v>182</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>46023</v>
+        <v>46024</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1037,19 +1037,19 @@
         <v>24</v>
       </c>
       <c r="D13">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E13">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F13">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G13">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1064,18 +1064,18 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="N13">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="O13">
-        <v>270</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>46023</v>
+        <v>46024</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1084,19 +1084,19 @@
         <v>25</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1111,18 +1111,18 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="N14">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="O14">
-        <v>341</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>46023</v>
+        <v>46024</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1131,19 +1131,19 @@
         <v>22</v>
       </c>
       <c r="D15">
-        <v>85</v>
+        <v>216</v>
       </c>
       <c r="E15">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1158,18 +1158,18 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="N15">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="O15">
-        <v>131</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>46023</v>
+        <v>46024</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1178,16 +1178,16 @@
         <v>23</v>
       </c>
       <c r="D16">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="E16">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F16">
         <v>6</v>
       </c>
       <c r="G16">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>6</v>
@@ -1205,18 +1205,18 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="N16">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="O16">
-        <v>274</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>46023</v>
+        <v>46024</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1225,19 +1225,19 @@
         <v>24</v>
       </c>
       <c r="D17">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E17">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G17">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1252,18 +1252,18 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="N17">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="O17">
-        <v>255</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>46023</v>
+        <v>46024</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1272,19 +1272,19 @@
         <v>25</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1299,18 +1299,18 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="N18">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="O18">
-        <v>174</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>46023</v>
+        <v>46024</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1319,16 +1319,16 @@
         <v>22</v>
       </c>
       <c r="D19">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="E19">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F19">
         <v>2</v>
       </c>
       <c r="G19">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -1346,18 +1346,18 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="N19">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O19">
-        <v>109</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>46023</v>
+        <v>46024</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1366,19 +1366,19 @@
         <v>23</v>
       </c>
       <c r="D20">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E20">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G20">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1393,18 +1393,18 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="N20">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O20">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>46023</v>
+        <v>46024</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1413,19 +1413,19 @@
         <v>24</v>
       </c>
       <c r="D21">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E21">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G21">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1440,18 +1440,18 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="N21">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="O21">
-        <v>233</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>46023</v>
+        <v>46024</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1460,19 +1460,19 @@
         <v>25</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E22">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G22">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1487,18 +1487,18 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="N22">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="O22">
-        <v>136</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>46023</v>
+        <v>46024</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1507,10 +1507,10 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>53</v>
+        <v>207</v>
       </c>
       <c r="E23">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -1534,18 +1534,18 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="N23">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="O23">
-        <v>113</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>46023</v>
+        <v>46024</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1554,13 +1554,13 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E24">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F24">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1569,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J24">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1581,18 +1581,18 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="N24">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="O24">
-        <v>270</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>46023</v>
+        <v>46024</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1601,13 +1601,13 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E25">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1616,10 +1616,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1628,18 +1628,18 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N25">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O25">
-        <v>148</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>46023</v>
+        <v>46024</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1648,13 +1648,13 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E26">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1675,18 +1675,18 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="N26">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O26">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2">
-        <v>46023</v>
+        <v>46024</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
@@ -1695,19 +1695,19 @@
         <v>22</v>
       </c>
       <c r="D27">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="E27">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1722,18 +1722,18 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="N27">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="O27">
-        <v>114</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2">
-        <v>46023</v>
+        <v>46024</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -1742,19 +1742,19 @@
         <v>23</v>
       </c>
       <c r="D28">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="E28">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1769,18 +1769,18 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="N28">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="O28">
-        <v>221</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2">
-        <v>46023</v>
+        <v>46024</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
@@ -1789,19 +1789,19 @@
         <v>24</v>
       </c>
       <c r="D29">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="E29">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G29">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1816,18 +1816,18 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="N29">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="O29">
-        <v>161</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2">
-        <v>46023</v>
+        <v>46024</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
@@ -1836,16 +1836,16 @@
         <v>25</v>
       </c>
       <c r="D30">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E30">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F30">
         <v>6</v>
       </c>
       <c r="G30">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H30">
         <v>6</v>
@@ -1863,13 +1863,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="N30">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="O30">
-        <v>178</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -511,7 +511,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>46024</v>
+        <v>46025</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -520,16 +520,16 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <v>196</v>
+        <v>124</v>
       </c>
       <c r="E2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -547,18 +547,18 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="N2">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="O2">
-        <v>111</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>46024</v>
+        <v>46025</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -567,19 +567,19 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E3">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -594,18 +594,18 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="N3">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="O3">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>46024</v>
+        <v>46025</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -614,19 +614,19 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E4">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -641,18 +641,18 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="N4">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="O4">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>46024</v>
+        <v>46025</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -661,19 +661,19 @@
         <v>25</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -688,18 +688,18 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="N5">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="O5">
-        <v>163</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>46024</v>
+        <v>46025</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -708,16 +708,16 @@
         <v>26</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -735,18 +735,18 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="N6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O6">
-        <v>185</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>46024</v>
+        <v>46025</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -755,16 +755,16 @@
         <v>22</v>
       </c>
       <c r="D7">
-        <v>261</v>
+        <v>181</v>
       </c>
       <c r="E7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -782,18 +782,18 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N7">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="O7">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>46024</v>
+        <v>46025</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -802,19 +802,19 @@
         <v>23</v>
       </c>
       <c r="D8">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="E8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -829,18 +829,18 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="N8">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="O8">
-        <v>175</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>46024</v>
+        <v>46025</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -849,19 +849,19 @@
         <v>24</v>
       </c>
       <c r="D9">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E9">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -876,18 +876,18 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N9">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="O9">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>46024</v>
+        <v>46025</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -896,19 +896,19 @@
         <v>25</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E10">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -923,18 +923,18 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="N10">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="O10">
-        <v>151</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>46024</v>
+        <v>46025</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -943,19 +943,19 @@
         <v>22</v>
       </c>
       <c r="D11">
-        <v>243</v>
+        <v>136</v>
       </c>
       <c r="E11">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -970,18 +970,18 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N11">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="O11">
-        <v>146</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>46024</v>
+        <v>46025</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -990,19 +990,19 @@
         <v>23</v>
       </c>
       <c r="D12">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="E12">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1017,18 +1017,18 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N12">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O12">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>46024</v>
+        <v>46025</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1037,19 +1037,19 @@
         <v>24</v>
       </c>
       <c r="D13">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E13">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G13">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1064,18 +1064,18 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="N13">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="O13">
-        <v>221</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>46024</v>
+        <v>46025</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1084,19 +1084,19 @@
         <v>25</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E14">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G14">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1111,18 +1111,18 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N14">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="O14">
-        <v>242</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>46024</v>
+        <v>46025</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1131,19 +1131,19 @@
         <v>22</v>
       </c>
       <c r="D15">
-        <v>216</v>
+        <v>139</v>
       </c>
       <c r="E15">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1158,18 +1158,18 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="N15">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="O15">
-        <v>164</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>46024</v>
+        <v>46025</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1178,19 +1178,19 @@
         <v>23</v>
       </c>
       <c r="D16">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E16">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G16">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1205,18 +1205,18 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N16">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O16">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>46024</v>
+        <v>46025</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1225,16 +1225,16 @@
         <v>24</v>
       </c>
       <c r="D17">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F17">
         <v>12</v>
       </c>
       <c r="G17">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H17">
         <v>12</v>
@@ -1252,18 +1252,18 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="N17">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="O17">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>46024</v>
+        <v>46025</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1272,19 +1272,19 @@
         <v>25</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E18">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G18">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1299,18 +1299,18 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="N18">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O18">
-        <v>254</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>46024</v>
+        <v>46025</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1319,19 +1319,19 @@
         <v>22</v>
       </c>
       <c r="D19">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="E19">
         <v>33</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>33</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1346,18 +1346,18 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N19">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="O19">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>46024</v>
+        <v>46025</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1366,19 +1366,19 @@
         <v>23</v>
       </c>
       <c r="D20">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="E20">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1393,18 +1393,18 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N20">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="O20">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>46024</v>
+        <v>46025</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1413,19 +1413,19 @@
         <v>24</v>
       </c>
       <c r="D21">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E21">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1440,18 +1440,18 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N21">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="O21">
-        <v>164</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>46024</v>
+        <v>46025</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1460,19 +1460,19 @@
         <v>25</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E22">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G22">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1487,18 +1487,18 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="N22">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="O22">
-        <v>220</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>46024</v>
+        <v>46025</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1507,10 +1507,10 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="E23">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -1534,18 +1534,18 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N23">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O23">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>46024</v>
+        <v>46025</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1554,13 +1554,13 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E24">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1569,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1581,18 +1581,18 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N24">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="O24">
-        <v>205</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>46024</v>
+        <v>46025</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1601,10 +1601,10 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E25">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -1628,18 +1628,18 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N25">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="O25">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>46024</v>
+        <v>46025</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1648,13 +1648,13 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E26">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1675,18 +1675,18 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="N26">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="O26">
-        <v>103</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2">
-        <v>46024</v>
+        <v>46025</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
@@ -1695,19 +1695,19 @@
         <v>22</v>
       </c>
       <c r="D27">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="E27">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1722,18 +1722,18 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N27">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="O27">
-        <v>141</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2">
-        <v>46024</v>
+        <v>46025</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -1742,16 +1742,16 @@
         <v>23</v>
       </c>
       <c r="D28">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E28">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
       <c r="G28">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -1769,18 +1769,18 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="N28">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="O28">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2">
-        <v>46024</v>
+        <v>46025</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
@@ -1789,19 +1789,19 @@
         <v>24</v>
       </c>
       <c r="D29">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E29">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F29">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G29">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H29">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1816,18 +1816,18 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="N29">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="O29">
-        <v>208</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2">
-        <v>46024</v>
+        <v>46025</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
@@ -1836,19 +1836,19 @@
         <v>25</v>
       </c>
       <c r="D30">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E30">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="F30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G30">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="H30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1863,13 +1863,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="N30">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="O30">
-        <v>267</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -511,7 +511,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>46025</v>
+        <v>46027</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -520,19 +520,19 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="E2">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -547,18 +547,18 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N2">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="O2">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>46025</v>
+        <v>46027</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -567,19 +567,19 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="E3">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -594,18 +594,18 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="N3">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="O3">
-        <v>206</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>46025</v>
+        <v>46027</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -614,19 +614,19 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E4">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="H4">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -641,18 +641,18 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="N4">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="O4">
-        <v>297</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>46025</v>
+        <v>46027</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -661,19 +661,19 @@
         <v>25</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="F5">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="H5">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -688,18 +688,18 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="N5">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="O5">
-        <v>235</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>46025</v>
+        <v>46027</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -708,19 +708,19 @@
         <v>26</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -735,18 +735,18 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="N6">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O6">
-        <v>82</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>46025</v>
+        <v>46027</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -755,19 +755,19 @@
         <v>22</v>
       </c>
       <c r="D7">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="E7">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -782,18 +782,18 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="N7">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="O7">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>46025</v>
+        <v>46027</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -802,19 +802,19 @@
         <v>23</v>
       </c>
       <c r="D8">
-        <v>221</v>
+        <v>120</v>
       </c>
       <c r="E8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -829,18 +829,18 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="N8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O8">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>46025</v>
+        <v>46027</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -849,19 +849,19 @@
         <v>24</v>
       </c>
       <c r="D9">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -876,18 +876,18 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="N9">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="O9">
-        <v>169</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>46025</v>
+        <v>46027</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -896,19 +896,19 @@
         <v>25</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -923,18 +923,18 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="N10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O10">
-        <v>114</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>46025</v>
+        <v>46027</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -943,19 +943,19 @@
         <v>22</v>
       </c>
       <c r="D11">
-        <v>136</v>
+        <v>225</v>
       </c>
       <c r="E11">
         <v>22</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11">
         <v>22</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -970,18 +970,18 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="N11">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="O11">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>46025</v>
+        <v>46027</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -990,19 +990,19 @@
         <v>23</v>
       </c>
       <c r="D12">
-        <v>175</v>
+        <v>104</v>
       </c>
       <c r="E12">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1017,18 +1017,18 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N12">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="O12">
-        <v>200</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>46025</v>
+        <v>46027</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1037,19 +1037,19 @@
         <v>24</v>
       </c>
       <c r="D13">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E13">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G13">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1064,18 +1064,18 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N13">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="O13">
-        <v>252</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>46025</v>
+        <v>46027</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1084,19 +1084,19 @@
         <v>25</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G14">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1111,18 +1111,18 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="N14">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="O14">
-        <v>195</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>46025</v>
+        <v>46027</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1131,19 +1131,19 @@
         <v>22</v>
       </c>
       <c r="D15">
-        <v>139</v>
+        <v>189</v>
       </c>
       <c r="E15">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1158,18 +1158,18 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="N15">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="O15">
-        <v>134</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>46025</v>
+        <v>46027</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1178,19 +1178,19 @@
         <v>23</v>
       </c>
       <c r="D16">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="E16">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G16">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1205,18 +1205,18 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="N16">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="O16">
-        <v>223</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>46025</v>
+        <v>46027</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1225,19 +1225,19 @@
         <v>24</v>
       </c>
       <c r="D17">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E17">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F17">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G17">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1252,18 +1252,18 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="N17">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="O17">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>46025</v>
+        <v>46027</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1272,19 +1272,19 @@
         <v>25</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G18">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1299,18 +1299,18 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="N18">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="O18">
-        <v>136</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>46025</v>
+        <v>46027</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1319,19 +1319,19 @@
         <v>22</v>
       </c>
       <c r="D19">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="E19">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1346,18 +1346,18 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N19">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O19">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>46025</v>
+        <v>46027</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1366,19 +1366,19 @@
         <v>23</v>
       </c>
       <c r="D20">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>41</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20">
         <v>41</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1393,18 +1393,18 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N20">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="O20">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>46025</v>
+        <v>46027</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1413,16 +1413,16 @@
         <v>24</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E21">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F21">
         <v>4</v>
       </c>
       <c r="G21">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H21">
         <v>4</v>
@@ -1440,18 +1440,18 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="N21">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="O21">
-        <v>139</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>46025</v>
+        <v>46027</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1460,19 +1460,19 @@
         <v>25</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F22">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G22">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H22">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1487,18 +1487,18 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="N22">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="O22">
-        <v>151</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>46025</v>
+        <v>46027</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1507,10 +1507,10 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="E23">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -1534,18 +1534,18 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N23">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="O23">
-        <v>173</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>46025</v>
+        <v>46027</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1554,13 +1554,13 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="E24">
         <v>38</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>38</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1581,18 +1581,18 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="N24">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="O24">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>46025</v>
+        <v>46027</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1601,13 +1601,13 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E25">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1616,10 +1616,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1628,18 +1628,18 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="N25">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="O25">
-        <v>159</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>46025</v>
+        <v>46027</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1648,45 +1648,45 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E26">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>34</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
         <v>1</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>31</v>
-      </c>
-      <c r="J26">
+      <c r="L26">
         <v>1</v>
       </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
       <c r="M26">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="N26">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="O26">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2">
-        <v>46025</v>
+        <v>46027</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
@@ -1695,19 +1695,19 @@
         <v>22</v>
       </c>
       <c r="D27">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="E27">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1722,18 +1722,18 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N27">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="O27">
-        <v>122</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2">
-        <v>46025</v>
+        <v>46027</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -1742,19 +1742,19 @@
         <v>23</v>
       </c>
       <c r="D28">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="E28">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1769,18 +1769,18 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N28">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="O28">
-        <v>198</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2">
-        <v>46025</v>
+        <v>46027</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
@@ -1789,19 +1789,19 @@
         <v>24</v>
       </c>
       <c r="D29">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E29">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G29">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1816,18 +1816,18 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N29">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="O29">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2">
-        <v>46025</v>
+        <v>46027</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
@@ -1836,19 +1836,19 @@
         <v>25</v>
       </c>
       <c r="D30">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E30">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G30">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1863,13 +1863,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="N30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O30">
-        <v>114</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -511,7 +511,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>46027</v>
+        <v>46032</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -520,16 +520,16 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="E2">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -550,15 +550,15 @@
         <v>53</v>
       </c>
       <c r="N2">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="O2">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>46027</v>
+        <v>46032</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -567,19 +567,19 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -594,18 +594,18 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="N3">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="O3">
-        <v>148</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>46027</v>
+        <v>46032</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -614,19 +614,19 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E4">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -641,18 +641,18 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="N4">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="O4">
-        <v>172</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>46027</v>
+        <v>46032</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -661,16 +661,16 @@
         <v>25</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -688,18 +688,18 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="N5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O5">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>46027</v>
+        <v>46032</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -708,19 +708,19 @@
         <v>26</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -735,18 +735,18 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="N6">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O6">
-        <v>106</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>46027</v>
+        <v>46032</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -755,19 +755,19 @@
         <v>22</v>
       </c>
       <c r="D7">
-        <v>271</v>
+        <v>203</v>
       </c>
       <c r="E7">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -782,18 +782,18 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="N7">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="O7">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>46027</v>
+        <v>46032</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -802,19 +802,19 @@
         <v>23</v>
       </c>
       <c r="D8">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="E8">
         <v>33</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>33</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -829,18 +829,18 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="N8">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="O8">
-        <v>166</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>46027</v>
+        <v>46032</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -849,19 +849,19 @@
         <v>24</v>
       </c>
       <c r="D9">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -876,18 +876,18 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="N9">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="O9">
-        <v>136</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>46027</v>
+        <v>46032</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -896,19 +896,19 @@
         <v>25</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E10">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -923,18 +923,18 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N10">
         <v>21</v>
       </c>
       <c r="O10">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>46027</v>
+        <v>46032</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -943,16 +943,16 @@
         <v>22</v>
       </c>
       <c r="D11">
-        <v>225</v>
+        <v>162</v>
       </c>
       <c r="E11">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
       <c r="G11">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -970,18 +970,18 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N11">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="O11">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>46027</v>
+        <v>46032</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -990,19 +990,19 @@
         <v>23</v>
       </c>
       <c r="D12">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="E12">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1017,18 +1017,18 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="N12">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O12">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>46027</v>
+        <v>46032</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1037,19 +1037,19 @@
         <v>24</v>
       </c>
       <c r="D13">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E13">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1064,18 +1064,18 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="N13">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="O13">
-        <v>167</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>46027</v>
+        <v>46032</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1084,19 +1084,19 @@
         <v>25</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E14">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1111,18 +1111,18 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="N14">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="O14">
-        <v>143</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>46027</v>
+        <v>46032</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1131,16 +1131,16 @@
         <v>22</v>
       </c>
       <c r="D15">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="E15">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F15">
         <v>3</v>
       </c>
       <c r="G15">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1158,18 +1158,18 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="N15">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="O15">
-        <v>83</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>46027</v>
+        <v>46032</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1178,19 +1178,19 @@
         <v>23</v>
       </c>
       <c r="D16">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="E16">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G16">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1205,18 +1205,18 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N16">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="O16">
-        <v>135</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>46027</v>
+        <v>46032</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1225,19 +1225,19 @@
         <v>24</v>
       </c>
       <c r="D17">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E17">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G17">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1252,18 +1252,18 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="N17">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="O17">
-        <v>216</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>46027</v>
+        <v>46032</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1272,19 +1272,19 @@
         <v>25</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1299,18 +1299,18 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="N18">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="O18">
-        <v>169</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>46027</v>
+        <v>46032</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1319,16 +1319,16 @@
         <v>22</v>
       </c>
       <c r="D19">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E19">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F19">
         <v>2</v>
       </c>
       <c r="G19">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -1346,18 +1346,18 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="N19">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O19">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>46027</v>
+        <v>46032</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1366,16 +1366,16 @@
         <v>23</v>
       </c>
       <c r="D20">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="E20">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F20">
         <v>3</v>
       </c>
       <c r="G20">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H20">
         <v>3</v>
@@ -1393,18 +1393,18 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="N20">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="O20">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>46027</v>
+        <v>46032</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1413,19 +1413,19 @@
         <v>24</v>
       </c>
       <c r="D21">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E21">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G21">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1440,18 +1440,18 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="N21">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="O21">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>46027</v>
+        <v>46032</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1463,16 +1463,16 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="F22">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G22">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="H22">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1487,18 +1487,18 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="N22">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="O22">
-        <v>109</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>46027</v>
+        <v>46032</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1507,10 +1507,10 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="E23">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -1522,30 +1522,30 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J23">
         <v>3</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M23">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N23">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="O23">
-        <v>201</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>46027</v>
+        <v>46032</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1554,13 +1554,13 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="E24">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1569,30 +1569,30 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M24">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="N24">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="O24">
-        <v>239</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>46027</v>
+        <v>46032</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1601,13 +1601,13 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1616,10 +1616,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="J25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1628,18 +1628,18 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="N25">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="O25">
-        <v>235</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>46027</v>
+        <v>46032</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1648,13 +1648,13 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E26">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1663,30 +1663,30 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N26">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="O26">
-        <v>142</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2">
-        <v>46027</v>
+        <v>46032</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
@@ -1695,19 +1695,19 @@
         <v>22</v>
       </c>
       <c r="D27">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="E27">
         <v>30</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>30</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1722,18 +1722,18 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="N27">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="O27">
-        <v>150</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2">
-        <v>46027</v>
+        <v>46032</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -1742,19 +1742,19 @@
         <v>23</v>
       </c>
       <c r="D28">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="E28">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1769,18 +1769,18 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N28">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="O28">
-        <v>121</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2">
-        <v>46027</v>
+        <v>46032</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
@@ -1789,19 +1789,19 @@
         <v>24</v>
       </c>
       <c r="D29">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E29">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G29">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1819,15 +1819,15 @@
         <v>70</v>
       </c>
       <c r="N29">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="O29">
-        <v>138</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2">
-        <v>46027</v>
+        <v>46032</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
@@ -1836,19 +1836,19 @@
         <v>25</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E30">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="F30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G30">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="H30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1863,13 +1863,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="N30">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="O30">
-        <v>141</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -511,7 +511,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>46032</v>
+        <v>46033</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -520,19 +520,19 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E2">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -540,25 +540,19 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
       <c r="M2">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N2">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="O2">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>46032</v>
+        <v>46033</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -567,19 +561,19 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -587,25 +581,19 @@
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
       <c r="M3">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="N3">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="O3">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>46032</v>
+        <v>46033</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -614,19 +602,19 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E4">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -634,25 +622,19 @@
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
       <c r="M4">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="N4">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="O4">
-        <v>126</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>46032</v>
+        <v>46033</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -661,19 +643,19 @@
         <v>25</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -681,25 +663,19 @@
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
       <c r="M5">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="N5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O5">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>46032</v>
+        <v>46033</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -708,19 +684,19 @@
         <v>26</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -728,25 +704,19 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
       <c r="M6">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="N6">
         <v>9</v>
       </c>
       <c r="O6">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>46032</v>
+        <v>46033</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -755,19 +725,19 @@
         <v>22</v>
       </c>
       <c r="D7">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="E7">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -775,25 +745,19 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
       <c r="M7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N7">
         <v>53</v>
       </c>
       <c r="O7">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>46032</v>
+        <v>46033</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -802,16 +766,16 @@
         <v>23</v>
       </c>
       <c r="D8">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="E8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -822,25 +786,19 @@
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
       <c r="M8">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N8">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="O8">
-        <v>132</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>46032</v>
+        <v>46033</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -849,16 +807,16 @@
         <v>24</v>
       </c>
       <c r="D9">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="E9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -869,25 +827,19 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
       <c r="M9">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N9">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="O9">
-        <v>189</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>46032</v>
+        <v>46033</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -896,19 +848,19 @@
         <v>25</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E10">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -916,25 +868,19 @@
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
       <c r="M10">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="N10">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O10">
-        <v>141</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>46032</v>
+        <v>46033</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -943,16 +889,16 @@
         <v>22</v>
       </c>
       <c r="D11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
       <c r="G11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -963,25 +909,19 @@
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
       <c r="M11">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="N11">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="O11">
-        <v>105</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>46032</v>
+        <v>46033</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -990,7 +930,7 @@
         <v>23</v>
       </c>
       <c r="D12">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="E12">
         <v>39</v>
@@ -1010,25 +950,19 @@
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
       <c r="M12">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="N12">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="O12">
-        <v>153</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>46032</v>
+        <v>46033</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1037,19 +971,19 @@
         <v>24</v>
       </c>
       <c r="D13">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E13">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1057,25 +991,19 @@
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
       <c r="M13">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N13">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="O13">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>46032</v>
+        <v>46033</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1084,19 +1012,19 @@
         <v>25</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E14">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G14">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1104,25 +1032,19 @@
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
       <c r="M14">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="N14">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="O14">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>46032</v>
+        <v>46033</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1131,16 +1053,16 @@
         <v>22</v>
       </c>
       <c r="D15">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="E15">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F15">
         <v>3</v>
       </c>
       <c r="G15">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1151,25 +1073,19 @@
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
       <c r="M15">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="N15">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="O15">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>46032</v>
+        <v>46033</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1178,19 +1094,19 @@
         <v>23</v>
       </c>
       <c r="D16">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E16">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G16">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1198,25 +1114,19 @@
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
       <c r="M16">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N16">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="O16">
-        <v>209</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>46032</v>
+        <v>46033</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1225,19 +1135,19 @@
         <v>24</v>
       </c>
       <c r="D17">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E17">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G17">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1245,25 +1155,19 @@
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
       <c r="M17">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="N17">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O17">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>46032</v>
+        <v>46033</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1272,45 +1176,39 @@
         <v>25</v>
       </c>
       <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>44</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>44</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>116</v>
+      </c>
+      <c r="N18">
         <v>10</v>
       </c>
-      <c r="E18">
-        <v>23</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>23</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>43</v>
-      </c>
-      <c r="N18">
-        <v>12</v>
-      </c>
       <c r="O18">
-        <v>79</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>46032</v>
+        <v>46033</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1319,19 +1217,19 @@
         <v>22</v>
       </c>
       <c r="D19">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="E19">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1339,25 +1237,19 @@
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
       <c r="M19">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="N19">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="O19">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>46032</v>
+        <v>46033</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1366,19 +1258,19 @@
         <v>23</v>
       </c>
       <c r="D20">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E20">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1386,25 +1278,19 @@
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
       <c r="M20">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="N20">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="O20">
-        <v>107</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>46032</v>
+        <v>46033</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1413,19 +1299,19 @@
         <v>24</v>
       </c>
       <c r="D21">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E21">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F21">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="H21">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1433,25 +1319,19 @@
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
       <c r="M21">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="N21">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="O21">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>46032</v>
+        <v>46033</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1460,19 +1340,19 @@
         <v>25</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E22">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="F22">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="H22">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1480,25 +1360,19 @@
       <c r="J22">
         <v>0</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
       <c r="M22">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="N22">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="O22">
-        <v>241</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>46032</v>
+        <v>46033</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1507,13 +1381,13 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="E23">
         <v>33</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1525,27 +1399,21 @@
         <v>33</v>
       </c>
       <c r="J23">
-        <v>3</v>
-      </c>
-      <c r="K23">
-        <v>10</v>
-      </c>
-      <c r="L23">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="M23">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="N23">
         <v>91</v>
       </c>
       <c r="O23">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>46032</v>
+        <v>46033</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1554,13 +1422,13 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1569,30 +1437,24 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J24">
-        <v>4</v>
-      </c>
-      <c r="K24">
-        <v>5</v>
-      </c>
-      <c r="L24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M24">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="N24">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="O24">
-        <v>178</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>46032</v>
+        <v>46033</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1601,10 +1463,10 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E25">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F25">
         <v>3</v>
@@ -1616,30 +1478,24 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J25">
         <v>3</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
       <c r="M25">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="N25">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="O25">
-        <v>127</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>46032</v>
+        <v>46033</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1648,13 +1504,13 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E26">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1663,30 +1519,24 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M26">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="N26">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="O26">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2">
-        <v>46032</v>
+        <v>46033</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
@@ -1695,7 +1545,7 @@
         <v>22</v>
       </c>
       <c r="D27">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="E27">
         <v>30</v>
@@ -1715,25 +1565,19 @@
       <c r="J27">
         <v>0</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
       <c r="M27">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="N27">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O27">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2">
-        <v>46032</v>
+        <v>46033</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -1742,16 +1586,16 @@
         <v>23</v>
       </c>
       <c r="D28">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E28">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
       <c r="G28">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -1762,25 +1606,19 @@
       <c r="J28">
         <v>0</v>
       </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
       <c r="M28">
+        <v>53</v>
+      </c>
+      <c r="N28">
         <v>50</v>
       </c>
-      <c r="N28">
-        <v>47</v>
-      </c>
       <c r="O28">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2">
-        <v>46032</v>
+        <v>46033</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
@@ -1789,19 +1627,19 @@
         <v>24</v>
       </c>
       <c r="D29">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E29">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1809,25 +1647,19 @@
       <c r="J29">
         <v>0</v>
       </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
       <c r="M29">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N29">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="O29">
-        <v>172</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2">
-        <v>46032</v>
+        <v>46033</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
@@ -1836,19 +1668,19 @@
         <v>25</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E30">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F30">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G30">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="H30">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1856,20 +1688,14 @@
       <c r="J30">
         <v>0</v>
       </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
       <c r="M30">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="N30">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="O30">
-        <v>167</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -511,7 +511,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>46033</v>
+        <v>46034</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -520,16 +520,16 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <v>120</v>
+        <v>203</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -540,19 +540,25 @@
       <c r="J2">
         <v>0</v>
       </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
       <c r="M2">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N2">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>46033</v>
+        <v>46034</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -561,16 +567,16 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="E3">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3">
         <v>4</v>
       </c>
       <c r="G3">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -581,19 +587,25 @@
       <c r="J3">
         <v>0</v>
       </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
       <c r="M3">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="N3">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="O3">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>46033</v>
+        <v>46034</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -602,19 +614,19 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -622,19 +634,25 @@
       <c r="J4">
         <v>0</v>
       </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
       <c r="M4">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="N4">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="O4">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>46033</v>
+        <v>46034</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -643,16 +661,16 @@
         <v>25</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -663,19 +681,25 @@
       <c r="J5">
         <v>0</v>
       </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
       <c r="M5">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="N5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O5">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>46033</v>
+        <v>46034</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -684,19 +708,19 @@
         <v>26</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -704,19 +728,25 @@
       <c r="J6">
         <v>0</v>
       </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
       <c r="M6">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="N6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O6">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>46033</v>
+        <v>46034</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -725,19 +755,19 @@
         <v>22</v>
       </c>
       <c r="D7">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -745,19 +775,25 @@
       <c r="J7">
         <v>0</v>
       </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
       <c r="M7">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="N7">
         <v>53</v>
       </c>
       <c r="O7">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>46033</v>
+        <v>46034</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -766,19 +802,19 @@
         <v>23</v>
       </c>
       <c r="D8">
-        <v>213</v>
+        <v>129</v>
       </c>
       <c r="E8">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -786,19 +822,25 @@
       <c r="J8">
         <v>0</v>
       </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
       <c r="M8">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="N8">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="O8">
-        <v>154</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>46033</v>
+        <v>46034</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -807,19 +849,19 @@
         <v>24</v>
       </c>
       <c r="D9">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="E9">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -827,19 +869,25 @@
       <c r="J9">
         <v>0</v>
       </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
       <c r="M9">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="N9">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O9">
-        <v>149</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>46033</v>
+        <v>46034</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -848,39 +896,45 @@
         <v>25</v>
       </c>
       <c r="D10">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>32</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>32</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>88</v>
+      </c>
+      <c r="N10">
         <v>11</v>
       </c>
-      <c r="E10">
-        <v>37</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>37</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>125</v>
-      </c>
-      <c r="N10">
-        <v>16</v>
-      </c>
       <c r="O10">
-        <v>178</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>46033</v>
+        <v>46034</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -889,19 +943,19 @@
         <v>22</v>
       </c>
       <c r="D11">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="E11">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -909,19 +963,25 @@
       <c r="J11">
         <v>0</v>
       </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
       <c r="M11">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="N11">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="O11">
-        <v>134</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>46033</v>
+        <v>46034</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -930,19 +990,19 @@
         <v>23</v>
       </c>
       <c r="D12">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="E12">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -950,19 +1010,25 @@
       <c r="J12">
         <v>0</v>
       </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
       <c r="M12">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N12">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="O12">
-        <v>190</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>46033</v>
+        <v>46034</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -971,19 +1037,19 @@
         <v>24</v>
       </c>
       <c r="D13">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E13">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G13">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -991,19 +1057,25 @@
       <c r="J13">
         <v>0</v>
       </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
       <c r="M13">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="N13">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="O13">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>46033</v>
+        <v>46034</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1012,19 +1084,19 @@
         <v>25</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E14">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1032,19 +1104,25 @@
       <c r="J14">
         <v>0</v>
       </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
       <c r="M14">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="N14">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="O14">
-        <v>182</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>46033</v>
+        <v>46034</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1053,19 +1131,19 @@
         <v>22</v>
       </c>
       <c r="D15">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E15">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1073,19 +1151,25 @@
       <c r="J15">
         <v>0</v>
       </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
       <c r="M15">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="N15">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="O15">
-        <v>194</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>46033</v>
+        <v>46034</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1094,19 +1178,19 @@
         <v>23</v>
       </c>
       <c r="D16">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="E16">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1114,19 +1198,25 @@
       <c r="J16">
         <v>0</v>
       </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
       <c r="M16">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N16">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="O16">
-        <v>187</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>46033</v>
+        <v>46034</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1135,19 +1225,19 @@
         <v>24</v>
       </c>
       <c r="D17">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E17">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G17">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1155,19 +1245,25 @@
       <c r="J17">
         <v>0</v>
       </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
       <c r="M17">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="N17">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="O17">
-        <v>130</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>46033</v>
+        <v>46034</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1176,19 +1272,19 @@
         <v>25</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E18">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G18">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1196,19 +1292,25 @@
       <c r="J18">
         <v>0</v>
       </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
       <c r="M18">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="N18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O18">
-        <v>165</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>46033</v>
+        <v>46034</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1217,19 +1319,19 @@
         <v>22</v>
       </c>
       <c r="D19">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="E19">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1237,19 +1339,25 @@
       <c r="J19">
         <v>0</v>
       </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
       <c r="M19">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N19">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="O19">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>46033</v>
+        <v>46034</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1258,16 +1366,16 @@
         <v>23</v>
       </c>
       <c r="D20">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="E20">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
       <c r="G20">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -1278,19 +1386,25 @@
       <c r="J20">
         <v>0</v>
       </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
       <c r="M20">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="N20">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="O20">
-        <v>140</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>46033</v>
+        <v>46034</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1302,13 +1416,13 @@
         <v>31</v>
       </c>
       <c r="E21">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F21">
         <v>4</v>
       </c>
       <c r="G21">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H21">
         <v>4</v>
@@ -1319,19 +1433,25 @@
       <c r="J21">
         <v>0</v>
       </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
       <c r="M21">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="N21">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="O21">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>46033</v>
+        <v>46034</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1340,16 +1460,16 @@
         <v>25</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="F22">
         <v>3</v>
       </c>
       <c r="G22">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -1360,19 +1480,25 @@
       <c r="J22">
         <v>0</v>
       </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
       <c r="M22">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="N22">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="O22">
-        <v>187</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>46033</v>
+        <v>46034</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1381,10 +1507,10 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>138</v>
+        <v>203</v>
       </c>
       <c r="E23">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -1396,24 +1522,30 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J23">
         <v>2</v>
       </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
       <c r="M23">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="N23">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="O23">
-        <v>194</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>46033</v>
+        <v>46034</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1422,13 +1554,13 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="E24">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1437,24 +1569,30 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="N24">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="O24">
-        <v>284</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>46033</v>
+        <v>46034</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1466,7 +1604,7 @@
         <v>49</v>
       </c>
       <c r="E25">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F25">
         <v>3</v>
@@ -1478,24 +1616,30 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J25">
         <v>3</v>
       </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
       <c r="M25">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="N25">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="O25">
-        <v>169</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>46033</v>
+        <v>46034</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1504,13 +1648,13 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E26">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1519,24 +1663,30 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J26">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="N26">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O26">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2">
-        <v>46033</v>
+        <v>46034</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
@@ -1545,19 +1695,19 @@
         <v>22</v>
       </c>
       <c r="D27">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="E27">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1565,19 +1715,25 @@
       <c r="J27">
         <v>0</v>
       </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
       <c r="M27">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N27">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O27">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2">
-        <v>46033</v>
+        <v>46034</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -1586,16 +1742,16 @@
         <v>23</v>
       </c>
       <c r="D28">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="E28">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
       <c r="G28">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -1606,19 +1762,25 @@
       <c r="J28">
         <v>0</v>
       </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
       <c r="M28">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N28">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="O28">
-        <v>150</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2">
-        <v>46033</v>
+        <v>46034</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
@@ -1627,19 +1789,19 @@
         <v>24</v>
       </c>
       <c r="D29">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E29">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G29">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1647,19 +1809,25 @@
       <c r="J29">
         <v>0</v>
       </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
       <c r="M29">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N29">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="O29">
-        <v>149</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2">
-        <v>46033</v>
+        <v>46034</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
@@ -1668,19 +1836,19 @@
         <v>25</v>
       </c>
       <c r="D30">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E30">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G30">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1688,14 +1856,20 @@
       <c r="J30">
         <v>0</v>
       </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
       <c r="M30">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="N30">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="O30">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -511,7 +511,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>46034</v>
+        <v>46036</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -520,16 +520,16 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -547,18 +547,18 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="N2">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="O2">
-        <v>114</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>46034</v>
+        <v>46036</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -567,16 +567,16 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E3">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>4</v>
       </c>
       <c r="G3">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -594,18 +594,18 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N3">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O3">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>46034</v>
+        <v>46036</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -614,16 +614,16 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E4">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -641,18 +641,18 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="N4">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="O4">
-        <v>194</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>46034</v>
+        <v>46036</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -661,19 +661,19 @@
         <v>25</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -691,15 +691,15 @@
         <v>88</v>
       </c>
       <c r="N5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O5">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>46034</v>
+        <v>46036</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -708,19 +708,19 @@
         <v>26</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F6">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -735,18 +735,18 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="N6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O6">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>46034</v>
+        <v>46036</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -755,19 +755,19 @@
         <v>22</v>
       </c>
       <c r="D7">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="E7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -782,18 +782,18 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N7">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="O7">
-        <v>117</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>46034</v>
+        <v>46036</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -802,19 +802,19 @@
         <v>23</v>
       </c>
       <c r="D8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E8">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -829,18 +829,18 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N8">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="O8">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>46034</v>
+        <v>46036</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -849,16 +849,16 @@
         <v>24</v>
       </c>
       <c r="D9">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
       <c r="G9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -876,18 +876,18 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N9">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="O9">
-        <v>126</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>46034</v>
+        <v>46036</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -896,16 +896,16 @@
         <v>25</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E10">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F10">
         <v>4</v>
       </c>
       <c r="G10">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -923,18 +923,18 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="N10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O10">
-        <v>130</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>46034</v>
+        <v>46036</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -943,19 +943,19 @@
         <v>22</v>
       </c>
       <c r="D11">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="E11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -970,18 +970,18 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="N11">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="O11">
-        <v>170</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>46034</v>
+        <v>46036</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -990,19 +990,19 @@
         <v>23</v>
       </c>
       <c r="D12">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E12">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G12">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1017,18 +1017,18 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="N12">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O12">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>46034</v>
+        <v>46036</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1037,16 +1037,16 @@
         <v>24</v>
       </c>
       <c r="D13">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E13">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F13">
         <v>7</v>
       </c>
       <c r="G13">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H13">
         <v>7</v>
@@ -1064,18 +1064,18 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N13">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="O13">
-        <v>185</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>46034</v>
+        <v>46036</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1084,19 +1084,19 @@
         <v>25</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1111,18 +1111,18 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="N14">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O14">
-        <v>201</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>46034</v>
+        <v>46036</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1131,19 +1131,19 @@
         <v>22</v>
       </c>
       <c r="D15">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="E15">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1158,18 +1158,18 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="N15">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O15">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>46034</v>
+        <v>46036</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1178,19 +1178,19 @@
         <v>23</v>
       </c>
       <c r="D16">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="E16">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G16">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1205,18 +1205,18 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="N16">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O16">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>46034</v>
+        <v>46036</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1225,19 +1225,19 @@
         <v>24</v>
       </c>
       <c r="D17">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E17">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="F17">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G17">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1252,18 +1252,18 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="N17">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="O17">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>46034</v>
+        <v>46036</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1272,19 +1272,19 @@
         <v>25</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E18">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G18">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1299,18 +1299,18 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="N18">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="O18">
-        <v>105</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>46034</v>
+        <v>46036</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1319,19 +1319,19 @@
         <v>22</v>
       </c>
       <c r="D19">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="E19">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1346,18 +1346,18 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="N19">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O19">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>46034</v>
+        <v>46036</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1366,16 +1366,16 @@
         <v>23</v>
       </c>
       <c r="D20">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E20">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
       <c r="G20">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -1393,18 +1393,18 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N20">
         <v>26</v>
       </c>
       <c r="O20">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>46034</v>
+        <v>46036</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1413,19 +1413,19 @@
         <v>24</v>
       </c>
       <c r="D21">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E21">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1440,18 +1440,18 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="N21">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="O21">
-        <v>170</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>46034</v>
+        <v>46036</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1460,19 +1460,19 @@
         <v>25</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E22">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1487,18 +1487,18 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="N22">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O22">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>46034</v>
+        <v>46036</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1507,10 +1507,10 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="E23">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J23">
         <v>2</v>
@@ -1534,18 +1534,18 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N23">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="O23">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>46034</v>
+        <v>46036</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1554,13 +1554,13 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E24">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1569,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1581,18 +1581,18 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="N24">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="O24">
-        <v>190</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>46034</v>
+        <v>46036</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1601,13 +1601,13 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E25">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1616,10 +1616,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1628,18 +1628,18 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="N25">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="O25">
-        <v>205</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>46034</v>
+        <v>46036</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1648,10 +1648,10 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E26">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -1675,18 +1675,18 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="N26">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="O26">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2">
-        <v>46034</v>
+        <v>46036</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
@@ -1695,19 +1695,19 @@
         <v>22</v>
       </c>
       <c r="D27">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="E27">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1722,18 +1722,18 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N27">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="O27">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2">
-        <v>46034</v>
+        <v>46036</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -1742,16 +1742,16 @@
         <v>23</v>
       </c>
       <c r="D28">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="E28">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
       <c r="G28">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -1769,18 +1769,18 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N28">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="O28">
-        <v>129</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2">
-        <v>46034</v>
+        <v>46036</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
@@ -1789,19 +1789,19 @@
         <v>24</v>
       </c>
       <c r="D29">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="E29">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G29">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1816,18 +1816,18 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="N29">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="O29">
-        <v>121</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2">
-        <v>46034</v>
+        <v>46036</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
@@ -1836,19 +1836,19 @@
         <v>25</v>
       </c>
       <c r="D30">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E30">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G30">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1863,13 +1863,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="N30">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="O30">
-        <v>161</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -511,7 +511,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>46036</v>
+        <v>46038</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -520,19 +520,19 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <v>175</v>
+        <v>245</v>
       </c>
       <c r="E2">
         <v>27</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>27</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -547,18 +547,18 @@
         <v>0</v>
       </c>
       <c r="M2">
+        <v>49</v>
+      </c>
+      <c r="N2">
         <v>51</v>
       </c>
-      <c r="N2">
-        <v>60</v>
-      </c>
       <c r="O2">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>46036</v>
+        <v>46038</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -567,19 +567,19 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -594,18 +594,18 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N3">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O3">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>46036</v>
+        <v>46038</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -614,19 +614,19 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E4">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -641,18 +641,18 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="N4">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="O4">
-        <v>124</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>46036</v>
+        <v>46038</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -661,16 +661,16 @@
         <v>25</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -688,10 +688,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="N5">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="O5">
         <v>116</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>46036</v>
+        <v>46038</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -708,19 +708,19 @@
         <v>26</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -735,18 +735,18 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="N6">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="O6">
-        <v>112</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>46036</v>
+        <v>46038</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -755,19 +755,19 @@
         <v>22</v>
       </c>
       <c r="D7">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="E7">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -782,18 +782,18 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N7">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="O7">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>46036</v>
+        <v>46038</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -802,19 +802,19 @@
         <v>23</v>
       </c>
       <c r="D8">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E8">
         <v>32</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <v>32</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -829,18 +829,18 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="N8">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="O8">
-        <v>132</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>46036</v>
+        <v>46038</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -849,19 +849,19 @@
         <v>24</v>
       </c>
       <c r="D9">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -876,18 +876,18 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="N9">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="O9">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>46036</v>
+        <v>46038</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -896,19 +896,19 @@
         <v>25</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E10">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -923,18 +923,18 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="N10">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="O10">
-        <v>107</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>46036</v>
+        <v>46038</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -943,19 +943,19 @@
         <v>22</v>
       </c>
       <c r="D11">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="E11">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -970,18 +970,18 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N11">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O11">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>46036</v>
+        <v>46038</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -990,19 +990,19 @@
         <v>23</v>
       </c>
       <c r="D12">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="E12">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1017,18 +1017,18 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="N12">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="O12">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>46036</v>
+        <v>46038</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1037,19 +1037,19 @@
         <v>24</v>
       </c>
       <c r="D13">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1064,18 +1064,18 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N13">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O13">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>46036</v>
+        <v>46038</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1084,19 +1084,19 @@
         <v>25</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E14">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1111,18 +1111,18 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="N14">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="O14">
-        <v>178</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>46036</v>
+        <v>46038</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1131,16 +1131,16 @@
         <v>22</v>
       </c>
       <c r="D15">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="E15">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
       <c r="G15">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1158,18 +1158,18 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="N15">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="O15">
-        <v>84</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>46036</v>
+        <v>46038</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1178,19 +1178,19 @@
         <v>23</v>
       </c>
       <c r="D16">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E16">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G16">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1205,18 +1205,18 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="N16">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="O16">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>46036</v>
+        <v>46038</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1225,19 +1225,19 @@
         <v>24</v>
       </c>
       <c r="D17">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E17">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G17">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1252,18 +1252,18 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N17">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="O17">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>46036</v>
+        <v>46038</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1272,19 +1272,19 @@
         <v>25</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1299,18 +1299,18 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N18">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="O18">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>46036</v>
+        <v>46038</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1319,16 +1319,16 @@
         <v>22</v>
       </c>
       <c r="D19">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="E19">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1346,18 +1346,18 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N19">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="O19">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>46036</v>
+        <v>46038</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1366,19 +1366,19 @@
         <v>23</v>
       </c>
       <c r="D20">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1393,18 +1393,18 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="N20">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O20">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>46036</v>
+        <v>46038</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1413,19 +1413,19 @@
         <v>24</v>
       </c>
       <c r="D21">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E21">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G21">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1440,18 +1440,18 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N21">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="O21">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>46036</v>
+        <v>46038</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1460,19 +1460,19 @@
         <v>25</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E22">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G22">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1487,18 +1487,18 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>70</v>
+        <v>174</v>
       </c>
       <c r="N22">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="O22">
-        <v>100</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>46036</v>
+        <v>46038</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1507,13 +1507,13 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="E23">
         <v>30</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1525,27 +1525,27 @@
         <v>30</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N23">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="O23">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>46036</v>
+        <v>46038</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1554,13 +1554,13 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E24">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1569,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1581,18 +1581,18 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="N24">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="O24">
-        <v>212</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>46036</v>
+        <v>46038</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1601,13 +1601,13 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E25">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1616,10 +1616,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1628,18 +1628,18 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N25">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="O25">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>46036</v>
+        <v>46038</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1648,13 +1648,13 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1675,18 +1675,18 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="N26">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O26">
-        <v>78</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2">
-        <v>46036</v>
+        <v>46038</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
@@ -1695,19 +1695,19 @@
         <v>22</v>
       </c>
       <c r="D27">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="E27">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1722,18 +1722,18 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N27">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="O27">
-        <v>127</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2">
-        <v>46036</v>
+        <v>46038</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -1742,16 +1742,16 @@
         <v>23</v>
       </c>
       <c r="D28">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="E28">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
       <c r="G28">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -1772,15 +1772,15 @@
         <v>60</v>
       </c>
       <c r="N28">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="O28">
-        <v>144</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2">
-        <v>46036</v>
+        <v>46038</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
@@ -1789,19 +1789,19 @@
         <v>24</v>
       </c>
       <c r="D29">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E29">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1816,18 +1816,18 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="N29">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="O29">
-        <v>202</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2">
-        <v>46036</v>
+        <v>46038</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
@@ -1836,19 +1836,19 @@
         <v>25</v>
       </c>
       <c r="D30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E30">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F30">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G30">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H30">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1863,13 +1863,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="N30">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="O30">
-        <v>118</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -511,7 +511,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -520,19 +520,19 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="E2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -547,18 +547,18 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O2">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -567,19 +567,19 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -594,18 +594,18 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N3">
         <v>31</v>
       </c>
       <c r="O3">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -614,19 +614,19 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E4">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -641,18 +641,18 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="N4">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="O4">
-        <v>276</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -661,19 +661,19 @@
         <v>25</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -688,18 +688,18 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="N5">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="O5">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -711,16 +711,16 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -735,18 +735,18 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="N6">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="O6">
-        <v>173</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -755,19 +755,19 @@
         <v>22</v>
       </c>
       <c r="D7">
-        <v>322</v>
+        <v>254</v>
       </c>
       <c r="E7">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -782,18 +782,18 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N7">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="O7">
-        <v>154</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -802,19 +802,19 @@
         <v>23</v>
       </c>
       <c r="D8">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E8">
         <v>32</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>32</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -829,18 +829,18 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="N8">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="O8">
-        <v>177</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -849,45 +849,45 @@
         <v>24</v>
       </c>
       <c r="D9">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>65</v>
+      </c>
+      <c r="N9">
         <v>36</v>
       </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9">
-        <v>36</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>66</v>
-      </c>
-      <c r="N9">
-        <v>57</v>
-      </c>
       <c r="O9">
-        <v>159</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -896,19 +896,19 @@
         <v>25</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -923,18 +923,18 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="N10">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O10">
-        <v>186</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -943,16 +943,16 @@
         <v>22</v>
       </c>
       <c r="D11">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E11">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F11">
         <v>4</v>
       </c>
       <c r="G11">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -973,15 +973,15 @@
         <v>49</v>
       </c>
       <c r="N11">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O11">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -990,19 +990,19 @@
         <v>23</v>
       </c>
       <c r="D12">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="E12">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G12">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1017,18 +1017,18 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="N12">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="O12">
-        <v>122</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1037,19 +1037,19 @@
         <v>24</v>
       </c>
       <c r="D13">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E13">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G13">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1064,18 +1064,18 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="N13">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="O13">
-        <v>156</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1084,19 +1084,19 @@
         <v>25</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E14">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1111,18 +1111,18 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="N14">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="O14">
-        <v>199</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1131,19 +1131,19 @@
         <v>22</v>
       </c>
       <c r="D15">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="E15">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1158,18 +1158,18 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N15">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="O15">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1178,45 +1178,45 @@
         <v>23</v>
       </c>
       <c r="D16">
+        <v>79</v>
+      </c>
+      <c r="E16">
+        <v>36</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>36</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>82</v>
-      </c>
-      <c r="E16">
-        <v>34</v>
-      </c>
-      <c r="F16">
-        <v>6</v>
-      </c>
-      <c r="G16">
-        <v>34</v>
-      </c>
-      <c r="H16">
-        <v>6</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>66</v>
       </c>
       <c r="N16">
         <v>37</v>
       </c>
       <c r="O16">
-        <v>138</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1225,16 +1225,16 @@
         <v>24</v>
       </c>
       <c r="D17">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E17">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F17">
         <v>7</v>
       </c>
       <c r="G17">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H17">
         <v>7</v>
@@ -1252,18 +1252,18 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="N17">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="O17">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1272,19 +1272,19 @@
         <v>25</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>49</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18">
         <v>49</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1299,18 +1299,18 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="N18">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="O18">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1319,19 +1319,19 @@
         <v>22</v>
       </c>
       <c r="D19">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="E19">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1346,18 +1346,18 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N19">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="O19">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1366,19 +1366,19 @@
         <v>23</v>
       </c>
       <c r="D20">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E20">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1393,18 +1393,18 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="N20">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="O20">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1413,19 +1413,19 @@
         <v>24</v>
       </c>
       <c r="D21">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E21">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1440,18 +1440,18 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="N21">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="O21">
-        <v>146</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1460,19 +1460,19 @@
         <v>25</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E22">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1487,18 +1487,18 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="N22">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="O22">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1507,13 +1507,13 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E23">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1522,30 +1522,30 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N23">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="O23">
-        <v>165</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1554,13 +1554,13 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E24">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1569,30 +1569,30 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M24">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="N24">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="O24">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1601,10 +1601,10 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E25">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F25">
         <v>3</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -1628,18 +1628,18 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="N25">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="O25">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1648,13 +1648,13 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E26">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1675,18 +1675,18 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N26">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="O26">
-        <v>122</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
@@ -1695,19 +1695,19 @@
         <v>22</v>
       </c>
       <c r="D27">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="E27">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1722,18 +1722,18 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="N27">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="O27">
-        <v>163</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -1742,16 +1742,16 @@
         <v>23</v>
       </c>
       <c r="D28">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="E28">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
       <c r="G28">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -1769,18 +1769,18 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="N28">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="O28">
-        <v>177</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
@@ -1792,13 +1792,13 @@
         <v>57</v>
       </c>
       <c r="E29">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F29">
         <v>4</v>
       </c>
       <c r="G29">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H29">
         <v>4</v>
@@ -1816,18 +1816,18 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="N29">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="O29">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
@@ -1836,16 +1836,16 @@
         <v>25</v>
       </c>
       <c r="D30">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E30">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F30">
         <v>4</v>
       </c>
       <c r="G30">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H30">
         <v>4</v>
@@ -1863,13 +1863,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="N30">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="O30">
-        <v>190</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -511,7 +511,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>46044</v>
+        <v>46056</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -520,19 +520,19 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -547,18 +547,18 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N2">
         <v>40</v>
       </c>
       <c r="O2">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>46044</v>
+        <v>46056</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -567,19 +567,19 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -594,18 +594,18 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N3">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="O3">
-        <v>121</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>46044</v>
+        <v>46056</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -614,16 +614,16 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E4">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -644,15 +644,15 @@
         <v>78</v>
       </c>
       <c r="N4">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="O4">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>46044</v>
+        <v>46056</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -661,19 +661,19 @@
         <v>25</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -688,18 +688,18 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="N5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="O5">
-        <v>143</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>46044</v>
+        <v>46056</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -708,19 +708,19 @@
         <v>26</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -735,18 +735,18 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N6">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O6">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>46044</v>
+        <v>46056</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -755,16 +755,16 @@
         <v>22</v>
       </c>
       <c r="D7">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="E7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -782,18 +782,18 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N7">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="O7">
-        <v>116</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>46044</v>
+        <v>46056</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -802,16 +802,16 @@
         <v>23</v>
       </c>
       <c r="D8">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E8">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -832,15 +832,15 @@
         <v>57</v>
       </c>
       <c r="N8">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="O8">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>46044</v>
+        <v>46056</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -849,16 +849,16 @@
         <v>24</v>
       </c>
       <c r="D9">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -876,18 +876,18 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="N9">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="O9">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>46044</v>
+        <v>46056</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -896,19 +896,19 @@
         <v>25</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -923,10 +923,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="N10">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O10">
         <v>164</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>46044</v>
+        <v>46056</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -943,19 +943,19 @@
         <v>22</v>
       </c>
       <c r="D11">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="E11">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -970,18 +970,18 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N11">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="O11">
-        <v>159</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>46044</v>
+        <v>46056</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -990,19 +990,19 @@
         <v>23</v>
       </c>
       <c r="D12">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E12">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F12">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G12">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1017,18 +1017,18 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="N12">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="O12">
-        <v>170</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>46044</v>
+        <v>46056</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1037,19 +1037,19 @@
         <v>24</v>
       </c>
       <c r="D13">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E13">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F13">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="H13">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1064,18 +1064,18 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="N13">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="O13">
-        <v>278</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>46044</v>
+        <v>46056</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1084,19 +1084,19 @@
         <v>25</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E14">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1111,18 +1111,18 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="N14">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="O14">
-        <v>244</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>46044</v>
+        <v>46056</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1131,19 +1131,19 @@
         <v>22</v>
       </c>
       <c r="D15">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E15">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G15">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1158,18 +1158,18 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N15">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="O15">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>46044</v>
+        <v>46056</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1178,19 +1178,19 @@
         <v>23</v>
       </c>
       <c r="D16">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E16">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G16">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1205,10 +1205,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="N16">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O16">
         <v>155</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>46044</v>
+        <v>46056</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1225,19 +1225,19 @@
         <v>24</v>
       </c>
       <c r="D17">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E17">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G17">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1252,18 +1252,18 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="N17">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="O17">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>46044</v>
+        <v>46056</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1272,19 +1272,19 @@
         <v>25</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1299,18 +1299,18 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="N18">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="O18">
-        <v>184</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>46044</v>
+        <v>46056</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1319,16 +1319,16 @@
         <v>22</v>
       </c>
       <c r="D19">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E19">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F19">
         <v>2</v>
       </c>
       <c r="G19">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -1346,18 +1346,18 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="N19">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="O19">
-        <v>75</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>46044</v>
+        <v>46056</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1366,19 +1366,19 @@
         <v>23</v>
       </c>
       <c r="D20">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E20">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1393,18 +1393,18 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="N20">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="O20">
-        <v>92</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>46044</v>
+        <v>46056</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1413,19 +1413,19 @@
         <v>24</v>
       </c>
       <c r="D21">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E21">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G21">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1440,18 +1440,18 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="N21">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="O21">
-        <v>192</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>46044</v>
+        <v>46056</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1460,19 +1460,19 @@
         <v>25</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G22">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1487,18 +1487,18 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="N22">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="O22">
-        <v>234</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>46044</v>
+        <v>46056</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1507,13 +1507,13 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="E23">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1522,10 +1522,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1534,18 +1534,18 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="N23">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O23">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>46044</v>
+        <v>46056</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1554,10 +1554,10 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E24">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F24">
         <v>3</v>
@@ -1569,30 +1569,30 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J24">
         <v>3</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="N24">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="O24">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>46044</v>
+        <v>46056</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1601,13 +1601,13 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E25">
         <v>46</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>46</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1628,18 +1628,18 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="N25">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="O25">
-        <v>192</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>46044</v>
+        <v>46056</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1648,13 +1648,13 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1675,18 +1675,18 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="N26">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="O26">
-        <v>149</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2">
-        <v>46044</v>
+        <v>46056</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
@@ -1695,19 +1695,19 @@
         <v>22</v>
       </c>
       <c r="D27">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="E27">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1722,18 +1722,18 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="N27">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="O27">
-        <v>110</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2">
-        <v>46044</v>
+        <v>46056</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -1742,19 +1742,19 @@
         <v>23</v>
       </c>
       <c r="D28">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E28">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1769,18 +1769,18 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="N28">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="O28">
-        <v>102</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2">
-        <v>46044</v>
+        <v>46056</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
@@ -1789,19 +1789,19 @@
         <v>24</v>
       </c>
       <c r="D29">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E29">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G29">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1816,18 +1816,18 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="N29">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="O29">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2">
-        <v>46044</v>
+        <v>46056</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
@@ -1839,16 +1839,16 @@
         <v>19</v>
       </c>
       <c r="E30">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G30">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1863,13 +1863,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="N30">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="O30">
-        <v>165</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -511,7 +511,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -520,19 +520,19 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -547,18 +547,18 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="N2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="O2">
-        <v>116</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -567,19 +567,19 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="E3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -594,18 +594,18 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="N3">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="O3">
-        <v>141</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -614,16 +614,16 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E4">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -641,18 +641,18 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="N4">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="O4">
-        <v>141</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -661,19 +661,19 @@
         <v>25</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -688,18 +688,18 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="N5">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="O5">
-        <v>161</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -711,16 +711,16 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -735,18 +735,18 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="N6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O6">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -755,19 +755,19 @@
         <v>22</v>
       </c>
       <c r="D7">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="E7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -785,15 +785,15 @@
         <v>38</v>
       </c>
       <c r="N7">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O7">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -802,19 +802,19 @@
         <v>23</v>
       </c>
       <c r="D8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E8">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -829,18 +829,18 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="N8">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="O8">
-        <v>143</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -849,19 +849,19 @@
         <v>24</v>
       </c>
       <c r="D9">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -876,18 +876,18 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="N9">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="O9">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -896,16 +896,16 @@
         <v>25</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F10">
         <v>3</v>
       </c>
       <c r="G10">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -923,18 +923,18 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="N10">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O10">
-        <v>164</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -943,19 +943,19 @@
         <v>22</v>
       </c>
       <c r="D11">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="E11">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -970,18 +970,18 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="N11">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="O11">
-        <v>125</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -990,19 +990,19 @@
         <v>23</v>
       </c>
       <c r="D12">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E12">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G12">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1017,18 +1017,18 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="N12">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="O12">
-        <v>123</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1037,19 +1037,19 @@
         <v>24</v>
       </c>
       <c r="D13">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E13">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G13">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1064,18 +1064,18 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="N13">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="O13">
-        <v>139</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1084,19 +1084,19 @@
         <v>25</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E14">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1111,18 +1111,18 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="N14">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="O14">
-        <v>268</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1131,19 +1131,19 @@
         <v>22</v>
       </c>
       <c r="D15">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="E15">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1158,18 +1158,18 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N15">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="O15">
-        <v>165</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1178,19 +1178,19 @@
         <v>23</v>
       </c>
       <c r="D16">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E16">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G16">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1205,18 +1205,18 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N16">
         <v>39</v>
       </c>
       <c r="O16">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1225,16 +1225,16 @@
         <v>24</v>
       </c>
       <c r="D17">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E17">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F17">
         <v>8</v>
       </c>
       <c r="G17">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="H17">
         <v>8</v>
@@ -1252,18 +1252,18 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="N17">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="O17">
-        <v>215</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1272,19 +1272,19 @@
         <v>25</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E18">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1299,18 +1299,18 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>66</v>
+        <v>159</v>
       </c>
       <c r="N18">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="O18">
-        <v>113</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1319,16 +1319,16 @@
         <v>22</v>
       </c>
       <c r="D19">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="E19">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F19">
         <v>2</v>
       </c>
       <c r="G19">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -1346,18 +1346,18 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="N19">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="O19">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1366,16 +1366,16 @@
         <v>23</v>
       </c>
       <c r="D20">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E20">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
       <c r="G20">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -1393,18 +1393,18 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="N20">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="O20">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1413,16 +1413,16 @@
         <v>24</v>
       </c>
       <c r="D21">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E21">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F21">
         <v>3</v>
       </c>
       <c r="G21">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -1440,18 +1440,18 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="N21">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="O21">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1460,19 +1460,19 @@
         <v>25</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E22">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1487,18 +1487,18 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="N22">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="O22">
-        <v>210</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1507,10 +1507,10 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="E23">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -1531,21 +1531,21 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N23">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O23">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1554,13 +1554,13 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E24">
         <v>37</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>37</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1581,18 +1581,18 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N24">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="O24">
-        <v>197</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1601,13 +1601,13 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E25">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1616,10 +1616,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1628,18 +1628,18 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="N25">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="O25">
-        <v>217</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1648,13 +1648,13 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E26">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1675,18 +1675,18 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="N26">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="O26">
-        <v>190</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
@@ -1695,19 +1695,19 @@
         <v>22</v>
       </c>
       <c r="D27">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="E27">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G27">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1722,18 +1722,18 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="N27">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="O27">
-        <v>171</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -1742,16 +1742,16 @@
         <v>23</v>
       </c>
       <c r="D28">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F28">
         <v>4</v>
       </c>
       <c r="G28">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H28">
         <v>4</v>
@@ -1769,18 +1769,18 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N28">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="O28">
-        <v>197</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
@@ -1789,19 +1789,19 @@
         <v>24</v>
       </c>
       <c r="D29">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E29">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G29">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1816,18 +1816,18 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="N29">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="O29">
-        <v>135</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
@@ -1836,19 +1836,19 @@
         <v>25</v>
       </c>
       <c r="D30">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E30">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G30">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1863,13 +1863,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="N30">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="O30">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -511,7 +511,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -523,16 +523,16 @@
         <v>208</v>
       </c>
       <c r="E2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -547,18 +547,18 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="N2">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="O2">
-        <v>160</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -567,19 +567,19 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -594,18 +594,18 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N3">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="O3">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -614,16 +614,16 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E4">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -641,18 +641,18 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="N4">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="O4">
-        <v>166</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -661,7 +661,7 @@
         <v>25</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>28</v>
@@ -688,18 +688,18 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="N5">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="O5">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -711,13 +711,13 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -735,18 +735,18 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="N6">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="O6">
-        <v>128</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -755,19 +755,19 @@
         <v>22</v>
       </c>
       <c r="D7">
-        <v>319</v>
+        <v>267</v>
       </c>
       <c r="E7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -782,18 +782,18 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="N7">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="O7">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -802,19 +802,19 @@
         <v>23</v>
       </c>
       <c r="D8">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E8">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -829,18 +829,18 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N8">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="O8">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -849,19 +849,19 @@
         <v>24</v>
       </c>
       <c r="D9">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -876,18 +876,18 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N9">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O9">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -896,19 +896,19 @@
         <v>25</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E10">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -923,18 +923,18 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="N10">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="O10">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -943,19 +943,19 @@
         <v>22</v>
       </c>
       <c r="D11">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E11">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -970,18 +970,18 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N11">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O11">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -990,45 +990,45 @@
         <v>23</v>
       </c>
       <c r="D12">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E12">
+        <v>37</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>37</v>
+      </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>74</v>
+      </c>
+      <c r="N12">
         <v>45</v>
       </c>
-      <c r="F12">
-        <v>8</v>
-      </c>
-      <c r="G12">
-        <v>45</v>
-      </c>
-      <c r="H12">
-        <v>8</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>65</v>
-      </c>
-      <c r="N12">
-        <v>44</v>
-      </c>
       <c r="O12">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1037,19 +1037,19 @@
         <v>24</v>
       </c>
       <c r="D13">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E13">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G13">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1064,18 +1064,18 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N13">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="O13">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1084,19 +1084,19 @@
         <v>25</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E14">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1111,18 +1111,18 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="N14">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O14">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1131,19 +1131,19 @@
         <v>22</v>
       </c>
       <c r="D15">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="E15">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G15">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1161,15 +1161,15 @@
         <v>52</v>
       </c>
       <c r="N15">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O15">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1178,19 +1178,19 @@
         <v>23</v>
       </c>
       <c r="D16">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E16">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G16">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1205,18 +1205,18 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="N16">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O16">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1225,19 +1225,19 @@
         <v>24</v>
       </c>
       <c r="D17">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E17">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="H17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1252,18 +1252,18 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="N17">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="O17">
-        <v>263</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1272,19 +1272,19 @@
         <v>25</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E18">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1299,18 +1299,18 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="N18">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="O18">
-        <v>220</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1319,19 +1319,19 @@
         <v>22</v>
       </c>
       <c r="D19">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E19">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N19">
         <v>40</v>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1366,19 +1366,19 @@
         <v>23</v>
       </c>
       <c r="D20">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E20">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1393,18 +1393,18 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="N20">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="O20">
-        <v>95</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1413,19 +1413,19 @@
         <v>24</v>
       </c>
       <c r="D21">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E21">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G21">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1440,18 +1440,18 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="N21">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="O21">
-        <v>146</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1463,16 +1463,16 @@
         <v>8</v>
       </c>
       <c r="E22">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G22">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1487,18 +1487,18 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="N22">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O22">
-        <v>134</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1507,13 +1507,13 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="E23">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1522,30 +1522,30 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>48</v>
       </c>
       <c r="N23">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="O23">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1554,13 +1554,13 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E24">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1569,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1581,18 +1581,18 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="N24">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="O24">
-        <v>174</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1601,10 +1601,10 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E25">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F25">
         <v>3</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -1628,18 +1628,18 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N25">
         <v>28</v>
       </c>
       <c r="O25">
-        <v>125</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1648,10 +1648,10 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E26">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -1675,18 +1675,18 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="N26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O26">
-        <v>130</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
@@ -1695,19 +1695,19 @@
         <v>22</v>
       </c>
       <c r="D27">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="E27">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="H27">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1722,18 +1722,18 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="N27">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="O27">
-        <v>254</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -1742,19 +1742,19 @@
         <v>23</v>
       </c>
       <c r="D28">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="E28">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G28">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1769,18 +1769,18 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="N28">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O28">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
@@ -1789,19 +1789,19 @@
         <v>24</v>
       </c>
       <c r="D29">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E29">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F29">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G29">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H29">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1816,18 +1816,18 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="N29">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="O29">
-        <v>173</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
@@ -1839,16 +1839,16 @@
         <v>14</v>
       </c>
       <c r="E30">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F30">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G30">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H30">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1866,10 +1866,10 @@
         <v>107</v>
       </c>
       <c r="N30">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O30">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -511,7 +511,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -520,19 +520,19 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -547,18 +547,18 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N2">
         <v>47</v>
       </c>
       <c r="O2">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -567,19 +567,19 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -594,18 +594,18 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="N3">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O3">
-        <v>103</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -614,19 +614,19 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E4">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -641,18 +641,18 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="N4">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="O4">
-        <v>108</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -661,16 +661,16 @@
         <v>25</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -688,18 +688,18 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="N5">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="O5">
-        <v>137</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -711,16 +711,16 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -735,18 +735,18 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="N6">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="O6">
-        <v>80</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -755,16 +755,16 @@
         <v>22</v>
       </c>
       <c r="D7">
-        <v>267</v>
+        <v>320</v>
       </c>
       <c r="E7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -782,10 +782,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="N7">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="O7">
         <v>127</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -802,19 +802,19 @@
         <v>23</v>
       </c>
       <c r="D8">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="E8">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -829,18 +829,18 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N8">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O8">
-        <v>108</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -849,16 +849,16 @@
         <v>24</v>
       </c>
       <c r="D9">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="E9">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
       <c r="G9">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -876,18 +876,18 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="N9">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="O9">
-        <v>135</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -896,45 +896,45 @@
         <v>25</v>
       </c>
       <c r="D10">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>34</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>34</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>66</v>
+      </c>
+      <c r="N10">
         <v>17</v>
       </c>
-      <c r="E10">
-        <v>31</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>31</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>75</v>
-      </c>
-      <c r="N10">
-        <v>16</v>
-      </c>
       <c r="O10">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -943,19 +943,19 @@
         <v>22</v>
       </c>
       <c r="D11">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="E11">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -970,18 +970,18 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N11">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="O11">
-        <v>143</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -990,19 +990,19 @@
         <v>23</v>
       </c>
       <c r="D12">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E12">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G12">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1017,18 +1017,18 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N12">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="O12">
-        <v>156</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1037,16 +1037,16 @@
         <v>24</v>
       </c>
       <c r="D13">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E13">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F13">
         <v>12</v>
       </c>
       <c r="G13">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H13">
         <v>12</v>
@@ -1064,18 +1064,18 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="N13">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="O13">
-        <v>181</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1084,19 +1084,19 @@
         <v>25</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1111,18 +1111,18 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="N14">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O14">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1131,19 +1131,19 @@
         <v>22</v>
       </c>
       <c r="D15">
-        <v>210</v>
+        <v>257</v>
       </c>
       <c r="E15">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="N15">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="O15">
         <v>172</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1178,19 +1178,19 @@
         <v>23</v>
       </c>
       <c r="D16">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="E16">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F16">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G16">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1205,18 +1205,18 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="N16">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="O16">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1225,19 +1225,19 @@
         <v>24</v>
       </c>
       <c r="D17">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E17">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="F17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G17">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1252,18 +1252,18 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="N17">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="O17">
-        <v>181</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1272,19 +1272,19 @@
         <v>25</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1299,18 +1299,18 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="N18">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="O18">
-        <v>140</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1319,16 +1319,16 @@
         <v>22</v>
       </c>
       <c r="D19">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="E19">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F19">
         <v>3</v>
       </c>
       <c r="G19">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -1346,18 +1346,18 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="N19">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="O19">
-        <v>95</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1366,19 +1366,19 @@
         <v>23</v>
       </c>
       <c r="D20">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="E20">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1393,18 +1393,18 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="N20">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="O20">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1413,19 +1413,19 @@
         <v>24</v>
       </c>
       <c r="D21">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E21">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G21">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1440,18 +1440,18 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="N21">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="O21">
-        <v>183</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1463,13 +1463,13 @@
         <v>8</v>
       </c>
       <c r="E22">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="F22">
         <v>6</v>
       </c>
       <c r="G22">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="H22">
         <v>6</v>
@@ -1487,18 +1487,18 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="N22">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="O22">
-        <v>273</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1507,13 +1507,13 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="E23">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1522,10 +1522,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1534,18 +1534,18 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N23">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="O23">
-        <v>123</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1554,10 +1554,10 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E24">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24">
         <v>3</v>
@@ -1569,30 +1569,30 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J24">
         <v>3</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="N24">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="O24">
-        <v>230</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1601,13 +1601,13 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E25">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1616,30 +1616,30 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="N25">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O25">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1648,10 +1648,10 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E26">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -1675,18 +1675,18 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N26">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O26">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
@@ -1695,19 +1695,19 @@
         <v>22</v>
       </c>
       <c r="D27">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="E27">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1722,18 +1722,18 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N27">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="O27">
-        <v>138</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -1742,19 +1742,19 @@
         <v>23</v>
       </c>
       <c r="D28">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="E28">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1769,18 +1769,18 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N28">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="O28">
-        <v>128</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
@@ -1789,19 +1789,19 @@
         <v>24</v>
       </c>
       <c r="D29">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E29">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G29">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1816,18 +1816,18 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="N29">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O29">
-        <v>205</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
@@ -1839,16 +1839,16 @@
         <v>14</v>
       </c>
       <c r="E30">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G30">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1863,13 +1863,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="N30">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O30">
-        <v>151</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -511,7 +511,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -520,19 +520,19 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <v>212</v>
+        <v>138</v>
       </c>
       <c r="E2">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -547,18 +547,18 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="O2">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -567,19 +567,19 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="E3">
         <v>33</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>33</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -594,18 +594,18 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N3">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="O3">
-        <v>136</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -614,16 +614,16 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -641,18 +641,18 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N4">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="O4">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -661,16 +661,16 @@
         <v>25</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -688,18 +688,18 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="N5">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="O5">
-        <v>178</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -708,19 +708,19 @@
         <v>26</v>
       </c>
       <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>19</v>
+      </c>
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>27</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
       <c r="G6">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -735,18 +735,18 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="N6">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="O6">
-        <v>138</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -755,19 +755,19 @@
         <v>22</v>
       </c>
       <c r="D7">
-        <v>320</v>
+        <v>221</v>
       </c>
       <c r="E7">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -782,18 +782,18 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="N7">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="O7">
-        <v>127</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -802,19 +802,19 @@
         <v>23</v>
       </c>
       <c r="D8">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="E8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -832,15 +832,15 @@
         <v>53</v>
       </c>
       <c r="N8">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="O8">
-        <v>129</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -849,19 +849,19 @@
         <v>24</v>
       </c>
       <c r="D9">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="E9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -876,18 +876,18 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N9">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="O9">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -896,19 +896,19 @@
         <v>25</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -923,18 +923,18 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="N10">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="O10">
-        <v>116</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -943,19 +943,19 @@
         <v>22</v>
       </c>
       <c r="D11">
-        <v>287</v>
+        <v>145</v>
       </c>
       <c r="E11">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -970,18 +970,18 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="N11">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="O11">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -990,19 +990,19 @@
         <v>23</v>
       </c>
       <c r="D12">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="E12">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F12">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G12">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1017,18 +1017,18 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="N12">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="O12">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1037,19 +1037,19 @@
         <v>24</v>
       </c>
       <c r="D13">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E13">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1064,18 +1064,18 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N13">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="O13">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1084,19 +1084,19 @@
         <v>25</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G14">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1111,18 +1111,18 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="N14">
         <v>28</v>
       </c>
       <c r="O14">
-        <v>178</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1131,19 +1131,19 @@
         <v>22</v>
       </c>
       <c r="D15">
-        <v>257</v>
+        <v>152</v>
       </c>
       <c r="E15">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1158,18 +1158,18 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="N15">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="O15">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1178,16 +1178,16 @@
         <v>23</v>
       </c>
       <c r="D16">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="E16">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F16">
         <v>3</v>
       </c>
       <c r="G16">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -1205,18 +1205,18 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N16">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="O16">
-        <v>155</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1225,45 +1225,45 @@
         <v>24</v>
       </c>
       <c r="D17">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="E17">
+        <v>41</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>41</v>
+      </c>
+      <c r="H17">
+        <v>9</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
         <v>78</v>
       </c>
-      <c r="F17">
-        <v>8</v>
-      </c>
-      <c r="G17">
-        <v>78</v>
-      </c>
-      <c r="H17">
-        <v>8</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>111</v>
-      </c>
       <c r="N17">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="O17">
-        <v>241</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1272,16 +1272,16 @@
         <v>25</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F18">
         <v>4</v>
       </c>
       <c r="G18">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H18">
         <v>4</v>
@@ -1299,18 +1299,18 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="N18">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O18">
-        <v>189</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1319,16 +1319,16 @@
         <v>22</v>
       </c>
       <c r="D19">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="E19">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F19">
         <v>3</v>
       </c>
       <c r="G19">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -1346,18 +1346,18 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N19">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="O19">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1366,19 +1366,19 @@
         <v>23</v>
       </c>
       <c r="D20">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E20">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1393,18 +1393,18 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N20">
         <v>42</v>
       </c>
       <c r="O20">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1413,16 +1413,16 @@
         <v>24</v>
       </c>
       <c r="D21">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E21">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F21">
         <v>3</v>
       </c>
       <c r="G21">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -1440,18 +1440,18 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="N21">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="O21">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1460,19 +1460,19 @@
         <v>25</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E22">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1487,18 +1487,18 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="N22">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O22">
-        <v>253</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1507,10 +1507,10 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>241</v>
+        <v>155</v>
       </c>
       <c r="E23">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -1534,18 +1534,18 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="N23">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="O23">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1554,10 +1554,10 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E24">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F24">
         <v>3</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -1581,18 +1581,18 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N24">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="O24">
-        <v>186</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1601,13 +1601,13 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E25">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1616,30 +1616,30 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="N25">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="O25">
-        <v>123</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1648,13 +1648,13 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E26">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1675,18 +1675,18 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="N26">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O26">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
@@ -1695,19 +1695,19 @@
         <v>22</v>
       </c>
       <c r="D27">
-        <v>257</v>
+        <v>158</v>
       </c>
       <c r="E27">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1722,18 +1722,18 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N27">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="O27">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -1742,19 +1742,19 @@
         <v>23</v>
       </c>
       <c r="D28">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="E28">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G28">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1769,18 +1769,18 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N28">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="O28">
-        <v>148</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
@@ -1789,19 +1789,19 @@
         <v>24</v>
       </c>
       <c r="D29">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E29">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G29">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1816,18 +1816,18 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="N29">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="O29">
-        <v>164</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
@@ -1836,19 +1836,19 @@
         <v>25</v>
       </c>
       <c r="D30">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E30">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F30">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G30">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H30">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1863,13 +1863,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O30">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -511,7 +511,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -520,16 +520,16 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -547,18 +547,18 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N2">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="O2">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -567,19 +567,19 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E3">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -594,18 +594,18 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N3">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -614,19 +614,19 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E4">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -641,18 +641,18 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="N4">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="O4">
-        <v>196</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -661,16 +661,16 @@
         <v>25</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -688,18 +688,18 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="N5">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="O5">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -711,13 +711,13 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -735,18 +735,18 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="N6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O6">
-        <v>78</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -755,16 +755,16 @@
         <v>22</v>
       </c>
       <c r="D7">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="E7">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
       <c r="G7">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -782,18 +782,18 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N7">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="O7">
-        <v>156</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -802,19 +802,19 @@
         <v>23</v>
       </c>
       <c r="D8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E8">
         <v>34</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8">
         <v>34</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -829,18 +829,18 @@
         <v>0</v>
       </c>
       <c r="M8">
+        <v>48</v>
+      </c>
+      <c r="N8">
         <v>53</v>
       </c>
-      <c r="N8">
-        <v>68</v>
-      </c>
       <c r="O8">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -849,16 +849,16 @@
         <v>24</v>
       </c>
       <c r="D9">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="E9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -876,18 +876,18 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="N9">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="O9">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -896,19 +896,19 @@
         <v>25</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E10">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -923,18 +923,18 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="N10">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="O10">
-        <v>180</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -943,19 +943,19 @@
         <v>22</v>
       </c>
       <c r="D11">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E11">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -970,18 +970,18 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="N11">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="O11">
-        <v>171</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -990,19 +990,19 @@
         <v>23</v>
       </c>
       <c r="D12">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E12">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1017,18 +1017,18 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N12">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="O12">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1037,19 +1037,19 @@
         <v>24</v>
       </c>
       <c r="D13">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E13">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G13">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1064,18 +1064,18 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="N13">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="O13">
-        <v>199</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1084,19 +1084,19 @@
         <v>25</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E14">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1111,18 +1111,18 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="N14">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="O14">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1131,19 +1131,19 @@
         <v>22</v>
       </c>
       <c r="D15">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="E15">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1161,15 +1161,15 @@
         <v>58</v>
       </c>
       <c r="N15">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="O15">
-        <v>170</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1178,19 +1178,19 @@
         <v>23</v>
       </c>
       <c r="D16">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E16">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G16">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1205,18 +1205,18 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="N16">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="O16">
-        <v>210</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1225,19 +1225,19 @@
         <v>24</v>
       </c>
       <c r="D17">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E17">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G17">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1252,18 +1252,18 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="N17">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="O17">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1272,19 +1272,19 @@
         <v>25</v>
       </c>
       <c r="D18">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G18">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1299,18 +1299,18 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="N18">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="O18">
-        <v>162</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1319,16 +1319,16 @@
         <v>22</v>
       </c>
       <c r="D19">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="E19">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F19">
         <v>3</v>
       </c>
       <c r="G19">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -1346,18 +1346,18 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="N19">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="O19">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1366,19 +1366,19 @@
         <v>23</v>
       </c>
       <c r="D20">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E20">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1393,18 +1393,18 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="N20">
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="O20">
-        <v>136</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1413,19 +1413,19 @@
         <v>24</v>
       </c>
       <c r="D21">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E21">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1440,18 +1440,18 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N21">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="O21">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1460,19 +1460,19 @@
         <v>25</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E22">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G22">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1487,18 +1487,18 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="N22">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="O22">
-        <v>211</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1507,13 +1507,13 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="E23">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1522,30 +1522,30 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="N23">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="O23">
-        <v>162</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1554,13 +1554,13 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E24">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1569,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1581,18 +1581,18 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N24">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="O24">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1601,13 +1601,13 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E25">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1616,10 +1616,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1628,18 +1628,18 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="N25">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="O25">
-        <v>172</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1648,45 +1648,45 @@
         <v>25</v>
       </c>
       <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>31</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>31</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>79</v>
+      </c>
+      <c r="N26">
         <v>10</v>
       </c>
-      <c r="E26">
-        <v>24</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>24</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>51</v>
-      </c>
-      <c r="N26">
-        <v>8</v>
-      </c>
       <c r="O26">
-        <v>81</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
@@ -1695,19 +1695,19 @@
         <v>22</v>
       </c>
       <c r="D27">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="E27">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1722,18 +1722,18 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="N27">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="O27">
-        <v>168</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -1742,19 +1742,19 @@
         <v>23</v>
       </c>
       <c r="D28">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="E28">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1769,18 +1769,18 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N28">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="O28">
-        <v>175</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
@@ -1789,19 +1789,19 @@
         <v>24</v>
       </c>
       <c r="D29">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E29">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G29">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1816,18 +1816,18 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="N29">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="O29">
-        <v>207</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
@@ -1836,16 +1836,16 @@
         <v>25</v>
       </c>
       <c r="D30">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E30">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F30">
         <v>3</v>
       </c>
       <c r="G30">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -1863,13 +1863,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="N30">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="O30">
-        <v>136</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/data/hme/transformed/hme_transformed.xlsx
+++ b/data/hme/transformed/hme_transformed.xlsx
@@ -511,7 +511,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -520,16 +520,16 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="E2">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -547,18 +547,18 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="N2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O2">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -567,16 +567,16 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="E3">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F3">
         <v>4</v>
       </c>
       <c r="G3">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -594,18 +594,18 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N3">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="O3">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -614,16 +614,16 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E4">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -641,18 +641,18 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="N4">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="O4">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -661,45 +661,45 @@
         <v>25</v>
       </c>
       <c r="D5">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>29</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>29</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>75</v>
+      </c>
+      <c r="N5">
         <v>10</v>
       </c>
-      <c r="E5">
-        <v>41</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>41</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>65</v>
-      </c>
-      <c r="N5">
-        <v>30</v>
-      </c>
       <c r="O5">
-        <v>137</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -708,19 +708,19 @@
         <v>26</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -735,18 +735,18 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="N6">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="O6">
-        <v>115</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -755,16 +755,16 @@
         <v>22</v>
       </c>
       <c r="D7">
-        <v>173</v>
+        <v>286</v>
       </c>
       <c r="E7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
       <c r="G7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -782,18 +782,18 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="N7">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="O7">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -802,19 +802,19 @@
         <v>23</v>
       </c>
       <c r="D8">
-        <v>192</v>
+        <v>141</v>
       </c>
       <c r="E8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -829,18 +829,18 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N8">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="O8">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -849,19 +849,19 @@
         <v>24</v>
       </c>
       <c r="D9">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="E9">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -876,18 +876,18 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="N9">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="O9">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -896,19 +896,19 @@
         <v>25</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -923,18 +923,18 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="N10">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="O10">
-        <v>99</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -943,19 +943,19 @@
         <v>22</v>
       </c>
       <c r="D11">
-        <v>134</v>
+        <v>244</v>
       </c>
       <c r="E11">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -970,18 +970,18 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N11">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="O11">
-        <v>135</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -990,19 +990,19 @@
         <v>23</v>
       </c>
       <c r="D12">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="E12">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1017,18 +1017,18 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N12">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="O12">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1037,19 +1037,19 @@
         <v>24</v>
       </c>
       <c r="D13">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E13">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="F13">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G13">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1064,18 +1064,18 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="N13">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="O13">
-        <v>252</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1084,19 +1084,19 @@
         <v>25</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E14">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1111,18 +1111,18 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="N14">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="O14">
-        <v>199</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1131,19 +1131,19 @@
         <v>22</v>
       </c>
       <c r="D15">
-        <v>115</v>
+        <v>208</v>
       </c>
       <c r="E15">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1158,18 +1158,18 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="N15">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="O15">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1178,16 +1178,16 @@
         <v>23</v>
       </c>
       <c r="D16">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="E16">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F16">
         <v>8</v>
       </c>
       <c r="G16">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H16">
         <v>8</v>
@@ -1205,18 +1205,18 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="N16">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="O16">
-        <v>234</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1225,16 +1225,16 @@
         <v>24</v>
       </c>
       <c r="D17">
+        <v>63</v>
+      </c>
+      <c r="E17">
         <v>40</v>
-      </c>
-      <c r="E17">
-        <v>39</v>
       </c>
       <c r="F17">
         <v>10</v>
       </c>
       <c r="G17">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H17">
         <v>10</v>
@@ -1252,18 +1252,18 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="N17">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="O17">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1275,16 +1275,16 @@
         <v>7</v>
       </c>
       <c r="E18">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G18">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1299,18 +1299,18 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="N18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O18">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1319,19 +1319,19 @@
         <v>22</v>
       </c>
       <c r="D19">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="E19">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1346,18 +1346,18 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N19">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="O19">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1366,19 +1366,19 @@
         <v>23</v>
       </c>
       <c r="D20">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="E20">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G20">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1393,18 +1393,18 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="N20">
-        <v>196</v>
+        <v>58</v>
       </c>
       <c r="O20">
-        <v>275</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1413,19 +1413,19 @@
         <v>24</v>
       </c>
       <c r="D21">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E21">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G21">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1440,18 +1440,18 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="N21">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="O21">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1460,19 +1460,19 @@
         <v>25</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E22">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G22">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1487,18 +1487,18 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="N22">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="O22">
-        <v>127</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1507,13 +1507,13 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>123</v>
+        <v>219</v>
       </c>
       <c r="E23">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1522,30 +1522,30 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="N23">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O23">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1554,13 +1554,13 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="E24">
         <v>33</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1572,27 +1572,27 @@
         <v>33</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="N24">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="O24">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1601,13 +1601,13 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="E25">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1616,30 +1616,30 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="N25">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="O25">
-        <v>144</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1648,13 +1648,13 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E26">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1675,18 +1675,18 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="N26">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O26">
-        <v>107</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
@@ -1695,19 +1695,19 @@
         <v>22</v>
       </c>
       <c r="D27">
-        <v>137</v>
+        <v>239</v>
       </c>
       <c r="E27">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1722,18 +1722,18 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N27">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="O27">
-        <v>122</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -1742,19 +1742,19 @@
         <v>23</v>
       </c>
       <c r="D28">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="E28">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G28">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1769,18 +1769,18 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="N28">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="O28">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
@@ -1789,19 +1789,19 @@
         <v>24</v>
       </c>
       <c r="D29">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E29">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G29">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1816,18 +1816,18 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="N29">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="O29">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
@@ -1836,19 +1836,19 @@
         <v>25</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E30">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G30">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1863,13 +1863,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="N30">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O30">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
